--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.415070642411683</v>
+        <v>2.415070642411584</v>
       </c>
       <c r="D2">
-        <v>2.109414637237585</v>
+        <v>2.109414637237519</v>
       </c>
       <c r="E2">
-        <v>5.752281724720907</v>
+        <v>5.752281724720969</v>
       </c>
       <c r="F2">
-        <v>26.75728184644338</v>
+        <v>26.75728184644339</v>
       </c>
       <c r="G2">
-        <v>19.96676016984287</v>
+        <v>19.96676016984286</v>
       </c>
       <c r="H2">
         <v>19.35461631772645</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>60.84699090366173</v>
+        <v>60.84699090366166</v>
       </c>
       <c r="K2">
-        <v>5.326380038514018</v>
+        <v>5.326380038514076</v>
       </c>
       <c r="L2">
-        <v>38.43888687048192</v>
+        <v>38.43888687048187</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.286251321898639</v>
+        <v>2.286251321898755</v>
       </c>
       <c r="D3">
-        <v>1.816420911921948</v>
+        <v>1.816420911921945</v>
       </c>
       <c r="E3">
-        <v>5.703760160538499</v>
+        <v>5.703760160538447</v>
       </c>
       <c r="F3">
-        <v>24.51240632248533</v>
+        <v>24.51240632248524</v>
       </c>
       <c r="G3">
-        <v>18.17770562616316</v>
+        <v>18.17770562616309</v>
       </c>
       <c r="H3">
-        <v>17.63762624708375</v>
+        <v>17.63762624708369</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>56.55476287676808</v>
+        <v>56.55476287676803</v>
       </c>
       <c r="K3">
-        <v>5.319316439154046</v>
+        <v>5.319316439154017</v>
       </c>
       <c r="L3">
-        <v>35.71794872339776</v>
+        <v>35.71794872339773</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.206394202557007</v>
+        <v>2.206394202557209</v>
       </c>
       <c r="D4">
-        <v>1.637961015571828</v>
+        <v>1.637961015571951</v>
       </c>
       <c r="E4">
-        <v>5.686393222544772</v>
+        <v>5.686393222544813</v>
       </c>
       <c r="F4">
-        <v>23.30005809405518</v>
+        <v>23.30005809405521</v>
       </c>
       <c r="G4">
-        <v>17.28874127876389</v>
+        <v>17.2887412787639</v>
       </c>
       <c r="H4">
-        <v>16.88395840764914</v>
+        <v>16.88395840764915</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>53.79094010134149</v>
+        <v>53.79094010134148</v>
       </c>
       <c r="K4">
-        <v>5.32596071069301</v>
+        <v>5.325960710692986</v>
       </c>
       <c r="L4">
-        <v>33.96797619163241</v>
+        <v>33.96797619163237</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.173610647368732</v>
+        <v>2.173610647368722</v>
       </c>
       <c r="D5">
-        <v>1.62009258112251</v>
+        <v>1.620092581122503</v>
       </c>
       <c r="E5">
-        <v>5.682201378699228</v>
+        <v>5.682201378699203</v>
       </c>
       <c r="F5">
-        <v>22.86018252371153</v>
+        <v>22.86018252371158</v>
       </c>
       <c r="G5">
-        <v>17.01152168844532</v>
+        <v>17.01152168844533</v>
       </c>
       <c r="H5">
-        <v>16.62447042443252</v>
+        <v>16.62447042443253</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>52.6314634014769</v>
+        <v>52.63146340147687</v>
       </c>
       <c r="K5">
-        <v>5.331184848463924</v>
+        <v>5.331184848463902</v>
       </c>
       <c r="L5">
-        <v>33.23430324007954</v>
+        <v>33.23430324007955</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.168151171096472</v>
+        <v>2.168151171096557</v>
       </c>
       <c r="D6">
-        <v>1.632415766946933</v>
+        <v>1.632415766946999</v>
       </c>
       <c r="E6">
-        <v>5.681672871394249</v>
+        <v>5.681672871394153</v>
       </c>
       <c r="F6">
-        <v>22.78791419817954</v>
+        <v>22.78791419817955</v>
       </c>
       <c r="G6">
-        <v>16.96642332804366</v>
+        <v>16.96642332804369</v>
       </c>
       <c r="H6">
-        <v>16.58223305509393</v>
+        <v>16.58223305509397</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>52.43690321591134</v>
+        <v>52.43690321591122</v>
       </c>
       <c r="K6">
-        <v>5.33219755960724</v>
+        <v>5.332197559607133</v>
       </c>
       <c r="L6">
-        <v>33.11122015819145</v>
+        <v>33.11122015819137</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.205953105467295</v>
+        <v>2.205953105467506</v>
       </c>
       <c r="D7">
-        <v>1.636982306378997</v>
+        <v>1.636982306379001</v>
       </c>
       <c r="E7">
-        <v>5.686325312939696</v>
+        <v>5.68632531293985</v>
       </c>
       <c r="F7">
-        <v>23.29407407525671</v>
+        <v>23.29407407525669</v>
       </c>
       <c r="G7">
-        <v>17.28493989157759</v>
+        <v>17.28493989157755</v>
       </c>
       <c r="H7">
-        <v>16.880401725517</v>
+        <v>16.88040172551696</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>53.77543854652808</v>
+        <v>53.77543854652823</v>
       </c>
       <c r="K7">
-        <v>5.326021283603372</v>
+        <v>5.32602128360343</v>
       </c>
       <c r="L7">
-        <v>33.95816555703189</v>
+        <v>33.95816555703198</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.370778037910722</v>
+        <v>2.37077803791053</v>
       </c>
       <c r="D8">
-        <v>2.007982066566834</v>
+        <v>2.007982066566715</v>
       </c>
       <c r="E8">
-        <v>5.732824025008012</v>
+        <v>5.732824025008028</v>
       </c>
       <c r="F8">
-        <v>25.97940499664203</v>
+        <v>25.97940499664202</v>
       </c>
       <c r="G8">
-        <v>19.34676244406607</v>
+        <v>19.34676244406606</v>
       </c>
       <c r="H8">
-        <v>18.76053572512713</v>
+        <v>18.76053572512714</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>59.39309293293228</v>
+        <v>59.39309293293235</v>
       </c>
       <c r="K8">
-        <v>5.321511046120811</v>
+        <v>5.321511046120843</v>
       </c>
       <c r="L8">
-        <v>37.51678214965329</v>
+        <v>37.51678214965333</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.690938254179793</v>
+        <v>2.690938254179788</v>
       </c>
       <c r="D9">
-        <v>2.75641344611278</v>
+        <v>2.756413446112849</v>
       </c>
       <c r="E9">
-        <v>6.15679309068259</v>
+        <v>6.156793090682573</v>
       </c>
       <c r="F9">
-        <v>31.70381302541414</v>
+        <v>31.70381302541428</v>
       </c>
       <c r="G9">
-        <v>23.91215615155055</v>
+        <v>23.9121561515507</v>
       </c>
       <c r="H9">
-        <v>23.11741485968163</v>
+        <v>23.11741485968176</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>69.43807629526502</v>
+        <v>69.43807629526515</v>
       </c>
       <c r="K9">
-        <v>6.029254647457462</v>
+        <v>6.029254647457474</v>
       </c>
       <c r="L9">
-        <v>43.89743661541898</v>
+        <v>43.89743661541906</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.929869411613673</v>
+        <v>2.929869411613683</v>
       </c>
       <c r="D10">
-        <v>3.336134543930357</v>
+        <v>3.336134543930117</v>
       </c>
       <c r="E10">
-        <v>6.861695520916046</v>
+        <v>6.861695520916116</v>
       </c>
       <c r="F10">
-        <v>36.07614424348491</v>
+        <v>36.07614424348471</v>
       </c>
       <c r="G10">
-        <v>27.40541979290342</v>
+        <v>27.40541979290317</v>
       </c>
       <c r="H10">
-        <v>26.43054711816115</v>
+        <v>26.43054711816094</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>76.30456939847926</v>
+        <v>76.30456939847919</v>
       </c>
       <c r="K10">
-        <v>6.707269082400194</v>
+        <v>6.707269082400227</v>
       </c>
       <c r="L10">
-        <v>48.27339410875715</v>
+        <v>48.2733941087571</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.041151388976213</v>
+        <v>3.041151388976319</v>
       </c>
       <c r="D11">
-        <v>3.61161402539674</v>
+        <v>3.611614025396868</v>
       </c>
       <c r="E11">
-        <v>7.182550244081562</v>
+        <v>7.182550244081582</v>
       </c>
       <c r="F11">
-        <v>38.1269936140665</v>
+        <v>38.12699361406636</v>
       </c>
       <c r="G11">
-        <v>29.0463039587752</v>
+        <v>29.0463039587751</v>
       </c>
       <c r="H11">
-        <v>27.98242067405144</v>
+        <v>27.98242067405133</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>79.33919058445149</v>
+        <v>79.33919058445147</v>
       </c>
       <c r="K11">
-        <v>7.014120749371477</v>
+        <v>7.01412074937153</v>
       </c>
       <c r="L11">
-        <v>50.21149339823759</v>
+        <v>50.21149339823761</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.083868098180125</v>
+        <v>3.083868098180231</v>
       </c>
       <c r="D12">
-        <v>3.718214414671565</v>
+        <v>3.718214414671497</v>
       </c>
       <c r="E12">
-        <v>7.304483511318889</v>
+        <v>7.304483511318921</v>
       </c>
       <c r="F12">
-        <v>38.91562483570558</v>
+        <v>38.91562483570517</v>
       </c>
       <c r="G12">
-        <v>29.67772374970616</v>
+        <v>29.67772374970581</v>
       </c>
       <c r="H12">
-        <v>28.5789486684147</v>
+        <v>28.57894866841436</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>80.47793007306967</v>
+        <v>80.47793007306952</v>
       </c>
       <c r="K12">
-        <v>7.130501139105064</v>
+        <v>7.130501139105109</v>
       </c>
       <c r="L12">
-        <v>50.939473706652</v>
+        <v>50.93947370665187</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.074638748671217</v>
+        <v>3.074638748671134</v>
       </c>
       <c r="D13">
-        <v>3.695143427320789</v>
+        <v>3.69514342732066</v>
       </c>
       <c r="E13">
-        <v>7.278196107124646</v>
+        <v>7.278196107124647</v>
       </c>
       <c r="F13">
-        <v>38.74518370702204</v>
+        <v>38.74518370702197</v>
       </c>
       <c r="G13">
-        <v>29.54123859051247</v>
+        <v>29.54123859051241</v>
       </c>
       <c r="H13">
-        <v>28.45003421202223</v>
+        <v>28.4500342120222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>80.23310056923972</v>
+        <v>80.23310056923978</v>
       </c>
       <c r="K13">
-        <v>7.105420792154208</v>
+        <v>7.105420792154198</v>
       </c>
       <c r="L13">
-        <v>50.78292395735077</v>
+        <v>50.78292395735079</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,19 +874,19 @@
         <v>3.044652780243351</v>
       </c>
       <c r="D14">
-        <v>3.620334395844592</v>
+        <v>3.620334395844331</v>
       </c>
       <c r="E14">
-        <v>7.192570381324245</v>
+        <v>7.192570381324242</v>
       </c>
       <c r="F14">
-        <v>38.19161238584497</v>
+        <v>38.19161238584507</v>
       </c>
       <c r="G14">
-        <v>29.09803187795203</v>
+        <v>29.09803187795206</v>
       </c>
       <c r="H14">
-        <v>28.03130298617307</v>
+        <v>28.03130298617311</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>79.43306814561501</v>
       </c>
       <c r="K14">
-        <v>7.023689066689268</v>
+        <v>7.02368906668926</v>
       </c>
       <c r="L14">
         <v>50.27149302419006</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.026367664562461</v>
+        <v>3.026367664562472</v>
       </c>
       <c r="D15">
-        <v>3.574829215000081</v>
+        <v>3.574829215000082</v>
       </c>
       <c r="E15">
-        <v>7.140192381600033</v>
+        <v>7.140192381600048</v>
       </c>
       <c r="F15">
-        <v>37.85420904764248</v>
+        <v>37.85420904764242</v>
       </c>
       <c r="G15">
-        <v>28.82795551326394</v>
+        <v>28.82795551326386</v>
       </c>
       <c r="H15">
-        <v>27.77605805162278</v>
+        <v>27.77605805162273</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>78.94175080364433</v>
+        <v>78.94175080364437</v>
       </c>
       <c r="K15">
-        <v>6.97366365985136</v>
+        <v>6.973663659851352</v>
       </c>
       <c r="L15">
-        <v>49.95750865231049</v>
+        <v>49.95750865231052</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.922665172886572</v>
+        <v>2.922665172886467</v>
       </c>
       <c r="D16">
-        <v>3.31841499744056</v>
+        <v>3.318414997440432</v>
       </c>
       <c r="E16">
-        <v>6.840762978824971</v>
+        <v>6.840762978825018</v>
       </c>
       <c r="F16">
-        <v>35.94360624317054</v>
+        <v>35.94360624317063</v>
       </c>
       <c r="G16">
-        <v>27.29943093787264</v>
+        <v>27.29943093787267</v>
       </c>
       <c r="H16">
-        <v>26.33022008009379</v>
+        <v>26.33022008009382</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>76.10465099003348</v>
+        <v>76.1046509900336</v>
       </c>
       <c r="K16">
-        <v>6.687216601712747</v>
+        <v>6.687216601712787</v>
       </c>
       <c r="L16">
-        <v>48.14580726456111</v>
+        <v>48.14580726456118</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.859838747831525</v>
+        <v>2.859838747831407</v>
       </c>
       <c r="D17">
-        <v>3.16449924476227</v>
+        <v>3.164499244762207</v>
       </c>
       <c r="E17">
-        <v>6.65737768736725</v>
+        <v>6.65737768736724</v>
       </c>
       <c r="F17">
-        <v>34.78928454330499</v>
+        <v>34.78928454330504</v>
       </c>
       <c r="G17">
-        <v>26.37660613285073</v>
+        <v>26.37660613285076</v>
       </c>
       <c r="H17">
-        <v>25.45620966521244</v>
+        <v>25.45620966521248</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>74.34292493127101</v>
+        <v>74.34292493127111</v>
       </c>
       <c r="K17">
-        <v>6.511347684097217</v>
+        <v>6.51134768409719</v>
       </c>
       <c r="L17">
-        <v>47.02196629591756</v>
+        <v>47.02196629591764</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.823931476806925</v>
+        <v>2.82393147680683</v>
       </c>
       <c r="D18">
-        <v>3.077034891207788</v>
+        <v>3.077034891207853</v>
       </c>
       <c r="E18">
-        <v>6.551887635834749</v>
+        <v>6.55188763583473</v>
       </c>
       <c r="F18">
-        <v>34.13093431053736</v>
+        <v>34.1309343105374</v>
       </c>
       <c r="G18">
-        <v>25.85049866816746</v>
+        <v>25.85049866816749</v>
       </c>
       <c r="H18">
-        <v>24.95752714314613</v>
+        <v>24.95752714314616</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>73.32108070052756</v>
+        <v>73.3210807005276</v>
       </c>
       <c r="K18">
-        <v>6.410014365792318</v>
+        <v>6.410014365792326</v>
       </c>
       <c r="L18">
-        <v>46.37050080012683</v>
+        <v>46.37050080012685</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.811807867496714</v>
+        <v>2.811807867496614</v>
       </c>
       <c r="D19">
-        <v>3.047588126407933</v>
+        <v>3.047588126407997</v>
       </c>
       <c r="E19">
-        <v>6.516157845490307</v>
+        <v>6.516157845490291</v>
       </c>
       <c r="F19">
-        <v>33.90890758812845</v>
+        <v>33.90890758812851</v>
       </c>
       <c r="G19">
-        <v>25.67310414010819</v>
+        <v>25.67310414010825</v>
       </c>
       <c r="H19">
-        <v>24.78931042436565</v>
+        <v>24.78931042436569</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>72.97356993280533</v>
+        <v>72.97356993280538</v>
       </c>
       <c r="K19">
-        <v>6.375663105705362</v>
+        <v>6.375663105705319</v>
       </c>
       <c r="L19">
-        <v>46.14901304386919</v>
+        <v>46.14901304386921</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.866501746336819</v>
+        <v>2.866501746336718</v>
       </c>
       <c r="D20">
-        <v>3.18076993749502</v>
+        <v>3.180769937494894</v>
       </c>
       <c r="E20">
-        <v>6.676897975553602</v>
+        <v>6.676897975553587</v>
       </c>
       <c r="F20">
-        <v>34.91156645583393</v>
+        <v>34.91156645583375</v>
       </c>
       <c r="G20">
-        <v>26.4743419959333</v>
+        <v>26.47434199593312</v>
       </c>
       <c r="H20">
-        <v>25.54881763572822</v>
+        <v>25.54881763572809</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>74.53133259897814</v>
+        <v>74.53133259897805</v>
       </c>
       <c r="K20">
-        <v>6.530085012983272</v>
+        <v>6.530085012983269</v>
       </c>
       <c r="L20">
-        <v>47.14211444548287</v>
+        <v>47.14211444548283</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.053442813485986</v>
+        <v>3.053442813485691</v>
       </c>
       <c r="D21">
-        <v>3.642240159320314</v>
+        <v>3.642240159320188</v>
       </c>
       <c r="E21">
-        <v>7.217705211576061</v>
+        <v>7.217705211576046</v>
       </c>
       <c r="F21">
-        <v>38.35385356308926</v>
+        <v>38.3538535630891</v>
       </c>
       <c r="G21">
-        <v>29.22791469618808</v>
+        <v>29.22791469618792</v>
       </c>
       <c r="H21">
-        <v>28.15403060923082</v>
+        <v>28.15403060923072</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>79.66831752378808</v>
+        <v>79.66831752378795</v>
       </c>
       <c r="K21">
-        <v>7.047686931006254</v>
+        <v>7.047686931006221</v>
       </c>
       <c r="L21">
-        <v>50.42185886999198</v>
+        <v>50.42185886999191</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.179122710140545</v>
+        <v>3.179122710140732</v>
       </c>
       <c r="D22">
-        <v>3.957544388654742</v>
+        <v>3.957544388654619</v>
       </c>
       <c r="E22">
-        <v>7.57395084269032</v>
+        <v>7.573950842690359</v>
       </c>
       <c r="F22">
-        <v>40.67589013513058</v>
+        <v>40.67589013513037</v>
       </c>
       <c r="G22">
-        <v>31.08799156423418</v>
+        <v>31.08799156423396</v>
       </c>
       <c r="H22">
-        <v>29.91010622146126</v>
+        <v>29.91010622146101</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>82.96655359092509</v>
+        <v>82.96655359092495</v>
       </c>
       <c r="K22">
-        <v>7.387304199378954</v>
+        <v>7.38730419937903</v>
       </c>
       <c r="L22">
-        <v>52.53183416635078</v>
+        <v>52.5318341663507</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.111640379113482</v>
+        <v>3.11164037911341</v>
       </c>
       <c r="D23">
-        <v>3.787765552604678</v>
+        <v>3.787765552604619</v>
       </c>
       <c r="E23">
-        <v>7.383395172131678</v>
+        <v>7.383395172131639</v>
       </c>
       <c r="F23">
-        <v>39.42864609951337</v>
+        <v>39.42864609951339</v>
       </c>
       <c r="G23">
-        <v>30.08860939505572</v>
+        <v>30.08860939505574</v>
       </c>
       <c r="H23">
-        <v>28.96694975543818</v>
+        <v>28.96694975543823</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>81.21067638189626</v>
       </c>
       <c r="K23">
-        <v>7.205757882916429</v>
+        <v>7.205757882916421</v>
       </c>
       <c r="L23">
-        <v>51.40812069176079</v>
+        <v>51.40812069176076</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.863488757460512</v>
+        <v>2.863488757460501</v>
       </c>
       <c r="D24">
-        <v>3.17341081053825</v>
+        <v>3.173410810538192</v>
       </c>
       <c r="E24">
-        <v>6.668073067340359</v>
+        <v>6.668073067340355</v>
       </c>
       <c r="F24">
-        <v>34.8562665643838</v>
+        <v>34.85626656438365</v>
       </c>
       <c r="G24">
-        <v>26.43014197780874</v>
+        <v>26.43014197780861</v>
       </c>
       <c r="H24">
-        <v>25.50693791663966</v>
+        <v>25.50693791663951</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>74.44618171156149</v>
+        <v>74.44618171156142</v>
       </c>
       <c r="K24">
-        <v>6.52161459358897</v>
+        <v>6.521614593588946</v>
       </c>
       <c r="L24">
-        <v>47.08781226138849</v>
+        <v>47.08781226138841</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.604164714309537</v>
+        <v>2.604164714309474</v>
       </c>
       <c r="D25">
-        <v>2.550175720792083</v>
+        <v>2.550175720792155</v>
       </c>
       <c r="E25">
-        <v>5.895203924095918</v>
+        <v>5.895203924095915</v>
       </c>
       <c r="F25">
-        <v>30.13251705840769</v>
+        <v>30.13251705840806</v>
       </c>
       <c r="G25">
-        <v>22.65823824285241</v>
+        <v>22.65823824285271</v>
       </c>
       <c r="H25">
-        <v>21.92437006681513</v>
+        <v>21.92437006681544</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>66.8173147126558</v>
+        <v>66.81731471265587</v>
       </c>
       <c r="K25">
-        <v>5.775918057673199</v>
+        <v>5.775918057673223</v>
       </c>
       <c r="L25">
-        <v>42.23043060208305</v>
+        <v>42.23043060208316</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.415070642411584</v>
+        <v>2.415070642411683</v>
       </c>
       <c r="D2">
-        <v>2.109414637237519</v>
+        <v>2.109414637237585</v>
       </c>
       <c r="E2">
-        <v>5.752281724720969</v>
+        <v>5.752281724720907</v>
       </c>
       <c r="F2">
-        <v>26.75728184644339</v>
+        <v>26.75728184644338</v>
       </c>
       <c r="G2">
-        <v>19.96676016984286</v>
+        <v>19.96676016984287</v>
       </c>
       <c r="H2">
         <v>19.35461631772645</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>60.84699090366166</v>
+        <v>60.84699090366173</v>
       </c>
       <c r="K2">
-        <v>5.326380038514076</v>
+        <v>5.326380038514018</v>
       </c>
       <c r="L2">
-        <v>38.43888687048187</v>
+        <v>38.43888687048192</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.286251321898755</v>
+        <v>2.286251321898639</v>
       </c>
       <c r="D3">
-        <v>1.816420911921945</v>
+        <v>1.816420911921948</v>
       </c>
       <c r="E3">
-        <v>5.703760160538447</v>
+        <v>5.703760160538499</v>
       </c>
       <c r="F3">
-        <v>24.51240632248524</v>
+        <v>24.51240632248533</v>
       </c>
       <c r="G3">
-        <v>18.17770562616309</v>
+        <v>18.17770562616316</v>
       </c>
       <c r="H3">
-        <v>17.63762624708369</v>
+        <v>17.63762624708375</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>56.55476287676803</v>
+        <v>56.55476287676808</v>
       </c>
       <c r="K3">
-        <v>5.319316439154017</v>
+        <v>5.319316439154046</v>
       </c>
       <c r="L3">
-        <v>35.71794872339773</v>
+        <v>35.71794872339776</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.206394202557209</v>
+        <v>2.206394202557007</v>
       </c>
       <c r="D4">
-        <v>1.637961015571951</v>
+        <v>1.637961015571828</v>
       </c>
       <c r="E4">
-        <v>5.686393222544813</v>
+        <v>5.686393222544772</v>
       </c>
       <c r="F4">
-        <v>23.30005809405521</v>
+        <v>23.30005809405518</v>
       </c>
       <c r="G4">
-        <v>17.2887412787639</v>
+        <v>17.28874127876389</v>
       </c>
       <c r="H4">
-        <v>16.88395840764915</v>
+        <v>16.88395840764914</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>53.79094010134148</v>
+        <v>53.79094010134149</v>
       </c>
       <c r="K4">
-        <v>5.325960710692986</v>
+        <v>5.32596071069301</v>
       </c>
       <c r="L4">
-        <v>33.96797619163237</v>
+        <v>33.96797619163241</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.173610647368722</v>
+        <v>2.173610647368732</v>
       </c>
       <c r="D5">
-        <v>1.620092581122503</v>
+        <v>1.62009258112251</v>
       </c>
       <c r="E5">
-        <v>5.682201378699203</v>
+        <v>5.682201378699228</v>
       </c>
       <c r="F5">
-        <v>22.86018252371158</v>
+        <v>22.86018252371153</v>
       </c>
       <c r="G5">
-        <v>17.01152168844533</v>
+        <v>17.01152168844532</v>
       </c>
       <c r="H5">
-        <v>16.62447042443253</v>
+        <v>16.62447042443252</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>52.63146340147687</v>
+        <v>52.6314634014769</v>
       </c>
       <c r="K5">
-        <v>5.331184848463902</v>
+        <v>5.331184848463924</v>
       </c>
       <c r="L5">
-        <v>33.23430324007955</v>
+        <v>33.23430324007954</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.168151171096557</v>
+        <v>2.168151171096472</v>
       </c>
       <c r="D6">
-        <v>1.632415766946999</v>
+        <v>1.632415766946933</v>
       </c>
       <c r="E6">
-        <v>5.681672871394153</v>
+        <v>5.681672871394249</v>
       </c>
       <c r="F6">
-        <v>22.78791419817955</v>
+        <v>22.78791419817954</v>
       </c>
       <c r="G6">
-        <v>16.96642332804369</v>
+        <v>16.96642332804366</v>
       </c>
       <c r="H6">
-        <v>16.58223305509397</v>
+        <v>16.58223305509393</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>52.43690321591122</v>
+        <v>52.43690321591134</v>
       </c>
       <c r="K6">
-        <v>5.332197559607133</v>
+        <v>5.33219755960724</v>
       </c>
       <c r="L6">
-        <v>33.11122015819137</v>
+        <v>33.11122015819145</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.205953105467506</v>
+        <v>2.205953105467295</v>
       </c>
       <c r="D7">
-        <v>1.636982306379001</v>
+        <v>1.636982306378997</v>
       </c>
       <c r="E7">
-        <v>5.68632531293985</v>
+        <v>5.686325312939696</v>
       </c>
       <c r="F7">
-        <v>23.29407407525669</v>
+        <v>23.29407407525671</v>
       </c>
       <c r="G7">
-        <v>17.28493989157755</v>
+        <v>17.28493989157759</v>
       </c>
       <c r="H7">
-        <v>16.88040172551696</v>
+        <v>16.880401725517</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>53.77543854652823</v>
+        <v>53.77543854652808</v>
       </c>
       <c r="K7">
-        <v>5.32602128360343</v>
+        <v>5.326021283603372</v>
       </c>
       <c r="L7">
-        <v>33.95816555703198</v>
+        <v>33.95816555703189</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.37077803791053</v>
+        <v>2.370778037910722</v>
       </c>
       <c r="D8">
-        <v>2.007982066566715</v>
+        <v>2.007982066566834</v>
       </c>
       <c r="E8">
-        <v>5.732824025008028</v>
+        <v>5.732824025008012</v>
       </c>
       <c r="F8">
-        <v>25.97940499664202</v>
+        <v>25.97940499664203</v>
       </c>
       <c r="G8">
-        <v>19.34676244406606</v>
+        <v>19.34676244406607</v>
       </c>
       <c r="H8">
-        <v>18.76053572512714</v>
+        <v>18.76053572512713</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>59.39309293293235</v>
+        <v>59.39309293293228</v>
       </c>
       <c r="K8">
-        <v>5.321511046120843</v>
+        <v>5.321511046120811</v>
       </c>
       <c r="L8">
-        <v>37.51678214965333</v>
+        <v>37.51678214965329</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.690938254179788</v>
+        <v>2.690938254179793</v>
       </c>
       <c r="D9">
-        <v>2.756413446112849</v>
+        <v>2.75641344611278</v>
       </c>
       <c r="E9">
-        <v>6.156793090682573</v>
+        <v>6.15679309068259</v>
       </c>
       <c r="F9">
-        <v>31.70381302541428</v>
+        <v>31.70381302541414</v>
       </c>
       <c r="G9">
-        <v>23.9121561515507</v>
+        <v>23.91215615155055</v>
       </c>
       <c r="H9">
-        <v>23.11741485968176</v>
+        <v>23.11741485968163</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>69.43807629526515</v>
+        <v>69.43807629526502</v>
       </c>
       <c r="K9">
-        <v>6.029254647457474</v>
+        <v>6.029254647457462</v>
       </c>
       <c r="L9">
-        <v>43.89743661541906</v>
+        <v>43.89743661541898</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.929869411613683</v>
+        <v>2.929869411613673</v>
       </c>
       <c r="D10">
-        <v>3.336134543930117</v>
+        <v>3.336134543930357</v>
       </c>
       <c r="E10">
-        <v>6.861695520916116</v>
+        <v>6.861695520916046</v>
       </c>
       <c r="F10">
-        <v>36.07614424348471</v>
+        <v>36.07614424348491</v>
       </c>
       <c r="G10">
-        <v>27.40541979290317</v>
+        <v>27.40541979290342</v>
       </c>
       <c r="H10">
-        <v>26.43054711816094</v>
+        <v>26.43054711816115</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>76.30456939847919</v>
+        <v>76.30456939847926</v>
       </c>
       <c r="K10">
-        <v>6.707269082400227</v>
+        <v>6.707269082400194</v>
       </c>
       <c r="L10">
-        <v>48.2733941087571</v>
+        <v>48.27339410875715</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.041151388976319</v>
+        <v>3.041151388976213</v>
       </c>
       <c r="D11">
-        <v>3.611614025396868</v>
+        <v>3.61161402539674</v>
       </c>
       <c r="E11">
-        <v>7.182550244081582</v>
+        <v>7.182550244081562</v>
       </c>
       <c r="F11">
-        <v>38.12699361406636</v>
+        <v>38.1269936140665</v>
       </c>
       <c r="G11">
-        <v>29.0463039587751</v>
+        <v>29.0463039587752</v>
       </c>
       <c r="H11">
-        <v>27.98242067405133</v>
+        <v>27.98242067405144</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>79.33919058445147</v>
+        <v>79.33919058445149</v>
       </c>
       <c r="K11">
-        <v>7.01412074937153</v>
+        <v>7.014120749371477</v>
       </c>
       <c r="L11">
-        <v>50.21149339823761</v>
+        <v>50.21149339823759</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.083868098180231</v>
+        <v>3.083868098180125</v>
       </c>
       <c r="D12">
-        <v>3.718214414671497</v>
+        <v>3.718214414671565</v>
       </c>
       <c r="E12">
-        <v>7.304483511318921</v>
+        <v>7.304483511318889</v>
       </c>
       <c r="F12">
-        <v>38.91562483570517</v>
+        <v>38.91562483570558</v>
       </c>
       <c r="G12">
-        <v>29.67772374970581</v>
+        <v>29.67772374970616</v>
       </c>
       <c r="H12">
-        <v>28.57894866841436</v>
+        <v>28.5789486684147</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>80.47793007306952</v>
+        <v>80.47793007306967</v>
       </c>
       <c r="K12">
-        <v>7.130501139105109</v>
+        <v>7.130501139105064</v>
       </c>
       <c r="L12">
-        <v>50.93947370665187</v>
+        <v>50.939473706652</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.074638748671134</v>
+        <v>3.074638748671217</v>
       </c>
       <c r="D13">
-        <v>3.69514342732066</v>
+        <v>3.695143427320789</v>
       </c>
       <c r="E13">
-        <v>7.278196107124647</v>
+        <v>7.278196107124646</v>
       </c>
       <c r="F13">
-        <v>38.74518370702197</v>
+        <v>38.74518370702204</v>
       </c>
       <c r="G13">
-        <v>29.54123859051241</v>
+        <v>29.54123859051247</v>
       </c>
       <c r="H13">
-        <v>28.4500342120222</v>
+        <v>28.45003421202223</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>80.23310056923978</v>
+        <v>80.23310056923972</v>
       </c>
       <c r="K13">
-        <v>7.105420792154198</v>
+        <v>7.105420792154208</v>
       </c>
       <c r="L13">
-        <v>50.78292395735079</v>
+        <v>50.78292395735077</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,19 +874,19 @@
         <v>3.044652780243351</v>
       </c>
       <c r="D14">
-        <v>3.620334395844331</v>
+        <v>3.620334395844592</v>
       </c>
       <c r="E14">
-        <v>7.192570381324242</v>
+        <v>7.192570381324245</v>
       </c>
       <c r="F14">
-        <v>38.19161238584507</v>
+        <v>38.19161238584497</v>
       </c>
       <c r="G14">
-        <v>29.09803187795206</v>
+        <v>29.09803187795203</v>
       </c>
       <c r="H14">
-        <v>28.03130298617311</v>
+        <v>28.03130298617307</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>79.43306814561501</v>
       </c>
       <c r="K14">
-        <v>7.02368906668926</v>
+        <v>7.023689066689268</v>
       </c>
       <c r="L14">
         <v>50.27149302419006</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.026367664562472</v>
+        <v>3.026367664562461</v>
       </c>
       <c r="D15">
-        <v>3.574829215000082</v>
+        <v>3.574829215000081</v>
       </c>
       <c r="E15">
-        <v>7.140192381600048</v>
+        <v>7.140192381600033</v>
       </c>
       <c r="F15">
-        <v>37.85420904764242</v>
+        <v>37.85420904764248</v>
       </c>
       <c r="G15">
-        <v>28.82795551326386</v>
+        <v>28.82795551326394</v>
       </c>
       <c r="H15">
-        <v>27.77605805162273</v>
+        <v>27.77605805162278</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>78.94175080364437</v>
+        <v>78.94175080364433</v>
       </c>
       <c r="K15">
-        <v>6.973663659851352</v>
+        <v>6.97366365985136</v>
       </c>
       <c r="L15">
-        <v>49.95750865231052</v>
+        <v>49.95750865231049</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.922665172886467</v>
+        <v>2.922665172886572</v>
       </c>
       <c r="D16">
-        <v>3.318414997440432</v>
+        <v>3.31841499744056</v>
       </c>
       <c r="E16">
-        <v>6.840762978825018</v>
+        <v>6.840762978824971</v>
       </c>
       <c r="F16">
-        <v>35.94360624317063</v>
+        <v>35.94360624317054</v>
       </c>
       <c r="G16">
-        <v>27.29943093787267</v>
+        <v>27.29943093787264</v>
       </c>
       <c r="H16">
-        <v>26.33022008009382</v>
+        <v>26.33022008009379</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>76.1046509900336</v>
+        <v>76.10465099003348</v>
       </c>
       <c r="K16">
-        <v>6.687216601712787</v>
+        <v>6.687216601712747</v>
       </c>
       <c r="L16">
-        <v>48.14580726456118</v>
+        <v>48.14580726456111</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.859838747831407</v>
+        <v>2.859838747831525</v>
       </c>
       <c r="D17">
-        <v>3.164499244762207</v>
+        <v>3.16449924476227</v>
       </c>
       <c r="E17">
-        <v>6.65737768736724</v>
+        <v>6.65737768736725</v>
       </c>
       <c r="F17">
-        <v>34.78928454330504</v>
+        <v>34.78928454330499</v>
       </c>
       <c r="G17">
-        <v>26.37660613285076</v>
+        <v>26.37660613285073</v>
       </c>
       <c r="H17">
-        <v>25.45620966521248</v>
+        <v>25.45620966521244</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>74.34292493127111</v>
+        <v>74.34292493127101</v>
       </c>
       <c r="K17">
-        <v>6.51134768409719</v>
+        <v>6.511347684097217</v>
       </c>
       <c r="L17">
-        <v>47.02196629591764</v>
+        <v>47.02196629591756</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.82393147680683</v>
+        <v>2.823931476806925</v>
       </c>
       <c r="D18">
-        <v>3.077034891207853</v>
+        <v>3.077034891207788</v>
       </c>
       <c r="E18">
-        <v>6.55188763583473</v>
+        <v>6.551887635834749</v>
       </c>
       <c r="F18">
-        <v>34.1309343105374</v>
+        <v>34.13093431053736</v>
       </c>
       <c r="G18">
-        <v>25.85049866816749</v>
+        <v>25.85049866816746</v>
       </c>
       <c r="H18">
-        <v>24.95752714314616</v>
+        <v>24.95752714314613</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>73.3210807005276</v>
+        <v>73.32108070052756</v>
       </c>
       <c r="K18">
-        <v>6.410014365792326</v>
+        <v>6.410014365792318</v>
       </c>
       <c r="L18">
-        <v>46.37050080012685</v>
+        <v>46.37050080012683</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.811807867496614</v>
+        <v>2.811807867496714</v>
       </c>
       <c r="D19">
-        <v>3.047588126407997</v>
+        <v>3.047588126407933</v>
       </c>
       <c r="E19">
-        <v>6.516157845490291</v>
+        <v>6.516157845490307</v>
       </c>
       <c r="F19">
-        <v>33.90890758812851</v>
+        <v>33.90890758812845</v>
       </c>
       <c r="G19">
-        <v>25.67310414010825</v>
+        <v>25.67310414010819</v>
       </c>
       <c r="H19">
-        <v>24.78931042436569</v>
+        <v>24.78931042436565</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>72.97356993280538</v>
+        <v>72.97356993280533</v>
       </c>
       <c r="K19">
-        <v>6.375663105705319</v>
+        <v>6.375663105705362</v>
       </c>
       <c r="L19">
-        <v>46.14901304386921</v>
+        <v>46.14901304386919</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.866501746336718</v>
+        <v>2.866501746336819</v>
       </c>
       <c r="D20">
-        <v>3.180769937494894</v>
+        <v>3.18076993749502</v>
       </c>
       <c r="E20">
-        <v>6.676897975553587</v>
+        <v>6.676897975553602</v>
       </c>
       <c r="F20">
-        <v>34.91156645583375</v>
+        <v>34.91156645583393</v>
       </c>
       <c r="G20">
-        <v>26.47434199593312</v>
+        <v>26.4743419959333</v>
       </c>
       <c r="H20">
-        <v>25.54881763572809</v>
+        <v>25.54881763572822</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>74.53133259897805</v>
+        <v>74.53133259897814</v>
       </c>
       <c r="K20">
-        <v>6.530085012983269</v>
+        <v>6.530085012983272</v>
       </c>
       <c r="L20">
-        <v>47.14211444548283</v>
+        <v>47.14211444548287</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.053442813485691</v>
+        <v>3.053442813485986</v>
       </c>
       <c r="D21">
-        <v>3.642240159320188</v>
+        <v>3.642240159320314</v>
       </c>
       <c r="E21">
-        <v>7.217705211576046</v>
+        <v>7.217705211576061</v>
       </c>
       <c r="F21">
-        <v>38.3538535630891</v>
+        <v>38.35385356308926</v>
       </c>
       <c r="G21">
-        <v>29.22791469618792</v>
+        <v>29.22791469618808</v>
       </c>
       <c r="H21">
-        <v>28.15403060923072</v>
+        <v>28.15403060923082</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>79.66831752378795</v>
+        <v>79.66831752378808</v>
       </c>
       <c r="K21">
-        <v>7.047686931006221</v>
+        <v>7.047686931006254</v>
       </c>
       <c r="L21">
-        <v>50.42185886999191</v>
+        <v>50.42185886999198</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.179122710140732</v>
+        <v>3.179122710140545</v>
       </c>
       <c r="D22">
-        <v>3.957544388654619</v>
+        <v>3.957544388654742</v>
       </c>
       <c r="E22">
-        <v>7.573950842690359</v>
+        <v>7.57395084269032</v>
       </c>
       <c r="F22">
-        <v>40.67589013513037</v>
+        <v>40.67589013513058</v>
       </c>
       <c r="G22">
-        <v>31.08799156423396</v>
+        <v>31.08799156423418</v>
       </c>
       <c r="H22">
-        <v>29.91010622146101</v>
+        <v>29.91010622146126</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>82.96655359092495</v>
+        <v>82.96655359092509</v>
       </c>
       <c r="K22">
-        <v>7.38730419937903</v>
+        <v>7.387304199378954</v>
       </c>
       <c r="L22">
-        <v>52.5318341663507</v>
+        <v>52.53183416635078</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.11164037911341</v>
+        <v>3.111640379113482</v>
       </c>
       <c r="D23">
-        <v>3.787765552604619</v>
+        <v>3.787765552604678</v>
       </c>
       <c r="E23">
-        <v>7.383395172131639</v>
+        <v>7.383395172131678</v>
       </c>
       <c r="F23">
-        <v>39.42864609951339</v>
+        <v>39.42864609951337</v>
       </c>
       <c r="G23">
-        <v>30.08860939505574</v>
+        <v>30.08860939505572</v>
       </c>
       <c r="H23">
-        <v>28.96694975543823</v>
+        <v>28.96694975543818</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>81.21067638189626</v>
       </c>
       <c r="K23">
-        <v>7.205757882916421</v>
+        <v>7.205757882916429</v>
       </c>
       <c r="L23">
-        <v>51.40812069176076</v>
+        <v>51.40812069176079</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.863488757460501</v>
+        <v>2.863488757460512</v>
       </c>
       <c r="D24">
-        <v>3.173410810538192</v>
+        <v>3.17341081053825</v>
       </c>
       <c r="E24">
-        <v>6.668073067340355</v>
+        <v>6.668073067340359</v>
       </c>
       <c r="F24">
-        <v>34.85626656438365</v>
+        <v>34.8562665643838</v>
       </c>
       <c r="G24">
-        <v>26.43014197780861</v>
+        <v>26.43014197780874</v>
       </c>
       <c r="H24">
-        <v>25.50693791663951</v>
+        <v>25.50693791663966</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>74.44618171156142</v>
+        <v>74.44618171156149</v>
       </c>
       <c r="K24">
-        <v>6.521614593588946</v>
+        <v>6.52161459358897</v>
       </c>
       <c r="L24">
-        <v>47.08781226138841</v>
+        <v>47.08781226138849</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.604164714309474</v>
+        <v>2.604164714309537</v>
       </c>
       <c r="D25">
-        <v>2.550175720792155</v>
+        <v>2.550175720792083</v>
       </c>
       <c r="E25">
-        <v>5.895203924095915</v>
+        <v>5.895203924095918</v>
       </c>
       <c r="F25">
-        <v>30.13251705840806</v>
+        <v>30.13251705840769</v>
       </c>
       <c r="G25">
-        <v>22.65823824285271</v>
+        <v>22.65823824285241</v>
       </c>
       <c r="H25">
-        <v>21.92437006681544</v>
+        <v>21.92437006681513</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>66.81731471265587</v>
+        <v>66.8173147126558</v>
       </c>
       <c r="K25">
-        <v>5.775918057673223</v>
+        <v>5.775918057673199</v>
       </c>
       <c r="L25">
-        <v>42.23043060208316</v>
+        <v>42.23043060208305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.415070642411683</v>
+        <v>2.416154947566266</v>
       </c>
       <c r="D2">
-        <v>2.109414637237585</v>
+        <v>2.109739342992842</v>
       </c>
       <c r="E2">
-        <v>5.752281724720907</v>
+        <v>5.751025110994811</v>
       </c>
       <c r="F2">
-        <v>26.75728184644338</v>
+        <v>26.73849226576323</v>
       </c>
       <c r="G2">
-        <v>19.96676016984287</v>
+        <v>19.99897518534689</v>
       </c>
       <c r="H2">
-        <v>19.35461631772645</v>
+        <v>19.62195206604511</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.3403470601447</v>
       </c>
       <c r="J2">
-        <v>60.84699090366173</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.326380038514018</v>
+        <v>60.84508377689459</v>
       </c>
       <c r="L2">
-        <v>38.43888687048192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5.326399925295789</v>
+      </c>
+      <c r="M2">
+        <v>38.43779389004688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.286251321898639</v>
+        <v>2.287424635667537</v>
       </c>
       <c r="D3">
-        <v>1.816420911921948</v>
+        <v>1.817156599762482</v>
       </c>
       <c r="E3">
-        <v>5.703760160538499</v>
+        <v>5.702648541194385</v>
       </c>
       <c r="F3">
-        <v>24.51240632248533</v>
+        <v>24.49523184136795</v>
       </c>
       <c r="G3">
-        <v>18.17770562616316</v>
+        <v>18.20720987684351</v>
       </c>
       <c r="H3">
-        <v>17.63762624708375</v>
+        <v>18.03585445801509</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.6245685179286</v>
       </c>
       <c r="J3">
-        <v>56.55476287676808</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.319316439154046</v>
+        <v>56.55332062680151</v>
       </c>
       <c r="L3">
-        <v>35.71794872339776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>5.319328920249898</v>
+      </c>
+      <c r="M3">
+        <v>35.71716658088142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.206394202557007</v>
+        <v>2.207616511502276</v>
       </c>
       <c r="D4">
-        <v>1.637961015571828</v>
+        <v>1.638947949214979</v>
       </c>
       <c r="E4">
-        <v>5.686393222544772</v>
+        <v>5.68539557954237</v>
       </c>
       <c r="F4">
-        <v>23.30005809405518</v>
+        <v>23.28457172516038</v>
       </c>
       <c r="G4">
-        <v>17.28874127876389</v>
+        <v>17.1214021679396</v>
       </c>
       <c r="H4">
-        <v>16.88395840764914</v>
+        <v>17.31625168776235</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.87271694021541</v>
       </c>
       <c r="J4">
-        <v>53.79094010134149</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.32596071069301</v>
+        <v>53.78976047264648</v>
       </c>
       <c r="L4">
-        <v>33.96797619163241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>5.325977725035536</v>
+      </c>
+      <c r="M4">
+        <v>33.9673687299621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.173610647368732</v>
+        <v>2.174851794363573</v>
       </c>
       <c r="D5">
-        <v>1.62009258112251</v>
+        <v>1.62179756054829</v>
       </c>
       <c r="E5">
-        <v>5.682201378699228</v>
+        <v>5.681255819341562</v>
       </c>
       <c r="F5">
-        <v>22.86018252371153</v>
+        <v>22.84508486334611</v>
       </c>
       <c r="G5">
-        <v>17.01152168844532</v>
+        <v>16.68240972129766</v>
       </c>
       <c r="H5">
-        <v>16.62447042443252</v>
+        <v>17.03857664282756</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.61352843594717</v>
       </c>
       <c r="J5">
-        <v>52.6314634014769</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.331184848463924</v>
+        <v>52.63038624606</v>
       </c>
       <c r="L5">
-        <v>33.23430324007954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>5.331205820417705</v>
+      </c>
+      <c r="M5">
+        <v>33.23376371624004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.168151171096472</v>
+        <v>2.169395386068312</v>
       </c>
       <c r="D6">
-        <v>1.632415766946933</v>
+        <v>1.634090473562398</v>
       </c>
       <c r="E6">
-        <v>5.681672871394249</v>
+        <v>5.680736282396043</v>
       </c>
       <c r="F6">
-        <v>22.78791419817954</v>
+        <v>22.77288071071039</v>
       </c>
       <c r="G6">
-        <v>16.96642332804366</v>
+        <v>16.60972737619066</v>
       </c>
       <c r="H6">
-        <v>16.58223305509393</v>
+        <v>16.9934043825317</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.57134048292995</v>
       </c>
       <c r="J6">
-        <v>52.43690321591134</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.33219755960724</v>
+        <v>52.43584283259599</v>
       </c>
       <c r="L6">
-        <v>33.11122015819145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5.332219310830452</v>
+      </c>
+      <c r="M6">
+        <v>33.11069174079977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.205953105467295</v>
+        <v>2.207175672668541</v>
       </c>
       <c r="D7">
-        <v>1.636982306378997</v>
+        <v>1.637970621979641</v>
       </c>
       <c r="E7">
-        <v>5.686325312939696</v>
+        <v>5.6853283503709</v>
       </c>
       <c r="F7">
-        <v>23.29407407525671</v>
+        <v>23.27859297423297</v>
       </c>
       <c r="G7">
-        <v>17.28493989157759</v>
+        <v>17.11546762315999</v>
       </c>
       <c r="H7">
-        <v>16.880401725517</v>
+        <v>17.31244404298276</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.86916431815212</v>
       </c>
       <c r="J7">
-        <v>53.77543854652808</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5.326021283603372</v>
+        <v>53.77426031680434</v>
       </c>
       <c r="L7">
-        <v>33.95816555703189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>5.326038343015291</v>
+      </c>
+      <c r="M7">
+        <v>33.95755902375123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.370778037910722</v>
+        <v>2.371894394766753</v>
       </c>
       <c r="D8">
-        <v>2.007982066566834</v>
+        <v>2.008449007697388</v>
       </c>
       <c r="E8">
-        <v>5.732824025008012</v>
+        <v>5.731611846229305</v>
       </c>
       <c r="F8">
-        <v>25.97940499664203</v>
+        <v>25.96118049445206</v>
       </c>
       <c r="G8">
-        <v>19.34676244406607</v>
+        <v>19.37803503685929</v>
       </c>
       <c r="H8">
-        <v>18.76053572512713</v>
+        <v>19.04774347731824</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.74669038704266</v>
       </c>
       <c r="J8">
-        <v>59.39309293293228</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5.321511046120811</v>
+        <v>59.39135161514283</v>
       </c>
       <c r="L8">
-        <v>37.51678214965329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>5.321526396805158</v>
+      </c>
+      <c r="M8">
+        <v>37.51580024450797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.690938254179793</v>
+        <v>2.691786059085844</v>
       </c>
       <c r="D9">
-        <v>2.75641344611278</v>
+        <v>2.75582373524045</v>
       </c>
       <c r="E9">
-        <v>6.15679309068259</v>
+        <v>6.15693007482424</v>
       </c>
       <c r="F9">
-        <v>31.70381302541414</v>
+        <v>31.68126735448308</v>
       </c>
       <c r="G9">
-        <v>23.91215615155055</v>
+        <v>23.95037119764888</v>
       </c>
       <c r="H9">
-        <v>23.11741485968163</v>
+        <v>23.3403906180878</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>23.10032678845876</v>
       </c>
       <c r="J9">
-        <v>69.43807629526502</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.029254647457462</v>
+        <v>69.43498192978028</v>
       </c>
       <c r="L9">
-        <v>43.89743661541898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>6.030395945457326</v>
+      </c>
+      <c r="M9">
+        <v>43.89554345860768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.929869411613673</v>
+        <v>2.930456753083963</v>
       </c>
       <c r="D10">
-        <v>3.336134543930357</v>
+        <v>3.334701466555528</v>
       </c>
       <c r="E10">
-        <v>6.861695520916046</v>
+        <v>6.862117681288495</v>
       </c>
       <c r="F10">
-        <v>36.07614424348491</v>
+        <v>36.04998747797212</v>
       </c>
       <c r="G10">
-        <v>27.40541979290342</v>
+        <v>27.44884447549452</v>
       </c>
       <c r="H10">
-        <v>26.43054711816115</v>
+        <v>26.69610276016301</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>26.41074732391297</v>
       </c>
       <c r="J10">
-        <v>76.30456939847926</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>6.707269082400194</v>
+        <v>76.30020178626141</v>
       </c>
       <c r="L10">
-        <v>48.27339410875715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>6.708573035901792</v>
+      </c>
+      <c r="M10">
+        <v>48.27063665993131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.041151388976213</v>
+        <v>3.041598427578967</v>
       </c>
       <c r="D11">
-        <v>3.61161402539674</v>
+        <v>3.609767742133083</v>
       </c>
       <c r="E11">
-        <v>7.182550244081562</v>
+        <v>7.183112613167022</v>
       </c>
       <c r="F11">
-        <v>38.1269936140665</v>
+        <v>38.09902604106237</v>
       </c>
       <c r="G11">
-        <v>29.0463039587752</v>
+        <v>29.09211000074496</v>
       </c>
       <c r="H11">
-        <v>27.98242067405144</v>
+        <v>28.28603633023829</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>27.96126034554952</v>
       </c>
       <c r="J11">
-        <v>79.33919058445149</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>7.014120749371477</v>
+        <v>79.33414000783065</v>
       </c>
       <c r="L11">
-        <v>50.21149339823759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>7.015492992906585</v>
+      </c>
+      <c r="M11">
+        <v>50.20827067475418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.083868098180125</v>
+        <v>3.084257928724987</v>
       </c>
       <c r="D12">
-        <v>3.718214414671565</v>
+        <v>3.716205598217442</v>
       </c>
       <c r="E12">
-        <v>7.304483511318889</v>
+        <v>7.30510038190272</v>
       </c>
       <c r="F12">
-        <v>38.91562483570558</v>
+        <v>38.88693816349497</v>
       </c>
       <c r="G12">
-        <v>29.67772374970616</v>
+        <v>29.72443166940633</v>
       </c>
       <c r="H12">
-        <v>28.5789486684147</v>
+        <v>28.89969352895158</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>28.55724790460236</v>
       </c>
       <c r="J12">
-        <v>80.47793007306967</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7.130501139105064</v>
+        <v>80.47260060003177</v>
       </c>
       <c r="L12">
-        <v>50.939473706652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7.131898037185739</v>
+      </c>
+      <c r="M12">
+        <v>50.93606072510251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.074638748671217</v>
+        <v>3.075041099683213</v>
       </c>
       <c r="D13">
-        <v>3.695143427320789</v>
+        <v>3.693169920780142</v>
       </c>
       <c r="E13">
-        <v>7.278196107124646</v>
+        <v>7.278801179887508</v>
       </c>
       <c r="F13">
-        <v>38.74518370702204</v>
+        <v>38.71665357577477</v>
       </c>
       <c r="G13">
-        <v>29.54123859051247</v>
+        <v>29.5877523038405</v>
       </c>
       <c r="H13">
-        <v>28.45003421202223</v>
+        <v>28.7669677786748</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>28.42845110307469</v>
       </c>
       <c r="J13">
-        <v>80.23310056923972</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.105420792154208</v>
+        <v>80.22783217044363</v>
       </c>
       <c r="L13">
-        <v>50.78292395735077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>7.106812442368214</v>
+      </c>
+      <c r="M13">
+        <v>50.77955265117897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.044652780243351</v>
+        <v>3.045095200518609</v>
       </c>
       <c r="D14">
-        <v>3.620334395844592</v>
+        <v>3.618474875041037</v>
       </c>
       <c r="E14">
-        <v>7.192570381324245</v>
+        <v>7.19313720698691</v>
       </c>
       <c r="F14">
-        <v>38.19161238584497</v>
+        <v>38.16358638660917</v>
       </c>
       <c r="G14">
-        <v>29.09803187795203</v>
+        <v>29.14391212763895</v>
       </c>
       <c r="H14">
-        <v>28.03130298617307</v>
+        <v>28.336272953127</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>28.01009875092117</v>
       </c>
       <c r="J14">
-        <v>79.43306814561501</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>7.023689066689268</v>
+        <v>79.42799506818801</v>
       </c>
       <c r="L14">
-        <v>50.27149302419006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>7.025063365646966</v>
+      </c>
+      <c r="M14">
+        <v>50.26825495621163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.026367664562461</v>
+        <v>3.0268340642482</v>
       </c>
       <c r="D15">
-        <v>3.574829215000081</v>
+        <v>3.573038659773692</v>
       </c>
       <c r="E15">
-        <v>7.140192381600033</v>
+        <v>7.140735958556747</v>
       </c>
       <c r="F15">
-        <v>37.85420904764248</v>
+        <v>37.82648716321664</v>
       </c>
       <c r="G15">
-        <v>28.82795551326394</v>
+        <v>28.87344770249689</v>
       </c>
       <c r="H15">
-        <v>27.77605805162278</v>
+        <v>28.07405608054472</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>27.75508234963024</v>
       </c>
       <c r="J15">
-        <v>78.94175080364433</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>6.97366365985136</v>
+        <v>78.93679453331134</v>
       </c>
       <c r="L15">
-        <v>49.95750865231049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>6.975027158905757</v>
+      </c>
+      <c r="M15">
+        <v>49.95435023109667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.922665172886572</v>
+        <v>2.923261170458294</v>
       </c>
       <c r="D16">
-        <v>3.31841499744056</v>
+        <v>3.317008188219978</v>
       </c>
       <c r="E16">
-        <v>6.840762978824971</v>
+        <v>6.841176180536134</v>
       </c>
       <c r="F16">
-        <v>35.94360624317054</v>
+        <v>35.91756372281636</v>
       </c>
       <c r="G16">
-        <v>27.29943093787264</v>
+        <v>27.34270010909069</v>
       </c>
       <c r="H16">
-        <v>26.33022008009379</v>
+        <v>26.59366509915862</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>26.31050610587134</v>
       </c>
       <c r="J16">
-        <v>76.10465099003348</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>6.687216601712747</v>
+        <v>76.10032550845087</v>
       </c>
       <c r="L16">
-        <v>48.14580726456111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>6.688515948772737</v>
+      </c>
+      <c r="M16">
+        <v>48.14307848488971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.859838747831525</v>
+        <v>2.860508077354605</v>
       </c>
       <c r="D17">
-        <v>3.16449924476227</v>
+        <v>3.163319174309152</v>
       </c>
       <c r="E17">
-        <v>6.65737768736725</v>
+        <v>6.657713546076645</v>
       </c>
       <c r="F17">
-        <v>34.78928454330499</v>
+        <v>34.7642236380905</v>
       </c>
       <c r="G17">
-        <v>26.37660613285073</v>
+        <v>26.41851361136908</v>
       </c>
       <c r="H17">
-        <v>25.45620966521244</v>
+        <v>25.70323953005239</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.43723299232817</v>
       </c>
       <c r="J17">
-        <v>74.34292493127101</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>6.511347684097217</v>
+        <v>74.33895659947251</v>
       </c>
       <c r="L17">
-        <v>47.02196629591756</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>6.512605995870985</v>
+      </c>
+      <c r="M17">
+        <v>47.01948037801149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.823931476806925</v>
+        <v>2.824641001260695</v>
       </c>
       <c r="D18">
-        <v>3.077034891207788</v>
+        <v>3.075982589990519</v>
       </c>
       <c r="E18">
-        <v>6.551887635834749</v>
+        <v>6.552180004416036</v>
       </c>
       <c r="F18">
-        <v>34.13093431053736</v>
+        <v>34.1064228893579</v>
       </c>
       <c r="G18">
-        <v>25.85049866816746</v>
+        <v>25.89162413518676</v>
       </c>
       <c r="H18">
-        <v>24.95752714314613</v>
+        <v>25.19686827168373</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>24.93896313255565</v>
       </c>
       <c r="J18">
-        <v>73.32108070052756</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6.410014365792318</v>
+        <v>73.31730843453167</v>
       </c>
       <c r="L18">
-        <v>46.37050080012683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>6.411248569704775</v>
+      </c>
+      <c r="M18">
+        <v>46.36814806587434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.811807867496714</v>
+        <v>2.812530684790555</v>
       </c>
       <c r="D19">
-        <v>3.047588126407933</v>
+        <v>3.04657867711551</v>
       </c>
       <c r="E19">
-        <v>6.516157845490307</v>
+        <v>6.51643566178918</v>
       </c>
       <c r="F19">
-        <v>33.90890758812845</v>
+        <v>33.8845798458302</v>
       </c>
       <c r="G19">
-        <v>25.67310414010819</v>
+        <v>25.71396507285781</v>
       </c>
       <c r="H19">
-        <v>24.78931042436565</v>
+        <v>25.02634977669144</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>24.77088434706508</v>
       </c>
       <c r="J19">
-        <v>72.97356993280533</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>6.375663105705362</v>
+        <v>72.96986257780642</v>
       </c>
       <c r="L19">
-        <v>46.14901304386919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>6.376889069182773</v>
+      </c>
+      <c r="M19">
+        <v>46.1467043785801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.866501746336819</v>
+        <v>2.867163480767029</v>
       </c>
       <c r="D20">
-        <v>3.18076993749502</v>
+        <v>3.179566015253087</v>
       </c>
       <c r="E20">
-        <v>6.676897975553602</v>
+        <v>6.677241964977247</v>
       </c>
       <c r="F20">
-        <v>34.91156645583393</v>
+        <v>34.88640267663507</v>
       </c>
       <c r="G20">
-        <v>26.4743419959333</v>
+        <v>26.51639431374813</v>
       </c>
       <c r="H20">
-        <v>25.54881763572822</v>
+        <v>25.79741356443521</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.52976369973463</v>
       </c>
       <c r="J20">
-        <v>74.53133259897814</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6.530085012983272</v>
+        <v>74.52732724921913</v>
       </c>
       <c r="L20">
-        <v>47.14211444548287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>6.531347747554374</v>
+      </c>
+      <c r="M20">
+        <v>47.13960337033493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.053442813485986</v>
+        <v>3.053873584149537</v>
       </c>
       <c r="D21">
-        <v>3.642240159320314</v>
+        <v>3.640347340304288</v>
       </c>
       <c r="E21">
-        <v>7.217705211576061</v>
+        <v>7.218283234413414</v>
       </c>
       <c r="F21">
-        <v>38.35385356308926</v>
+        <v>38.32568048516139</v>
       </c>
       <c r="G21">
-        <v>29.22791469618808</v>
+        <v>29.27398102301633</v>
       </c>
       <c r="H21">
-        <v>28.15403060923082</v>
+        <v>28.46244018667492</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>28.13271584328246</v>
       </c>
       <c r="J21">
-        <v>79.66831752378808</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>7.047686931006254</v>
+        <v>79.66318767865668</v>
       </c>
       <c r="L21">
-        <v>50.42185886999198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>7.049066363228494</v>
+      </c>
+      <c r="M21">
+        <v>50.4185820850071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.179122710140545</v>
+        <v>3.179378075856958</v>
       </c>
       <c r="D22">
-        <v>3.957544388654742</v>
+        <v>3.955164635323289</v>
       </c>
       <c r="E22">
-        <v>7.57395084269032</v>
+        <v>7.57468989148688</v>
       </c>
       <c r="F22">
-        <v>40.67589013513058</v>
+        <v>40.64554854193834</v>
       </c>
       <c r="G22">
-        <v>31.08799156423418</v>
+        <v>31.13668043003009</v>
       </c>
       <c r="H22">
-        <v>29.91010622146126</v>
+        <v>30.27352115481839</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>29.88716137744394</v>
       </c>
       <c r="J22">
-        <v>82.96655359092509</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>7.387304199378954</v>
+        <v>82.96056651704701</v>
       </c>
       <c r="L22">
-        <v>52.53183416635078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>7.388752528354554</v>
+      </c>
+      <c r="M22">
+        <v>52.5279720772587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.111640379113482</v>
+        <v>3.11199199708961</v>
       </c>
       <c r="D23">
-        <v>3.787765552604678</v>
+        <v>3.785649827086917</v>
       </c>
       <c r="E23">
-        <v>7.383395172131678</v>
+        <v>7.38404760199187</v>
       </c>
       <c r="F23">
-        <v>39.42864609951337</v>
+        <v>39.39948439815723</v>
       </c>
       <c r="G23">
-        <v>30.08860939505572</v>
+        <v>30.13589940912121</v>
       </c>
       <c r="H23">
-        <v>28.96694975543818</v>
+        <v>29.29951831193639</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>28.94489193848388</v>
       </c>
       <c r="J23">
-        <v>81.21067638189626</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>7.205757882916429</v>
+        <v>81.20516036456642</v>
       </c>
       <c r="L23">
-        <v>51.40812069176079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>7.207170300149977</v>
+      </c>
+      <c r="M23">
+        <v>51.40458037889104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.863488757460512</v>
+        <v>2.864153931684924</v>
       </c>
       <c r="D24">
-        <v>3.17341081053825</v>
+        <v>3.172217679617413</v>
       </c>
       <c r="E24">
-        <v>6.668073067340359</v>
+        <v>6.668413377824075</v>
       </c>
       <c r="F24">
-        <v>34.8562665643838</v>
+        <v>34.83114934015427</v>
       </c>
       <c r="G24">
-        <v>26.43014197780874</v>
+        <v>26.47212881104757</v>
       </c>
       <c r="H24">
-        <v>25.50693791663966</v>
+        <v>25.75482038252713</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.48791894576517</v>
       </c>
       <c r="J24">
-        <v>74.44618171156149</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>6.52161459358897</v>
+        <v>74.44219312610461</v>
       </c>
       <c r="L24">
-        <v>47.08781226138849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>6.522875330194974</v>
+      </c>
+      <c r="M24">
+        <v>47.08531257963261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.604164714309537</v>
+        <v>2.605094017977782</v>
       </c>
       <c r="D25">
-        <v>2.550175720792083</v>
+        <v>2.549879605974339</v>
       </c>
       <c r="E25">
-        <v>5.895203924095918</v>
+        <v>5.895245508149402</v>
       </c>
       <c r="F25">
-        <v>30.13251705840769</v>
+        <v>30.11119797378519</v>
       </c>
       <c r="G25">
-        <v>22.65823824285241</v>
+        <v>22.69455228209107</v>
       </c>
       <c r="H25">
-        <v>21.92437006681513</v>
+        <v>22.14847672982881</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>21.90820269683676</v>
       </c>
       <c r="J25">
-        <v>66.8173147126558</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5.775918057673199</v>
+        <v>66.8146240449402</v>
       </c>
       <c r="L25">
-        <v>42.23043060208305</v>
+        <v>5.776996129992358</v>
+      </c>
+      <c r="M25">
+        <v>42.22881032416817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.416154947566266</v>
+        <v>7.372224271634864</v>
       </c>
       <c r="D2">
-        <v>2.109739342992842</v>
+        <v>6.052701499184373</v>
       </c>
       <c r="E2">
-        <v>5.751025110994811</v>
+        <v>6.495699377605026</v>
       </c>
       <c r="F2">
-        <v>26.73849226576323</v>
+        <v>48.96552490027175</v>
       </c>
       <c r="G2">
-        <v>19.99897518534689</v>
+        <v>2.018370617173586</v>
       </c>
       <c r="H2">
-        <v>19.62195206604511</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>19.3403470601447</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.908715665960049</v>
       </c>
       <c r="K2">
-        <v>60.84508377689459</v>
+        <v>46.40372323468764</v>
       </c>
       <c r="L2">
-        <v>5.326399925295789</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>38.43779389004688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>29.94085124562765</v>
+      </c>
+      <c r="N2">
+        <v>12.0110965470425</v>
+      </c>
+      <c r="O2">
+        <v>38.35926004207196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.287424635667537</v>
+        <v>6.809212391001195</v>
       </c>
       <c r="D3">
-        <v>1.817156599762482</v>
+        <v>5.653531146860205</v>
       </c>
       <c r="E3">
-        <v>5.702648541194385</v>
+        <v>6.412721031363095</v>
       </c>
       <c r="F3">
-        <v>24.49523184136795</v>
+        <v>46.11934327978783</v>
       </c>
       <c r="G3">
-        <v>18.20720987684351</v>
+        <v>2.038964738073576</v>
       </c>
       <c r="H3">
-        <v>18.03585445801509</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.6245685179286</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.010007235808475</v>
       </c>
       <c r="K3">
-        <v>56.55332062680151</v>
+        <v>42.9873850755038</v>
       </c>
       <c r="L3">
-        <v>5.319328920249898</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>35.71716658088142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.76303201732589</v>
+      </c>
+      <c r="N3">
+        <v>12.18129033285526</v>
+      </c>
+      <c r="O3">
+        <v>36.11090564893939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.207616511502276</v>
+        <v>6.450951916659865</v>
       </c>
       <c r="D4">
-        <v>1.638947949214979</v>
+        <v>5.404355792439122</v>
       </c>
       <c r="E4">
-        <v>5.68539557954237</v>
+        <v>6.36343000042308</v>
       </c>
       <c r="F4">
-        <v>23.28457172516038</v>
+        <v>44.39735853941433</v>
       </c>
       <c r="G4">
-        <v>17.1214021679396</v>
+        <v>2.051658973514807</v>
       </c>
       <c r="H4">
-        <v>17.31625168776235</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.87271694021541</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.072920650207035</v>
       </c>
       <c r="K4">
-        <v>53.78976047264648</v>
+        <v>40.80286855277639</v>
       </c>
       <c r="L4">
-        <v>5.325977725035536</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>33.9673687299621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.56030890872047</v>
+      </c>
+      <c r="N4">
+        <v>12.28969565484008</v>
+      </c>
+      <c r="O4">
+        <v>34.75065801434835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.174851794363573</v>
+        <v>6.301594216694853</v>
       </c>
       <c r="D5">
-        <v>1.62179756054829</v>
+        <v>5.301615407744016</v>
       </c>
       <c r="E5">
-        <v>5.681255819341562</v>
+        <v>6.343689243524732</v>
       </c>
       <c r="F5">
-        <v>22.84508486334611</v>
+        <v>43.70163034922837</v>
       </c>
       <c r="G5">
-        <v>16.68240972129766</v>
+        <v>2.056857595740389</v>
       </c>
       <c r="H5">
-        <v>17.03857664282756</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.61352843594717</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.098779527159376</v>
       </c>
       <c r="K5">
-        <v>52.63038624606</v>
+        <v>39.88990682575299</v>
       </c>
       <c r="L5">
-        <v>5.331205820417705</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>33.23376371624004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26.06186416998119</v>
+      </c>
+      <c r="N5">
+        <v>12.33487212194012</v>
+      </c>
+      <c r="O5">
+        <v>34.20107634598922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.169395386068312</v>
+        <v>6.276584896893778</v>
       </c>
       <c r="D6">
-        <v>1.634090473562398</v>
+        <v>5.284478671592539</v>
       </c>
       <c r="E6">
-        <v>5.680736282396043</v>
+        <v>6.340430332310063</v>
       </c>
       <c r="F6">
-        <v>22.77288071071039</v>
+        <v>43.58646052142144</v>
       </c>
       <c r="G6">
-        <v>16.60972737619066</v>
+        <v>2.057722720367701</v>
       </c>
       <c r="H6">
-        <v>16.9934043825317</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.57134048292995</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.103087810138641</v>
       </c>
       <c r="K6">
-        <v>52.43584283259599</v>
+        <v>39.73691232279663</v>
       </c>
       <c r="L6">
-        <v>5.332219310830452</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>33.11069174079977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.97859448424583</v>
+      </c>
+      <c r="N6">
+        <v>12.34243456083107</v>
+      </c>
+      <c r="O6">
+        <v>34.11009869843074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.207175672668541</v>
+        <v>6.448951494750889</v>
       </c>
       <c r="D7">
-        <v>1.637970621979641</v>
+        <v>5.402975256805099</v>
       </c>
       <c r="E7">
-        <v>5.6853283503709</v>
+        <v>6.363162455121615</v>
       </c>
       <c r="F7">
-        <v>23.27859297423297</v>
+        <v>44.38795177993738</v>
       </c>
       <c r="G7">
-        <v>17.11546762315999</v>
+        <v>2.051728964160969</v>
       </c>
       <c r="H7">
-        <v>17.31244404298276</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.86916431815212</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.073268447218015</v>
       </c>
       <c r="K7">
-        <v>53.77426031680434</v>
+        <v>40.79064924955588</v>
       </c>
       <c r="L7">
-        <v>5.326038343015291</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>33.95755902375123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.55362046287846</v>
+      </c>
+      <c r="N7">
+        <v>12.29030084704028</v>
+      </c>
+      <c r="O7">
+        <v>34.74322730271048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.371894394766753</v>
+        <v>7.180575029059118</v>
       </c>
       <c r="D8">
-        <v>2.008449007697388</v>
+        <v>5.915798492443424</v>
       </c>
       <c r="E8">
-        <v>5.731611846229305</v>
+        <v>6.466697353873268</v>
       </c>
       <c r="F8">
-        <v>25.96118049445206</v>
+        <v>47.97848001871247</v>
       </c>
       <c r="G8">
-        <v>19.37803503685929</v>
+        <v>2.025469824595597</v>
       </c>
       <c r="H8">
-        <v>19.04774347731824</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.74669038704266</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.94351738197031</v>
       </c>
       <c r="K8">
-        <v>59.39135161514283</v>
+        <v>45.24320104848297</v>
       </c>
       <c r="L8">
-        <v>5.321526396805158</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>37.51580024450797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.19003649369</v>
+      </c>
+      <c r="N8">
+        <v>12.06898052414302</v>
+      </c>
+      <c r="O8">
+        <v>37.57951999876173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.691786059085844</v>
+        <v>8.526552244699069</v>
       </c>
       <c r="D9">
-        <v>2.75582373524045</v>
+        <v>6.899295737111556</v>
       </c>
       <c r="E9">
-        <v>6.15693007482424</v>
+        <v>6.686939167064399</v>
       </c>
       <c r="F9">
-        <v>31.68126735448308</v>
+        <v>55.26364688667782</v>
       </c>
       <c r="G9">
-        <v>23.95037119764888</v>
+        <v>1.973641417412881</v>
       </c>
       <c r="H9">
-        <v>23.3403906180878</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>23.10032678845876</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.692650634510416</v>
       </c>
       <c r="K9">
-        <v>69.43498192978028</v>
+        <v>53.33644520872321</v>
       </c>
       <c r="L9">
-        <v>6.030395945457326</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>43.89554345860768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.42325873646822</v>
+      </c>
+      <c r="N9">
+        <v>11.66496142997349</v>
+      </c>
+      <c r="O9">
+        <v>43.36699196717592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.930456753083963</v>
+        <v>9.480654894958002</v>
       </c>
       <c r="D10">
-        <v>3.334701466555528</v>
+        <v>7.627700610206118</v>
       </c>
       <c r="E10">
-        <v>6.862117681288495</v>
+        <v>6.86678730115269</v>
       </c>
       <c r="F10">
-        <v>36.04998747797212</v>
+        <v>61.12181240045188</v>
       </c>
       <c r="G10">
-        <v>27.44884447549452</v>
+        <v>1.934064713718348</v>
       </c>
       <c r="H10">
-        <v>26.69610276016301</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>26.41074732391297</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.506856616004753</v>
       </c>
       <c r="K10">
-        <v>76.30020178626141</v>
+        <v>58.9855267067409</v>
       </c>
       <c r="L10">
-        <v>6.708573035901792</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>48.27063665993131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38.07252120055396</v>
+      </c>
+      <c r="N10">
+        <v>11.38454926164176</v>
+      </c>
+      <c r="O10">
+        <v>48.2784452393947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.041598427578967</v>
+        <v>9.913132819746478</v>
       </c>
       <c r="D11">
-        <v>3.609767742133083</v>
+        <v>7.966712641397261</v>
       </c>
       <c r="E11">
-        <v>7.183112613167022</v>
+        <v>6.955025965432132</v>
       </c>
       <c r="F11">
-        <v>38.09902604106237</v>
+        <v>63.9169131896385</v>
       </c>
       <c r="G11">
-        <v>29.09211000074496</v>
+        <v>1.915327029751053</v>
       </c>
       <c r="H11">
-        <v>28.28603633023829</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>27.96126034554952</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.420922014986957</v>
       </c>
       <c r="K11">
-        <v>79.33414000783065</v>
+        <v>61.52003693674632</v>
       </c>
       <c r="L11">
-        <v>7.015492992906585</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>50.20827067475418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.70886615432981</v>
+      </c>
+      <c r="N11">
+        <v>11.25990461204236</v>
+      </c>
+      <c r="O11">
+        <v>50.56383150948378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.084257928724987</v>
+        <v>10.07737290445357</v>
       </c>
       <c r="D12">
-        <v>3.716205598217442</v>
+        <v>8.096954600222693</v>
       </c>
       <c r="E12">
-        <v>7.30510038190272</v>
+        <v>6.989669639638215</v>
       </c>
       <c r="F12">
-        <v>38.88693816349497</v>
+        <v>64.99122962773139</v>
       </c>
       <c r="G12">
-        <v>29.72443166940633</v>
+        <v>1.908078163714206</v>
       </c>
       <c r="H12">
-        <v>28.89969352895158</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>28.55724790460236</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.388055534117716</v>
       </c>
       <c r="K12">
-        <v>80.47260060003177</v>
+        <v>62.47812232542211</v>
       </c>
       <c r="L12">
-        <v>7.131898037185739</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>50.93606072510251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>40.32727115153406</v>
+      </c>
+      <c r="N12">
+        <v>11.21304107324928</v>
+      </c>
+      <c r="O12">
+        <v>51.44082484985033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.075041099683213</v>
+        <v>10.04196650978646</v>
       </c>
       <c r="D13">
-        <v>3.693169920780142</v>
+        <v>8.068806648096581</v>
       </c>
       <c r="E13">
-        <v>7.278801179887508</v>
+        <v>6.982147730333317</v>
       </c>
       <c r="F13">
-        <v>38.71665357577477</v>
+        <v>64.75904860161508</v>
       </c>
       <c r="G13">
-        <v>29.5877523038405</v>
+        <v>1.909647086298</v>
       </c>
       <c r="H13">
-        <v>28.7669677786748</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>28.42845110307469</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.395150673101892</v>
       </c>
       <c r="K13">
-        <v>80.22783217044363</v>
+        <v>62.27178999297717</v>
       </c>
       <c r="L13">
-        <v>7.106812442368214</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>50.77955265117897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>40.19409970956461</v>
+      </c>
+      <c r="N13">
+        <v>11.2231207147822</v>
+      </c>
+      <c r="O13">
+        <v>51.25135046023207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.045095200518609</v>
+        <v>9.926630769645364</v>
       </c>
       <c r="D14">
-        <v>3.618474875041037</v>
+        <v>7.977385018018836</v>
       </c>
       <c r="E14">
-        <v>7.19313720698691</v>
+        <v>6.957849328041414</v>
       </c>
       <c r="F14">
-        <v>38.16358638660917</v>
+        <v>64.00494376728462</v>
       </c>
       <c r="G14">
-        <v>29.14391212763895</v>
+        <v>1.914734063206633</v>
       </c>
       <c r="H14">
-        <v>28.336272953127</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>28.01009875092117</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.418225398484772</v>
       </c>
       <c r="K14">
-        <v>79.42799506818801</v>
+        <v>61.59886942954367</v>
       </c>
       <c r="L14">
-        <v>7.025063365646966</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>50.26825495621163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.75975270337041</v>
+      </c>
+      <c r="N14">
+        <v>11.25604297617879</v>
+      </c>
+      <c r="O14">
+        <v>50.63572086538657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.0268340642482</v>
+        <v>9.856069802392794</v>
       </c>
       <c r="D15">
-        <v>3.573038659773692</v>
+        <v>7.921656690585182</v>
       </c>
       <c r="E15">
-        <v>7.140735958556747</v>
+        <v>6.943136935545144</v>
       </c>
       <c r="F15">
-        <v>37.82648716321664</v>
+        <v>63.5452830625193</v>
       </c>
       <c r="G15">
-        <v>28.87344770249689</v>
+        <v>1.917828337354152</v>
       </c>
       <c r="H15">
-        <v>28.07405608054472</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>27.75508234963024</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.432312845152305</v>
       </c>
       <c r="K15">
-        <v>78.93679453331134</v>
+        <v>61.18658696765871</v>
       </c>
       <c r="L15">
-        <v>6.975027158905757</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>49.95435023109667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>39.49361682345818</v>
+      </c>
+      <c r="N15">
+        <v>11.27624959607429</v>
+      </c>
+      <c r="O15">
+        <v>50.26028710442247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.923261170458294</v>
+        <v>9.452414802100337</v>
       </c>
       <c r="D16">
-        <v>3.317008188219978</v>
+        <v>7.605759198133239</v>
       </c>
       <c r="E16">
-        <v>6.841176180536134</v>
+        <v>6.861173754264698</v>
       </c>
       <c r="F16">
-        <v>35.91756372281636</v>
+        <v>60.94104907033806</v>
       </c>
       <c r="G16">
-        <v>27.34270010909069</v>
+        <v>1.935270744158764</v>
       </c>
       <c r="H16">
-        <v>26.59366509915862</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>26.31050610587134</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.512434512335374</v>
       </c>
       <c r="K16">
-        <v>76.10032550845087</v>
+        <v>58.81944717024595</v>
       </c>
       <c r="L16">
-        <v>6.688515948772737</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>48.14307848488971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>37.96527530312683</v>
+      </c>
+      <c r="N16">
+        <v>11.39274745798283</v>
+      </c>
+      <c r="O16">
+        <v>48.13044654846216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.860508077354605</v>
+        <v>9.204819542776468</v>
       </c>
       <c r="D17">
-        <v>3.163319174309152</v>
+        <v>7.41439714917764</v>
       </c>
       <c r="E17">
-        <v>6.657713546076645</v>
+        <v>6.812723874120523</v>
       </c>
       <c r="F17">
-        <v>34.7642236380905</v>
+        <v>59.36571630523989</v>
       </c>
       <c r="G17">
-        <v>26.41851361136908</v>
+        <v>1.945753508303195</v>
       </c>
       <c r="H17">
-        <v>25.70323953005239</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>25.43723299232817</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.561147295608249</v>
       </c>
       <c r="K17">
-        <v>74.33895659947251</v>
+        <v>57.36034997738903</v>
       </c>
       <c r="L17">
-        <v>6.512605995870985</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>47.01948037801149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.02295682661764</v>
+      </c>
+      <c r="N17">
+        <v>11.46491319503928</v>
+      </c>
+      <c r="O17">
+        <v>46.83952185021581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.824641001260695</v>
+        <v>9.062212206905183</v>
       </c>
       <c r="D18">
-        <v>3.075982589990519</v>
+        <v>7.304993924876226</v>
       </c>
       <c r="E18">
-        <v>6.552180004416036</v>
+        <v>6.785438322773521</v>
       </c>
       <c r="F18">
-        <v>34.1064228893579</v>
+        <v>58.46628692029093</v>
       </c>
       <c r="G18">
-        <v>25.89162413518676</v>
+        <v>1.951717382976525</v>
       </c>
       <c r="H18">
-        <v>25.19686827168373</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>24.93896313255565</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.589041152132305</v>
       </c>
       <c r="K18">
-        <v>73.31730843453167</v>
+        <v>56.51754176983319</v>
       </c>
       <c r="L18">
-        <v>6.411248569704775</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>46.36814806587434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>36.47856615054311</v>
+      </c>
+      <c r="N18">
+        <v>11.50670196545332</v>
+      </c>
+      <c r="O18">
+        <v>46.10150770935095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.812530684790555</v>
+        <v>9.013876109254673</v>
       </c>
       <c r="D19">
-        <v>3.04657867711551</v>
+        <v>7.268046351898463</v>
       </c>
       <c r="E19">
-        <v>6.51643566178918</v>
+        <v>6.776292097213922</v>
       </c>
       <c r="F19">
-        <v>33.8845798458302</v>
+        <v>58.16277219278666</v>
       </c>
       <c r="G19">
-        <v>25.71396507285781</v>
+        <v>1.953726618569493</v>
       </c>
       <c r="H19">
-        <v>25.02634977669144</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>24.77088434706508</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.598467348333483</v>
       </c>
       <c r="K19">
-        <v>72.96986257780642</v>
+        <v>56.23148036377626</v>
       </c>
       <c r="L19">
-        <v>6.376889069182773</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>46.1467043785801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.29377787025921</v>
+      </c>
+      <c r="N19">
+        <v>11.52090117596454</v>
+      </c>
+      <c r="O19">
+        <v>45.85229442843176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.867163480767029</v>
+        <v>9.231192518999592</v>
       </c>
       <c r="D20">
-        <v>3.179566015253087</v>
+        <v>7.434694576501697</v>
       </c>
       <c r="E20">
-        <v>6.677241964977247</v>
+        <v>6.817819375011437</v>
       </c>
       <c r="F20">
-        <v>34.88640267663507</v>
+        <v>59.5326925674124</v>
       </c>
       <c r="G20">
-        <v>26.51639431374813</v>
+        <v>1.944644682213934</v>
       </c>
       <c r="H20">
-        <v>25.79741356443521</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>25.52976369973463</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.555975393149716</v>
       </c>
       <c r="K20">
-        <v>74.52732724921913</v>
+        <v>57.5160219659349</v>
       </c>
       <c r="L20">
-        <v>6.531347747554374</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>47.13960337033493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.12350238227754</v>
+      </c>
+      <c r="N20">
+        <v>11.45720244485805</v>
+      </c>
+      <c r="O20">
+        <v>46.97645215649376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.053873584149537</v>
+        <v>9.96048828975947</v>
       </c>
       <c r="D21">
-        <v>3.640347340304288</v>
+        <v>8.004179732418551</v>
       </c>
       <c r="E21">
-        <v>7.218283234413414</v>
+        <v>6.964949993788286</v>
       </c>
       <c r="F21">
-        <v>38.32568048516139</v>
+        <v>64.2259617891068</v>
       </c>
       <c r="G21">
-        <v>29.27398102301633</v>
+        <v>1.913244514139303</v>
       </c>
       <c r="H21">
-        <v>28.46244018667492</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>28.13271584328246</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.411457747341188</v>
       </c>
       <c r="K21">
-        <v>79.66318767865668</v>
+        <v>61.79653548339991</v>
       </c>
       <c r="L21">
-        <v>7.049066363228494</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>50.4185820850071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>39.88734392422242</v>
+      </c>
+      <c r="N21">
+        <v>11.24636461228404</v>
+      </c>
+      <c r="O21">
+        <v>50.81619108317605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.179378075856958</v>
+        <v>10.44036738038337</v>
       </c>
       <c r="D22">
-        <v>3.955164635323289</v>
+        <v>8.387814567055623</v>
       </c>
       <c r="E22">
-        <v>7.57468989148688</v>
+        <v>7.068509033471471</v>
       </c>
       <c r="F22">
-        <v>40.64554854193834</v>
+        <v>67.38970164600649</v>
       </c>
       <c r="G22">
-        <v>31.13668043003009</v>
+        <v>1.89179415389059</v>
       </c>
       <c r="H22">
-        <v>30.27352115481839</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>29.88716137744394</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.315029386125727</v>
       </c>
       <c r="K22">
-        <v>82.96056651704701</v>
+        <v>64.58679408723492</v>
       </c>
       <c r="L22">
-        <v>7.388752528354554</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>52.5279720772587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>41.68800415492395</v>
+      </c>
+      <c r="N22">
+        <v>11.11046359254456</v>
+      </c>
+      <c r="O22">
+        <v>53.39629763794903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.11199199708961</v>
+        <v>10.18365822081172</v>
       </c>
       <c r="D23">
-        <v>3.785649827086917</v>
+        <v>8.181686599564207</v>
       </c>
       <c r="E23">
-        <v>7.38404760199187</v>
+        <v>7.012427477482394</v>
       </c>
       <c r="F23">
-        <v>39.39948439815723</v>
+        <v>65.69011012069859</v>
       </c>
       <c r="G23">
-        <v>30.13589940912121</v>
+        <v>1.90334781078023</v>
       </c>
       <c r="H23">
-        <v>29.29951831193639</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>28.94489193848388</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.366725726339766</v>
       </c>
       <c r="K23">
-        <v>81.20516036456642</v>
+        <v>63.09681114712509</v>
       </c>
       <c r="L23">
-        <v>7.207170300149977</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>51.40458037889104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>40.72656090886528</v>
+      </c>
+      <c r="N23">
+        <v>11.182861106354</v>
+      </c>
+      <c r="O23">
+        <v>52.01095953066415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.864153931684924</v>
+        <v>9.219270160108904</v>
       </c>
       <c r="D24">
-        <v>3.172217679617413</v>
+        <v>7.425516252967087</v>
       </c>
       <c r="E24">
-        <v>6.668413377824075</v>
+        <v>6.815513948401914</v>
       </c>
       <c r="F24">
-        <v>34.83114934015427</v>
+        <v>59.45718348812108</v>
       </c>
       <c r="G24">
-        <v>26.47212881104757</v>
+        <v>1.945146174737987</v>
       </c>
       <c r="H24">
-        <v>25.75482038252713</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>25.48791894576517</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.558313949725008</v>
       </c>
       <c r="K24">
-        <v>74.44219312610461</v>
+        <v>57.445655215306</v>
       </c>
       <c r="L24">
-        <v>6.522875330194974</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>47.08531257963261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.07805411067241</v>
+      </c>
+      <c r="N24">
+        <v>11.46068753574408</v>
+      </c>
+      <c r="O24">
+        <v>46.91453331703085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.605094017977782</v>
+        <v>8.170192779303772</v>
       </c>
       <c r="D25">
-        <v>2.549879605974339</v>
+        <v>6.633923180396217</v>
       </c>
       <c r="E25">
-        <v>5.895245508149402</v>
+        <v>6.624857800358278</v>
       </c>
       <c r="F25">
-        <v>30.11119797378519</v>
+        <v>53.25889430658219</v>
       </c>
       <c r="G25">
-        <v>22.69455228209107</v>
+        <v>1.987813685534034</v>
       </c>
       <c r="H25">
-        <v>22.14847672982881</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21.90820269683676</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.760468607909893</v>
       </c>
       <c r="K25">
-        <v>66.8146240449402</v>
+        <v>51.20714426947791</v>
       </c>
       <c r="L25">
-        <v>5.776996129992358</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>42.22881032416817</v>
+        <v>33.04702021475497</v>
+      </c>
+      <c r="N25">
+        <v>11.77121009498672</v>
+      </c>
+      <c r="O25">
+        <v>41.751350884344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.372224271634864</v>
+        <v>12.33961392562812</v>
       </c>
       <c r="D2">
-        <v>6.052701499184373</v>
+        <v>2.112970873728217</v>
       </c>
       <c r="E2">
-        <v>6.495699377605026</v>
+        <v>11.48190621796918</v>
       </c>
       <c r="F2">
-        <v>48.96552490027175</v>
+        <v>29.14666048943257</v>
       </c>
       <c r="G2">
-        <v>2.018370617173586</v>
+        <v>43.78931612971414</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.77000713990262</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.908715665960049</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>46.40372323468764</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.997225224451901</v>
       </c>
       <c r="M2">
-        <v>29.94085124562765</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.0110965470425</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
-        <v>38.35926004207196</v>
+        <v>22.90548782138461</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.809212391001195</v>
+        <v>11.69496422940339</v>
       </c>
       <c r="D3">
-        <v>5.653531146860205</v>
+        <v>2.153938444378757</v>
       </c>
       <c r="E3">
-        <v>6.412721031363095</v>
+        <v>10.95250588193756</v>
       </c>
       <c r="F3">
-        <v>46.11934327978783</v>
+        <v>27.38153174917012</v>
       </c>
       <c r="G3">
-        <v>2.038964738073576</v>
+        <v>40.90605478556731</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.25992765445823</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.010007235808475</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>42.9873850755038</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.857945756131937</v>
       </c>
       <c r="M3">
-        <v>27.76303201732589</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.18129033285526</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
-        <v>36.11090564893939</v>
+        <v>21.62275049050595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.450951916659865</v>
+        <v>11.29126382270342</v>
       </c>
       <c r="D4">
-        <v>5.404355792439122</v>
+        <v>2.178976764043718</v>
       </c>
       <c r="E4">
-        <v>6.36343000042308</v>
+        <v>10.62421540858486</v>
       </c>
       <c r="F4">
-        <v>44.39735853941433</v>
+        <v>26.26270987551216</v>
       </c>
       <c r="G4">
-        <v>2.051658973514807</v>
+        <v>39.06558531871713</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.94449726617821</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.072920650207035</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>40.80286855277639</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.775122766763769</v>
       </c>
       <c r="M4">
-        <v>26.56030890872047</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.28969565484008</v>
+        <v>23.33595077662917</v>
       </c>
       <c r="O4">
-        <v>34.75065801434835</v>
+        <v>20.81512455747075</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.301594216694853</v>
+        <v>11.12495448297321</v>
       </c>
       <c r="D5">
-        <v>5.301615407744016</v>
+        <v>2.189167923066609</v>
       </c>
       <c r="E5">
-        <v>6.343689243524732</v>
+        <v>10.48978200847064</v>
       </c>
       <c r="F5">
-        <v>43.70163034922837</v>
+        <v>25.79832054831148</v>
       </c>
       <c r="G5">
-        <v>2.056857595740389</v>
+        <v>38.2982291082172</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.81555067173928</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.098779527159376</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>39.88990682575299</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.742064499057488</v>
       </c>
       <c r="M5">
-        <v>26.06186416998119</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.33487212194012</v>
+        <v>22.96331756195408</v>
       </c>
       <c r="O5">
-        <v>34.20107634598922</v>
+        <v>20.48129775150759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.276584896893778</v>
+        <v>11.09723646546882</v>
       </c>
       <c r="D6">
-        <v>5.284478671592539</v>
+        <v>2.190859894836471</v>
       </c>
       <c r="E6">
-        <v>6.340430332310063</v>
+        <v>10.46742527226344</v>
       </c>
       <c r="F6">
-        <v>43.58646052142144</v>
+        <v>25.72071029190903</v>
       </c>
       <c r="G6">
-        <v>2.057722720367701</v>
+        <v>38.16977341679325</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.79411968514276</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.103087810138641</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>39.73691232279663</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.736617477988156</v>
       </c>
       <c r="M6">
-        <v>25.97859448424583</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.34243456083107</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>34.11009869843074</v>
+        <v>20.42559237869876</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.448951494750889</v>
+        <v>11.28902792619497</v>
       </c>
       <c r="D7">
-        <v>5.402975256805099</v>
+        <v>2.179114233302169</v>
       </c>
       <c r="E7">
-        <v>6.363162455121615</v>
+        <v>10.62240480151275</v>
       </c>
       <c r="F7">
-        <v>44.38795177993738</v>
+        <v>26.25648067819452</v>
       </c>
       <c r="G7">
-        <v>2.051728964160969</v>
+        <v>39.05530625365199</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.94275966770059</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.073268447218015</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>40.79064924955588</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.774674106537076</v>
       </c>
       <c r="M7">
-        <v>26.55362046287846</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.29030084704028</v>
+        <v>23.33096569062624</v>
       </c>
       <c r="O7">
-        <v>34.74322730271048</v>
+        <v>20.81064105099315</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.180575029059118</v>
+        <v>12.11907345434638</v>
       </c>
       <c r="D8">
-        <v>5.915798492443424</v>
+        <v>2.12713121277219</v>
       </c>
       <c r="E8">
-        <v>6.466697353873268</v>
+        <v>11.30012931162216</v>
       </c>
       <c r="F8">
-        <v>47.97848001871247</v>
+        <v>28.54549008319198</v>
       </c>
       <c r="G8">
-        <v>2.025469824595597</v>
+        <v>42.80985387526128</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.59468349942798</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.94351738197031</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>45.24320104848297</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.948651200242799</v>
       </c>
       <c r="M8">
-        <v>29.19003649369</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.06898052414302</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>37.57951999876173</v>
+        <v>22.46752384335981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.526552244699069</v>
+        <v>13.67811101826134</v>
       </c>
       <c r="D9">
-        <v>6.899295737111556</v>
+        <v>2.023428941809762</v>
       </c>
       <c r="E9">
-        <v>6.686939167064399</v>
+        <v>12.59779638852249</v>
       </c>
       <c r="F9">
-        <v>55.26364688667782</v>
+        <v>32.7462032320857</v>
       </c>
       <c r="G9">
-        <v>1.973641417412881</v>
+        <v>49.67479200215206</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.84969864858949</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.692650634510416</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>53.33644520872321</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.310601504760529</v>
       </c>
       <c r="M9">
-        <v>34.42325873646822</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.66496142997349</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>43.36699196717592</v>
+        <v>25.54764927553174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.480654894958002</v>
+        <v>14.77609121088894</v>
       </c>
       <c r="D10">
-        <v>7.627700610206118</v>
+        <v>1.944856503704883</v>
       </c>
       <c r="E10">
-        <v>6.86678730115269</v>
+        <v>13.5265654694981</v>
       </c>
       <c r="F10">
-        <v>61.12181240045188</v>
+        <v>35.85722390870171</v>
       </c>
       <c r="G10">
-        <v>1.934064713718348</v>
+        <v>54.41318920185707</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.75182966592632</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.506856616004753</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>58.9855267067409</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.588574365895592</v>
       </c>
       <c r="M10">
-        <v>38.07252120055396</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.38454926164176</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>48.2784452393947</v>
+        <v>27.89504581282086</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.913132819746478</v>
+        <v>15.26480880001521</v>
       </c>
       <c r="D11">
-        <v>7.966712641397261</v>
+        <v>1.908262014324711</v>
       </c>
       <c r="E11">
-        <v>6.955025965432132</v>
+        <v>13.94315565402394</v>
       </c>
       <c r="F11">
-        <v>63.9169131896385</v>
+        <v>37.22351850053884</v>
       </c>
       <c r="G11">
-        <v>1.915327029751053</v>
+        <v>56.49191087603107</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>14.15724985807593</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.420922014986957</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>61.52003693674632</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.717591091853387</v>
       </c>
       <c r="M11">
-        <v>39.70886615432981</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.25990461204236</v>
+        <v>31.41016321374476</v>
       </c>
       <c r="O11">
-        <v>50.56383150948378</v>
+        <v>28.97261252421558</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.07737290445357</v>
+        <v>15.44832752768198</v>
       </c>
       <c r="D12">
-        <v>8.096954600222693</v>
+        <v>1.894250583145504</v>
       </c>
       <c r="E12">
-        <v>6.989669639638215</v>
+        <v>14.10004548419606</v>
       </c>
       <c r="F12">
-        <v>64.99122962773139</v>
+        <v>37.73374308522934</v>
       </c>
       <c r="G12">
-        <v>1.908078163714206</v>
+        <v>57.26837273152044</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>14.3100383932975</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.388055534117716</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>62.47812232542211</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.766816980318895</v>
       </c>
       <c r="M12">
-        <v>40.32727115153406</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.21304107324928</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>51.44082484985033</v>
+        <v>29.37489765719581</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.04196650978646</v>
+        <v>15.40887202321345</v>
       </c>
       <c r="D13">
-        <v>8.068806648096581</v>
+        <v>1.897275581787659</v>
       </c>
       <c r="E13">
-        <v>6.982147730333317</v>
+        <v>14.06629479130716</v>
       </c>
       <c r="F13">
-        <v>64.75904860161508</v>
+        <v>37.62417164436891</v>
       </c>
       <c r="G13">
-        <v>1.909647086298</v>
+        <v>57.1016176410714</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>14.27716540569054</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.395150673101892</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>62.27178999297717</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.756198757865057</v>
       </c>
       <c r="M13">
-        <v>40.19409970956461</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.2231207147822</v>
+        <v>31.67947945617568</v>
       </c>
       <c r="O13">
-        <v>51.25135046023207</v>
+        <v>29.2885112526835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.926630769645364</v>
+        <v>15.279937917095</v>
       </c>
       <c r="D14">
-        <v>7.977385018018836</v>
+        <v>1.907112563430981</v>
       </c>
       <c r="E14">
-        <v>6.957849328041414</v>
+        <v>13.95608036624275</v>
       </c>
       <c r="F14">
-        <v>64.00494376728462</v>
+        <v>37.26563710219153</v>
       </c>
       <c r="G14">
-        <v>1.914734063206633</v>
+        <v>56.55600317996855</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>14.16983462641125</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.418225398484772</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>61.59886942954367</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.7216334890926</v>
       </c>
       <c r="M14">
-        <v>39.75975270337041</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.25604297617879</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
-        <v>50.63572086538657</v>
+        <v>29.00582305771042</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.856069802392794</v>
+        <v>15.20076095260593</v>
       </c>
       <c r="D15">
-        <v>7.921656690585182</v>
+        <v>1.913116959188399</v>
       </c>
       <c r="E15">
-        <v>6.943136935545144</v>
+        <v>13.88845842261561</v>
       </c>
       <c r="F15">
-        <v>63.5452830625193</v>
+        <v>37.04509893487216</v>
       </c>
       <c r="G15">
-        <v>1.917828337354152</v>
+        <v>56.22041587888265</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>14.10399549006108</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.432312845152305</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>61.18658696765871</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.700509600501309</v>
       </c>
       <c r="M15">
-        <v>39.49361682345818</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.27624959607429</v>
+        <v>31.28998244549471</v>
       </c>
       <c r="O15">
-        <v>50.26028710442247</v>
+        <v>28.83192397963217</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.452414802100337</v>
+        <v>14.74393509332477</v>
       </c>
       <c r="D16">
-        <v>7.605759198133239</v>
+        <v>1.947228301866373</v>
       </c>
       <c r="E16">
-        <v>6.861173754264698</v>
+        <v>13.49921955074596</v>
       </c>
       <c r="F16">
-        <v>60.94104907033806</v>
+        <v>35.76691835299001</v>
       </c>
       <c r="G16">
-        <v>1.935270744158764</v>
+        <v>54.27582160212806</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.72523216710987</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.512434512335374</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>58.81944717024595</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.580194396774103</v>
       </c>
       <c r="M16">
-        <v>37.96527530312683</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.39274745798283</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>48.13044654846216</v>
+        <v>27.82380580593458</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.204819542776468</v>
+        <v>14.46092121650086</v>
       </c>
       <c r="D17">
-        <v>7.41439714917764</v>
+        <v>1.96791519664952</v>
       </c>
       <c r="E17">
-        <v>6.812723874120523</v>
+        <v>13.25890136659386</v>
       </c>
       <c r="F17">
-        <v>59.36571630523989</v>
+        <v>34.9697948289456</v>
       </c>
       <c r="G17">
-        <v>1.945753508303195</v>
+        <v>53.0634218342862</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.49157799023525</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.561147295608249</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>57.36034997738903</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.507040849120801</v>
       </c>
       <c r="M17">
-        <v>37.02295682661764</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.46491319503928</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
-        <v>46.83952185021581</v>
+        <v>27.1948645606921</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.062212206905183</v>
+        <v>14.29712451220777</v>
       </c>
       <c r="D18">
-        <v>7.304993924876226</v>
+        <v>1.979735696092722</v>
       </c>
       <c r="E18">
-        <v>6.785438322773521</v>
+        <v>13.12011934081842</v>
       </c>
       <c r="F18">
-        <v>58.46628692029093</v>
+        <v>34.50646632894854</v>
       </c>
       <c r="G18">
-        <v>1.951717382976525</v>
+        <v>52.35882764310046</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.35671867957804</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.589041152132305</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>56.51754176983319</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.46520591726492</v>
       </c>
       <c r="M18">
-        <v>36.47856615054311</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.50670196545332</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>46.10150770935095</v>
+        <v>26.82919622028646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.013876109254673</v>
+        <v>14.24149202999594</v>
       </c>
       <c r="D19">
-        <v>7.268046351898463</v>
+        <v>1.983725406288408</v>
       </c>
       <c r="E19">
-        <v>6.776292097213922</v>
+        <v>13.07303528074359</v>
       </c>
       <c r="F19">
-        <v>58.16277219278666</v>
+        <v>34.34875356006614</v>
       </c>
       <c r="G19">
-        <v>1.953726618569493</v>
+        <v>52.11900926364258</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.31097841682232</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.598467348333483</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>56.23148036377626</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.451082796652869</v>
       </c>
       <c r="M19">
-        <v>36.29377787025921</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.52090117596454</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>45.85229442843176</v>
+        <v>26.70470884515769</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.231192518999592</v>
+        <v>14.49115363815536</v>
       </c>
       <c r="D20">
-        <v>7.434694576501697</v>
+        <v>1.965721335755544</v>
       </c>
       <c r="E20">
-        <v>6.817819375011437</v>
+        <v>13.28454152098951</v>
       </c>
       <c r="F20">
-        <v>59.5326925674124</v>
+        <v>35.05514994340767</v>
       </c>
       <c r="G20">
-        <v>1.944644682213934</v>
+        <v>53.19323240932662</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.51649951312886</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.555975393149716</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>57.5160219659349</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.514803232943979</v>
       </c>
       <c r="M20">
-        <v>37.12350238227754</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.45720244485805</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>46.97645215649376</v>
+        <v>27.26222060548827</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.96048828975947</v>
+        <v>15.31785085761553</v>
       </c>
       <c r="D21">
-        <v>8.004179732418551</v>
+        <v>1.904227649681134</v>
       </c>
       <c r="E21">
-        <v>6.964949993788286</v>
+        <v>13.98847642910961</v>
       </c>
       <c r="F21">
-        <v>64.2259617891068</v>
+        <v>37.37113978802027</v>
       </c>
       <c r="G21">
-        <v>1.913244514139303</v>
+        <v>56.71655080787114</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>14.2013802712163</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.411457747341188</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>61.79653548339991</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.731776061715313</v>
       </c>
       <c r="M21">
-        <v>39.88734392422242</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.24636461228404</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>50.81619108317605</v>
+        <v>29.08901015906279</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.44036738038337</v>
+        <v>15.84914342333552</v>
       </c>
       <c r="D22">
-        <v>8.387814567055623</v>
+        <v>1.863123518527164</v>
       </c>
       <c r="E22">
-        <v>7.068509033471471</v>
+        <v>14.44351709642497</v>
       </c>
       <c r="F22">
-        <v>67.38970164600649</v>
+        <v>38.84316599288125</v>
       </c>
       <c r="G22">
-        <v>1.89179415389059</v>
+        <v>58.95706060437475</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>14.68421330404485</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.315029386125727</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>64.58679408723492</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.875742737983232</v>
       </c>
       <c r="M22">
-        <v>41.68800415492395</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.11046359254456</v>
+        <v>32.49403281050594</v>
       </c>
       <c r="O22">
-        <v>53.39629763794903</v>
+        <v>30.24943251787865</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.18365822081172</v>
+        <v>15.56639863725973</v>
       </c>
       <c r="D23">
-        <v>8.181686599564207</v>
+        <v>1.885156654599522</v>
       </c>
       <c r="E23">
-        <v>7.012427477482394</v>
+        <v>14.20111004913615</v>
       </c>
       <c r="F23">
-        <v>65.69011012069859</v>
+        <v>38.06124082861938</v>
       </c>
       <c r="G23">
-        <v>1.90334781078023</v>
+        <v>57.76681540859695</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>14.40848930494565</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.366725726339766</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>63.09681114712509</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.798705024089779</v>
       </c>
       <c r="M23">
-        <v>40.72656090886528</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.182861106354</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>52.01095953066415</v>
+        <v>29.63308253406938</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.219270160108904</v>
+        <v>14.47748894955831</v>
       </c>
       <c r="D24">
-        <v>7.425516252967087</v>
+        <v>1.966713404296454</v>
       </c>
       <c r="E24">
-        <v>6.815513948401914</v>
+        <v>13.27295153664241</v>
       </c>
       <c r="F24">
-        <v>59.45718348812108</v>
+        <v>35.01657664628328</v>
       </c>
       <c r="G24">
-        <v>1.945146174737987</v>
+        <v>53.13456865003465</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.50523413654642</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.558313949725008</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>57.445655215306</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.511293167676898</v>
       </c>
       <c r="M24">
-        <v>37.07805411067241</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.46068753574408</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
-        <v>46.91453331703085</v>
+        <v>27.23178166556914</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.170192779303772</v>
+        <v>13.26441002226761</v>
       </c>
       <c r="D25">
-        <v>6.633923180396217</v>
+        <v>2.051798577092216</v>
       </c>
       <c r="E25">
-        <v>6.624857800358278</v>
+        <v>12.25077551460985</v>
       </c>
       <c r="F25">
-        <v>53.25889430658219</v>
+        <v>31.64167568045777</v>
       </c>
       <c r="G25">
-        <v>1.987813685534034</v>
+        <v>47.85993038752196</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.51337227027925</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.760468607909893</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>51.20714426947791</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.210534188826619</v>
       </c>
       <c r="M25">
-        <v>33.04702021475497</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.77121009498672</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>41.751350884344</v>
+        <v>24.73361401382245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.33961392562812</v>
+        <v>13.37041050194737</v>
       </c>
       <c r="D2">
-        <v>2.112970873728217</v>
+        <v>4.155204696756664</v>
       </c>
       <c r="E2">
-        <v>11.48190621796918</v>
+        <v>13.72610928902245</v>
       </c>
       <c r="F2">
-        <v>29.14666048943257</v>
+        <v>26.5227943986173</v>
       </c>
       <c r="G2">
-        <v>43.78931612971414</v>
+        <v>34.09956198786418</v>
       </c>
       <c r="H2">
-        <v>11.77000713990262</v>
+        <v>14.5584433102773</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.997225224451901</v>
+        <v>9.145448808988293</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>22.90548782138461</v>
+        <v>23.13022551420616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.69496422940339</v>
+        <v>13.26998484690672</v>
       </c>
       <c r="D3">
-        <v>2.153938444378757</v>
+        <v>4.164241322338348</v>
       </c>
       <c r="E3">
-        <v>10.95250588193756</v>
+        <v>13.66501597118269</v>
       </c>
       <c r="F3">
-        <v>27.38153174917012</v>
+        <v>26.12679731536193</v>
       </c>
       <c r="G3">
-        <v>40.90605478556731</v>
+        <v>33.26842763544568</v>
       </c>
       <c r="H3">
-        <v>11.25992765445823</v>
+        <v>14.50374877142435</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.857945756131937</v>
+        <v>9.149145858536359</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>21.62275049050595</v>
+        <v>22.89358244757704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.29126382270342</v>
+        <v>13.21156305405411</v>
       </c>
       <c r="D4">
-        <v>2.178976764043718</v>
+        <v>4.169974493241716</v>
       </c>
       <c r="E4">
-        <v>10.62421540858486</v>
+        <v>13.63080591497906</v>
       </c>
       <c r="F4">
-        <v>26.26270987551216</v>
+        <v>25.88873046564321</v>
       </c>
       <c r="G4">
-        <v>39.06558531871713</v>
+        <v>32.75873017636872</v>
       </c>
       <c r="H4">
-        <v>10.94449726617821</v>
+        <v>14.47347989785808</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.775122766763769</v>
+        <v>9.153051092502629</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>20.81512455747075</v>
+        <v>22.75360380579077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.12495448297321</v>
+        <v>13.18859190932568</v>
       </c>
       <c r="D5">
-        <v>2.189167923066609</v>
+        <v>4.17235756564671</v>
       </c>
       <c r="E5">
-        <v>10.48978200847064</v>
+        <v>13.61770494133458</v>
       </c>
       <c r="F5">
-        <v>25.79832054831148</v>
+        <v>25.79312095759196</v>
       </c>
       <c r="G5">
-        <v>38.2982291082172</v>
+        <v>32.55152567640876</v>
       </c>
       <c r="H5">
-        <v>10.81555067173928</v>
+        <v>14.46198665716708</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.742064499057488</v>
+        <v>9.155053650312562</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>20.48129775150759</v>
+        <v>22.69796028144011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.09723646546882</v>
+        <v>13.18482866954959</v>
       </c>
       <c r="D6">
-        <v>2.190859894836471</v>
+        <v>4.172756106705926</v>
       </c>
       <c r="E6">
-        <v>10.46742527226344</v>
+        <v>13.61558052323208</v>
       </c>
       <c r="F6">
-        <v>25.72071029190903</v>
+        <v>25.77733359755572</v>
       </c>
       <c r="G6">
-        <v>38.16977341679325</v>
+        <v>32.51716006840205</v>
       </c>
       <c r="H6">
-        <v>10.79411968514276</v>
+        <v>14.46012926374611</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.736617477988156</v>
+        <v>9.155411001309862</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>20.42559237869876</v>
+        <v>22.68880692487065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.28902792619497</v>
+        <v>13.21124984418041</v>
       </c>
       <c r="D7">
-        <v>2.179114233302169</v>
+        <v>4.170006442449698</v>
       </c>
       <c r="E7">
-        <v>10.62240480151275</v>
+        <v>13.63062581798043</v>
       </c>
       <c r="F7">
-        <v>26.25648067819452</v>
+        <v>25.88743518790102</v>
       </c>
       <c r="G7">
-        <v>39.05530625365199</v>
+        <v>32.75593325152816</v>
       </c>
       <c r="H7">
-        <v>10.94275966770059</v>
+        <v>14.47332147840509</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.774674106537076</v>
+        <v>9.153076435169154</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>20.81064105099315</v>
+        <v>22.75284763561852</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.11907345434638</v>
+        <v>13.33512466194454</v>
       </c>
       <c r="D8">
-        <v>2.12713121277219</v>
+        <v>4.158282400405042</v>
       </c>
       <c r="E8">
-        <v>11.30012931162216</v>
+        <v>13.70436527329524</v>
       </c>
       <c r="F8">
-        <v>28.54549008319198</v>
+        <v>26.38527843459258</v>
       </c>
       <c r="G8">
-        <v>42.80985387526128</v>
+        <v>33.81306139919632</v>
       </c>
       <c r="H8">
-        <v>11.59468349942798</v>
+        <v>14.53890214088213</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.948651200242799</v>
+        <v>9.146384169886828</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>22.46752384335981</v>
+        <v>23.04756400656899</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.67811101826134</v>
+        <v>13.60273188941015</v>
       </c>
       <c r="D9">
-        <v>2.023428941809762</v>
+        <v>4.136741472072262</v>
       </c>
       <c r="E9">
-        <v>12.59779638852249</v>
+        <v>13.87468339608541</v>
       </c>
       <c r="F9">
-        <v>32.7462032320857</v>
+        <v>27.39610705352802</v>
       </c>
       <c r="G9">
-        <v>49.67479200215206</v>
+        <v>35.87645284445449</v>
       </c>
       <c r="H9">
-        <v>12.84969864858949</v>
+        <v>14.69338825875396</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.310601504760529</v>
+        <v>9.146232988110823</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>25.54764927553174</v>
+        <v>23.66491092064396</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.77609121088894</v>
+        <v>13.81293516011308</v>
       </c>
       <c r="D10">
-        <v>1.944856503704883</v>
+        <v>4.121777607462343</v>
       </c>
       <c r="E10">
-        <v>13.5265654694981</v>
+        <v>14.01477531325477</v>
       </c>
       <c r="F10">
-        <v>35.85722390870171</v>
+        <v>28.15212020161805</v>
       </c>
       <c r="G10">
-        <v>54.41318920185707</v>
+        <v>37.36806833338232</v>
       </c>
       <c r="H10">
-        <v>13.75182966592632</v>
+        <v>14.82205274249375</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.588574365895592</v>
+        <v>9.154019931566735</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>27.89504581282086</v>
+        <v>24.13857679840676</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.26480880001521</v>
+        <v>13.91117940161917</v>
       </c>
       <c r="D11">
-        <v>1.908262014324711</v>
+        <v>4.115152714106183</v>
       </c>
       <c r="E11">
-        <v>13.94315565402394</v>
+        <v>14.08158059664049</v>
       </c>
       <c r="F11">
-        <v>37.22351850053884</v>
+        <v>28.49733257179048</v>
       </c>
       <c r="G11">
-        <v>56.49191087603107</v>
+        <v>38.03778817837413</v>
       </c>
       <c r="H11">
-        <v>14.15724985807593</v>
+        <v>14.88372749745571</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.717591091853387</v>
+        <v>9.159272117890167</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>28.97261252421558</v>
+        <v>24.3575587741136</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.44832752768198</v>
+        <v>13.94872960505786</v>
       </c>
       <c r="D12">
-        <v>1.894250583145504</v>
+        <v>4.112669886466443</v>
       </c>
       <c r="E12">
-        <v>14.10004548419606</v>
+        <v>14.10730431498528</v>
       </c>
       <c r="F12">
-        <v>37.73374308522934</v>
+        <v>28.62811052037343</v>
       </c>
       <c r="G12">
-        <v>57.26837273152044</v>
+        <v>38.28985415784105</v>
       </c>
       <c r="H12">
-        <v>14.3100383932975</v>
+        <v>14.90752024431413</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.766816980318895</v>
+        <v>9.161506106580909</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>29.37489765719581</v>
+        <v>24.44091257073001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.40887202321345</v>
+        <v>13.94062753326048</v>
       </c>
       <c r="D13">
-        <v>1.897275581787659</v>
+        <v>4.113203462258511</v>
       </c>
       <c r="E13">
-        <v>14.06629479130716</v>
+        <v>14.10174557542708</v>
       </c>
       <c r="F13">
-        <v>37.62417164436891</v>
+        <v>28.5999448485599</v>
       </c>
       <c r="G13">
-        <v>57.1016176410714</v>
+        <v>38.2356399765688</v>
       </c>
       <c r="H13">
-        <v>14.27716540569054</v>
+        <v>14.90237681339962</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.756198757865057</v>
+        <v>9.161014090389759</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>29.2885112526835</v>
+        <v>24.42294289741484</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.279937917095</v>
+        <v>13.91426189276528</v>
       </c>
       <c r="D14">
-        <v>1.907112563430981</v>
+        <v>4.114947933691749</v>
       </c>
       <c r="E14">
-        <v>13.95608036624275</v>
+        <v>14.08368846160805</v>
       </c>
       <c r="F14">
-        <v>37.26563710219153</v>
+        <v>28.50809142899396</v>
       </c>
       <c r="G14">
-        <v>56.55600317996855</v>
+        <v>38.05855820458893</v>
       </c>
       <c r="H14">
-        <v>14.16983462641125</v>
+        <v>14.88567625069102</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.7216334890926</v>
+        <v>9.159451002355464</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>29.00582305771042</v>
+        <v>24.3644081484729</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.20076095260593</v>
+        <v>13.89815650436399</v>
       </c>
       <c r="D15">
-        <v>1.913116959188399</v>
+        <v>4.11601983276915</v>
       </c>
       <c r="E15">
-        <v>13.88845842261561</v>
+        <v>14.07268293517114</v>
       </c>
       <c r="F15">
-        <v>37.04509893487216</v>
+        <v>28.45183163900173</v>
       </c>
       <c r="G15">
-        <v>56.22041587888265</v>
+        <v>37.94988186959795</v>
       </c>
       <c r="H15">
-        <v>14.10399549006108</v>
+        <v>14.87550325658976</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.700509600501309</v>
+        <v>9.158525459154946</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>28.83192397963217</v>
+        <v>24.32860772178101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.74393509332477</v>
+        <v>13.80656489398851</v>
       </c>
       <c r="D16">
-        <v>1.947228301866373</v>
+        <v>4.12221419876783</v>
       </c>
       <c r="E16">
-        <v>13.49921955074596</v>
+        <v>14.01046995804423</v>
       </c>
       <c r="F16">
-        <v>35.76691835299001</v>
+        <v>28.12957441757639</v>
       </c>
       <c r="G16">
-        <v>54.27582160212806</v>
+        <v>37.32409916418752</v>
       </c>
       <c r="H16">
-        <v>13.72523216710987</v>
+        <v>14.8180842227151</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.580194396774103</v>
+        <v>9.153711033056302</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>27.82380580593458</v>
+        <v>24.12433005285303</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.46092121650086</v>
+        <v>13.75102692519575</v>
       </c>
       <c r="D17">
-        <v>1.96791519664952</v>
+        <v>4.126060683422856</v>
       </c>
       <c r="E17">
-        <v>13.25890136659386</v>
+        <v>13.97308092542864</v>
       </c>
       <c r="F17">
-        <v>34.9697948289456</v>
+        <v>27.93211667036676</v>
       </c>
       <c r="G17">
-        <v>53.0634218342862</v>
+        <v>36.9377407366258</v>
       </c>
       <c r="H17">
-        <v>13.49157799023525</v>
+        <v>14.78365497450506</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.507040849120801</v>
+        <v>9.151194975731659</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>27.1948645606921</v>
+        <v>23.99985807693567</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.29712451220777</v>
+        <v>13.71933155048363</v>
       </c>
       <c r="D18">
-        <v>1.979735696092722</v>
+        <v>4.128290253099933</v>
       </c>
       <c r="E18">
-        <v>13.12011934081842</v>
+        <v>13.95186638201738</v>
       </c>
       <c r="F18">
-        <v>34.50646632894854</v>
+        <v>27.81867415254562</v>
       </c>
       <c r="G18">
-        <v>52.35882764310046</v>
+        <v>36.71470216004653</v>
       </c>
       <c r="H18">
-        <v>13.35671867957804</v>
+        <v>14.7641490806374</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.46520591726492</v>
+        <v>9.149908803807708</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>26.82919622028646</v>
+        <v>23.92859985185283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.24149202999594</v>
+        <v>13.70864363409617</v>
       </c>
       <c r="D19">
-        <v>1.983725406288408</v>
+        <v>4.129048106701211</v>
       </c>
       <c r="E19">
-        <v>13.07303528074359</v>
+        <v>13.94473390647452</v>
       </c>
       <c r="F19">
-        <v>34.34875356006614</v>
+        <v>27.78029090189914</v>
       </c>
       <c r="G19">
-        <v>52.11900926364258</v>
+        <v>36.63905374850814</v>
       </c>
       <c r="H19">
-        <v>13.31097841682232</v>
+        <v>14.75759613660141</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.451082796652869</v>
+        <v>9.149501000575199</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>26.70470884515769</v>
+        <v>23.90453280603581</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.49115363815536</v>
+        <v>13.7569135216573</v>
       </c>
       <c r="D20">
-        <v>1.965721335755544</v>
+        <v>4.125649443604662</v>
       </c>
       <c r="E20">
-        <v>13.28454152098951</v>
+        <v>13.97703108809821</v>
       </c>
       <c r="F20">
-        <v>35.05514994340767</v>
+        <v>27.95312391127031</v>
       </c>
       <c r="G20">
-        <v>53.19323240932662</v>
+        <v>36.97895569104387</v>
       </c>
       <c r="H20">
-        <v>13.51649951312886</v>
+        <v>14.78728940031413</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.514803232943979</v>
+        <v>9.151446156807499</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>27.26222060548827</v>
+        <v>24.01307422436261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.31785085761553</v>
+        <v>13.92199693653972</v>
       </c>
       <c r="D21">
-        <v>1.904227649681134</v>
+        <v>4.114434840522379</v>
       </c>
       <c r="E21">
-        <v>13.98847642910961</v>
+        <v>14.08898084690295</v>
       </c>
       <c r="F21">
-        <v>37.37113978802027</v>
+        <v>28.53507059482261</v>
       </c>
       <c r="G21">
-        <v>56.71655080787114</v>
+        <v>38.11061535280545</v>
       </c>
       <c r="H21">
-        <v>14.2013802712163</v>
+        <v>14.89056984565117</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.731776061715313</v>
+        <v>9.159903474271863</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>29.08901015906279</v>
+        <v>24.38159014469124</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.84914342333552</v>
+        <v>14.03189830191663</v>
       </c>
       <c r="D22">
-        <v>1.863123518527164</v>
+        <v>4.107256118724323</v>
       </c>
       <c r="E22">
-        <v>14.44351709642497</v>
+        <v>14.16462140604692</v>
       </c>
       <c r="F22">
-        <v>38.84316599288125</v>
+        <v>28.91565940356294</v>
       </c>
       <c r="G22">
-        <v>58.95706060437475</v>
+        <v>38.84111764272446</v>
       </c>
       <c r="H22">
-        <v>14.68421330404485</v>
+        <v>14.96061455826228</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.875742737983232</v>
+        <v>9.166858972503363</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>30.24943251787865</v>
+        <v>24.62490897187242</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.56639863725973</v>
+        <v>13.97306795110939</v>
       </c>
       <c r="D23">
-        <v>1.885156654599522</v>
+        <v>4.111073860734327</v>
       </c>
       <c r="E23">
-        <v>14.20111004913615</v>
+        <v>14.12402979452875</v>
       </c>
       <c r="F23">
-        <v>38.06124082861938</v>
+        <v>28.7125518170347</v>
       </c>
       <c r="G23">
-        <v>57.76681540859695</v>
+        <v>38.45215282951914</v>
       </c>
       <c r="H23">
-        <v>14.40848930494565</v>
+        <v>14.92300244718488</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.798705024089779</v>
+        <v>9.163016315270088</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>29.63308253406938</v>
+        <v>24.49484349743257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.47748894955831</v>
+        <v>13.75425145984138</v>
       </c>
       <c r="D24">
-        <v>1.966713404296454</v>
+        <v>4.125835308476042</v>
       </c>
       <c r="E24">
-        <v>13.27295153664241</v>
+        <v>13.97524434334382</v>
       </c>
       <c r="F24">
-        <v>35.01657664628328</v>
+        <v>27.94362628268672</v>
       </c>
       <c r="G24">
-        <v>53.13456865003465</v>
+        <v>36.96032524213635</v>
       </c>
       <c r="H24">
-        <v>13.50523413654642</v>
+        <v>14.78564537839181</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.511293167676898</v>
+        <v>9.151332098343742</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>27.23178166556914</v>
+        <v>24.00709825654724</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.26441002226761</v>
+        <v>13.52783970910533</v>
       </c>
       <c r="D25">
-        <v>2.051798577092216</v>
+        <v>4.142415879446898</v>
       </c>
       <c r="E25">
-        <v>12.25077551460985</v>
+        <v>13.82592466555299</v>
       </c>
       <c r="F25">
-        <v>31.64167568045777</v>
+        <v>27.11974928405018</v>
       </c>
       <c r="G25">
-        <v>47.85993038752196</v>
+        <v>35.32125530339712</v>
       </c>
       <c r="H25">
-        <v>12.51337227027925</v>
+        <v>14.64888441999562</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.210534188826619</v>
+        <v>9.144885548712821</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>24.73361401382245</v>
+        <v>23.49408141794433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.37041050194737</v>
+        <v>12.3396139256281</v>
       </c>
       <c r="D2">
-        <v>4.155204696756664</v>
+        <v>2.112970873728286</v>
       </c>
       <c r="E2">
-        <v>13.72610928902245</v>
+        <v>11.48190621796918</v>
       </c>
       <c r="F2">
-        <v>26.5227943986173</v>
+        <v>29.14666048943256</v>
       </c>
       <c r="G2">
-        <v>34.09956198786418</v>
+        <v>43.78931612971411</v>
       </c>
       <c r="H2">
-        <v>14.5584433102773</v>
+        <v>11.77000713990267</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.145448808988293</v>
+        <v>5.99722522445192</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>23.13022551420616</v>
+        <v>22.90548782138463</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.26998484690672</v>
+        <v>11.69496422940342</v>
       </c>
       <c r="D3">
-        <v>4.164241322338348</v>
+        <v>2.153938444378824</v>
       </c>
       <c r="E3">
-        <v>13.66501597118269</v>
+        <v>10.9525058819376</v>
       </c>
       <c r="F3">
-        <v>26.12679731536193</v>
+        <v>27.38153174917012</v>
       </c>
       <c r="G3">
-        <v>33.26842763544568</v>
+        <v>40.90605478556726</v>
       </c>
       <c r="H3">
-        <v>14.50374877142435</v>
+        <v>11.25992765445828</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.149145858536359</v>
+        <v>5.857945756131953</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>22.89358244757704</v>
+        <v>21.62275049050598</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.21156305405411</v>
+        <v>11.29126382270344</v>
       </c>
       <c r="D4">
-        <v>4.169974493241716</v>
+        <v>2.178976764043717</v>
       </c>
       <c r="E4">
-        <v>13.63080591497906</v>
+        <v>10.62421540858484</v>
       </c>
       <c r="F4">
-        <v>25.88873046564321</v>
+        <v>26.2627098755122</v>
       </c>
       <c r="G4">
-        <v>32.75873017636872</v>
+        <v>39.06558531871718</v>
       </c>
       <c r="H4">
-        <v>14.47347989785808</v>
+        <v>10.94449726617827</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.153051092502629</v>
+        <v>5.775122766763759</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>22.75360380579077</v>
+        <v>20.81512455747081</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.18859190932568</v>
+        <v>11.12495448297334</v>
       </c>
       <c r="D5">
-        <v>4.17235756564671</v>
+        <v>2.189167923066679</v>
       </c>
       <c r="E5">
-        <v>13.61770494133458</v>
+        <v>10.48978200847065</v>
       </c>
       <c r="F5">
-        <v>25.79312095759196</v>
+        <v>25.79832054831142</v>
       </c>
       <c r="G5">
-        <v>32.55152567640876</v>
+        <v>38.29822910821714</v>
       </c>
       <c r="H5">
-        <v>14.46198665716708</v>
+        <v>10.81555067173928</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.155053650312562</v>
+        <v>5.742064499057438</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>22.69796028144011</v>
+        <v>20.48129775150757</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.18482866954959</v>
+        <v>11.09723646546876</v>
       </c>
       <c r="D6">
-        <v>4.172756106705926</v>
+        <v>2.19085989483654</v>
       </c>
       <c r="E6">
-        <v>13.61558052323208</v>
+        <v>10.46742527226345</v>
       </c>
       <c r="F6">
-        <v>25.77733359755572</v>
+        <v>25.72071029190899</v>
       </c>
       <c r="G6">
-        <v>32.51716006840205</v>
+        <v>38.16977341679321</v>
       </c>
       <c r="H6">
-        <v>14.46012926374611</v>
+        <v>10.79411968514272</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.155411001309862</v>
+        <v>5.736617477988172</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>22.68880692487065</v>
+        <v>20.4255923786987</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.21124984418041</v>
+        <v>11.28902792619503</v>
       </c>
       <c r="D7">
-        <v>4.170006442449698</v>
+        <v>2.179114233302035</v>
       </c>
       <c r="E7">
-        <v>13.63062581798043</v>
+        <v>10.62240480151276</v>
       </c>
       <c r="F7">
-        <v>25.88743518790102</v>
+        <v>26.25648067819458</v>
       </c>
       <c r="G7">
-        <v>32.75593325152816</v>
+        <v>39.05530625365204</v>
       </c>
       <c r="H7">
-        <v>14.47332147840509</v>
+        <v>10.9427596677006</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.153076435169154</v>
+        <v>5.774674106537077</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>22.75284763561852</v>
+        <v>20.81064105099318</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.33512466194454</v>
+        <v>12.11907345434638</v>
       </c>
       <c r="D8">
-        <v>4.158282400405042</v>
+        <v>2.127131212772255</v>
       </c>
       <c r="E8">
-        <v>13.70436527329524</v>
+        <v>11.30012931162215</v>
       </c>
       <c r="F8">
-        <v>26.38527843459258</v>
+        <v>28.54549008319196</v>
       </c>
       <c r="G8">
-        <v>33.81306139919632</v>
+        <v>42.80985387526121</v>
       </c>
       <c r="H8">
-        <v>14.53890214088213</v>
+        <v>11.59468349942799</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.146384169886828</v>
+        <v>5.948651200242811</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>23.04756400656899</v>
+        <v>22.4675238433598</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.60273188941015</v>
+        <v>13.67811101826136</v>
       </c>
       <c r="D9">
-        <v>4.136741472072262</v>
+        <v>2.02342894180976</v>
       </c>
       <c r="E9">
-        <v>13.87468339608541</v>
+        <v>12.59779638852248</v>
       </c>
       <c r="F9">
-        <v>27.39610705352802</v>
+        <v>32.74620323208567</v>
       </c>
       <c r="G9">
-        <v>35.87645284445449</v>
+        <v>49.67479200215196</v>
       </c>
       <c r="H9">
-        <v>14.69338825875396</v>
+        <v>12.84969864858949</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.146232988110823</v>
+        <v>6.310601504760522</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>23.66491092064396</v>
+        <v>25.54764927553173</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.81293516011308</v>
+        <v>14.77609121088891</v>
       </c>
       <c r="D10">
-        <v>4.121777607462343</v>
+        <v>1.944856503704817</v>
       </c>
       <c r="E10">
-        <v>14.01477531325477</v>
+        <v>13.52656546949811</v>
       </c>
       <c r="F10">
-        <v>28.15212020161805</v>
+        <v>35.85722390870175</v>
       </c>
       <c r="G10">
-        <v>37.36806833338232</v>
+        <v>54.41318920185713</v>
       </c>
       <c r="H10">
-        <v>14.82205274249375</v>
+        <v>13.75182966592633</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.154019931566735</v>
+        <v>6.58857436589558</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>24.13857679840676</v>
+        <v>27.89504581282089</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.91117940161917</v>
+        <v>15.26480880001519</v>
       </c>
       <c r="D11">
-        <v>4.115152714106183</v>
+        <v>1.908262014324976</v>
       </c>
       <c r="E11">
-        <v>14.08158059664049</v>
+        <v>13.94315565402396</v>
       </c>
       <c r="F11">
-        <v>28.49733257179048</v>
+        <v>37.22351850053884</v>
       </c>
       <c r="G11">
-        <v>38.03778817837413</v>
+        <v>56.49191087603099</v>
       </c>
       <c r="H11">
-        <v>14.88372749745571</v>
+        <v>14.15724985807592</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.159272117890167</v>
+        <v>6.71759109185341</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>24.3575587741136</v>
+        <v>28.97261252421556</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.94872960505786</v>
+        <v>15.448327527682</v>
       </c>
       <c r="D12">
-        <v>4.112669886466443</v>
+        <v>1.894250583145772</v>
       </c>
       <c r="E12">
-        <v>14.10730431498528</v>
+        <v>14.10004548419606</v>
       </c>
       <c r="F12">
-        <v>28.62811052037343</v>
+        <v>37.73374308522941</v>
       </c>
       <c r="G12">
-        <v>38.28985415784105</v>
+        <v>57.2683727315205</v>
       </c>
       <c r="H12">
-        <v>14.90752024431413</v>
+        <v>14.31003839329753</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.161506106580909</v>
+        <v>6.766816980318889</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>24.44091257073001</v>
+        <v>29.37489765719586</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.94062753326048</v>
+        <v>15.40887202321347</v>
       </c>
       <c r="D13">
-        <v>4.113203462258511</v>
+        <v>1.897275581787726</v>
       </c>
       <c r="E13">
-        <v>14.10174557542708</v>
+        <v>14.06629479130718</v>
       </c>
       <c r="F13">
-        <v>28.5999448485599</v>
+        <v>37.62417164436901</v>
       </c>
       <c r="G13">
-        <v>38.2356399765688</v>
+        <v>57.10161764107156</v>
       </c>
       <c r="H13">
-        <v>14.90237681339962</v>
+        <v>14.27716540569054</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.161014090389759</v>
+        <v>6.75619875786503</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>24.42294289741484</v>
+        <v>29.28851125268358</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.91426189276528</v>
+        <v>15.27993791709498</v>
       </c>
       <c r="D14">
-        <v>4.114947933691749</v>
+        <v>1.907112563430979</v>
       </c>
       <c r="E14">
-        <v>14.08368846160805</v>
+        <v>13.95608036624273</v>
       </c>
       <c r="F14">
-        <v>28.50809142899396</v>
+        <v>37.26563710219151</v>
       </c>
       <c r="G14">
-        <v>38.05855820458893</v>
+        <v>56.55600317996849</v>
       </c>
       <c r="H14">
-        <v>14.88567625069102</v>
+        <v>14.16983462641124</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.159451002355464</v>
+        <v>6.72163348909257</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>24.3644081484729</v>
+        <v>29.00582305771039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.89815650436399</v>
+        <v>15.20076095260593</v>
       </c>
       <c r="D15">
-        <v>4.11601983276915</v>
+        <v>1.913116959188328</v>
       </c>
       <c r="E15">
-        <v>14.07268293517114</v>
+        <v>13.88845842261561</v>
       </c>
       <c r="F15">
-        <v>28.45183163900173</v>
+        <v>37.0450989348722</v>
       </c>
       <c r="G15">
-        <v>37.94988186959795</v>
+        <v>56.22041587888265</v>
       </c>
       <c r="H15">
-        <v>14.87550325658976</v>
+        <v>14.1039954900611</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.158525459154946</v>
+        <v>6.70050960050132</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>24.32860772178101</v>
+        <v>28.83192397963218</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.80656489398851</v>
+        <v>14.74393509332482</v>
       </c>
       <c r="D16">
-        <v>4.12221419876783</v>
+        <v>1.947228301866504</v>
       </c>
       <c r="E16">
-        <v>14.01046995804423</v>
+        <v>13.49921955074597</v>
       </c>
       <c r="F16">
-        <v>28.12957441757639</v>
+        <v>35.76691835299005</v>
       </c>
       <c r="G16">
-        <v>37.32409916418752</v>
+        <v>54.27582160212803</v>
       </c>
       <c r="H16">
-        <v>14.8180842227151</v>
+        <v>13.72523216710988</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.153711033056302</v>
+        <v>6.580194396774121</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>24.12433005285303</v>
+        <v>27.82380580593459</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.75102692519575</v>
+        <v>14.46092121650082</v>
       </c>
       <c r="D17">
-        <v>4.126060683422856</v>
+        <v>1.96791519664919</v>
       </c>
       <c r="E17">
-        <v>13.97308092542864</v>
+        <v>13.25890136659387</v>
       </c>
       <c r="F17">
-        <v>27.93211667036676</v>
+        <v>34.96979482894561</v>
       </c>
       <c r="G17">
-        <v>36.9377407366258</v>
+        <v>53.06342183428628</v>
       </c>
       <c r="H17">
-        <v>14.78365497450506</v>
+        <v>13.49157799023526</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.151194975731659</v>
+        <v>6.507040849120847</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>23.99985807693567</v>
+        <v>27.19486456069215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.71933155048363</v>
+        <v>14.29712451220777</v>
       </c>
       <c r="D18">
-        <v>4.128290253099933</v>
+        <v>1.979735696092721</v>
       </c>
       <c r="E18">
-        <v>13.95186638201738</v>
+        <v>13.12011934081846</v>
       </c>
       <c r="F18">
-        <v>27.81867415254562</v>
+        <v>34.50646632894848</v>
       </c>
       <c r="G18">
-        <v>36.71470216004653</v>
+        <v>52.35882764310043</v>
       </c>
       <c r="H18">
-        <v>14.7641490806374</v>
+        <v>13.35671867957807</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.149908803807708</v>
+        <v>6.465205917264953</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>23.92859985185283</v>
+        <v>26.82919622028642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.70864363409617</v>
+        <v>14.24149202999595</v>
       </c>
       <c r="D19">
-        <v>4.129048106701211</v>
+        <v>1.983725406288473</v>
       </c>
       <c r="E19">
-        <v>13.94473390647452</v>
+        <v>13.07303528074362</v>
       </c>
       <c r="F19">
-        <v>27.78029090189914</v>
+        <v>34.34875356006621</v>
       </c>
       <c r="G19">
-        <v>36.63905374850814</v>
+        <v>52.11900926364265</v>
       </c>
       <c r="H19">
-        <v>14.75759613660141</v>
+        <v>13.31097841682231</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.149501000575199</v>
+        <v>6.451082796652862</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>23.90453280603581</v>
+        <v>26.70470884515774</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.7569135216573</v>
+        <v>14.49115363815537</v>
       </c>
       <c r="D20">
-        <v>4.125649443604662</v>
+        <v>1.965721335755806</v>
       </c>
       <c r="E20">
-        <v>13.97703108809821</v>
+        <v>13.28454152098953</v>
       </c>
       <c r="F20">
-        <v>27.95312391127031</v>
+        <v>35.05514994340773</v>
       </c>
       <c r="G20">
-        <v>36.97895569104387</v>
+        <v>53.19323240932666</v>
       </c>
       <c r="H20">
-        <v>14.78728940031413</v>
+        <v>13.51649951312885</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.151446156807499</v>
+        <v>6.514803232943972</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>24.01307422436261</v>
+        <v>27.2622206054883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.92199693653972</v>
+        <v>15.31785085761548</v>
       </c>
       <c r="D21">
-        <v>4.114434840522379</v>
+        <v>1.904227649681136</v>
       </c>
       <c r="E21">
-        <v>14.08898084690295</v>
+        <v>13.98847642910958</v>
       </c>
       <c r="F21">
-        <v>28.53507059482261</v>
+        <v>37.37113978802022</v>
       </c>
       <c r="G21">
-        <v>38.11061535280545</v>
+        <v>56.71655080787112</v>
       </c>
       <c r="H21">
-        <v>14.89056984565117</v>
+        <v>14.2013802712163</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.159903474271863</v>
+        <v>6.731776061715291</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>24.38159014469124</v>
+        <v>29.08901015906276</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.03189830191663</v>
+        <v>15.84914342333551</v>
       </c>
       <c r="D22">
-        <v>4.107256118724323</v>
+        <v>1.863123518527098</v>
       </c>
       <c r="E22">
-        <v>14.16462140604692</v>
+        <v>14.44351709642495</v>
       </c>
       <c r="F22">
-        <v>28.91565940356294</v>
+        <v>38.84316599288133</v>
       </c>
       <c r="G22">
-        <v>38.84111764272446</v>
+        <v>58.95706060437493</v>
       </c>
       <c r="H22">
-        <v>14.96061455826228</v>
+        <v>14.68421330404487</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.166858972503363</v>
+        <v>6.875742737983247</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>24.62490897187242</v>
+        <v>30.24943251787874</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.97306795110939</v>
+        <v>15.56639863725978</v>
       </c>
       <c r="D23">
-        <v>4.111073860734327</v>
+        <v>1.885156654599595</v>
       </c>
       <c r="E23">
-        <v>14.12402979452875</v>
+        <v>14.20111004913614</v>
       </c>
       <c r="F23">
-        <v>28.7125518170347</v>
+        <v>38.06124082861938</v>
       </c>
       <c r="G23">
-        <v>38.45215282951914</v>
+        <v>57.76681540859692</v>
       </c>
       <c r="H23">
-        <v>14.92300244718488</v>
+        <v>14.40848930494565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.163016315270088</v>
+        <v>6.798705024089767</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>24.49484349743257</v>
+        <v>29.6330825340694</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.75425145984138</v>
+        <v>14.47748894955827</v>
       </c>
       <c r="D24">
-        <v>4.125835308476042</v>
+        <v>1.966713404296452</v>
       </c>
       <c r="E24">
-        <v>13.97524434334382</v>
+        <v>13.27295153664237</v>
       </c>
       <c r="F24">
-        <v>27.94362628268672</v>
+        <v>35.0165766462833</v>
       </c>
       <c r="G24">
-        <v>36.96032524213635</v>
+        <v>53.13456865003465</v>
       </c>
       <c r="H24">
-        <v>14.78564537839181</v>
+        <v>13.50523413654641</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.151332098343742</v>
+        <v>6.511293167676888</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>24.00709825654724</v>
+        <v>27.23178166556916</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.52783970910533</v>
+        <v>13.26441002226765</v>
       </c>
       <c r="D25">
-        <v>4.142415879446898</v>
+        <v>2.051798577092286</v>
       </c>
       <c r="E25">
-        <v>13.82592466555299</v>
+        <v>12.25077551460987</v>
       </c>
       <c r="F25">
-        <v>27.11974928405018</v>
+        <v>31.64167568045771</v>
       </c>
       <c r="G25">
-        <v>35.32125530339712</v>
+        <v>47.85993038752186</v>
       </c>
       <c r="H25">
-        <v>14.64888441999562</v>
+        <v>12.51337227027926</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.144885548712821</v>
+        <v>6.210534188826636</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>23.49408141794433</v>
+        <v>24.73361401382244</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.3396139256281</v>
+        <v>4.915105422002859</v>
       </c>
       <c r="D2">
-        <v>2.112970873728286</v>
+        <v>7.073668100620615</v>
       </c>
       <c r="E2">
-        <v>11.48190621796918</v>
+        <v>9.840814524629687</v>
       </c>
       <c r="F2">
-        <v>29.14666048943256</v>
+        <v>21.13073738818391</v>
       </c>
       <c r="G2">
-        <v>43.78931612971411</v>
+        <v>22.71217660520516</v>
       </c>
       <c r="H2">
-        <v>11.77000713990267</v>
+        <v>1.727623318160866</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.27944150754653</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.960986422168004</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.74166427815055</v>
       </c>
       <c r="L2">
-        <v>5.99722522445192</v>
+        <v>6.451984270289089</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.85625662241935</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>22.90548782138463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.60750665503098</v>
+      </c>
+      <c r="P2">
+        <v>12.79934257484968</v>
+      </c>
+      <c r="Q2">
+        <v>14.67596033882429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.69496422940342</v>
+        <v>4.631123376599906</v>
       </c>
       <c r="D3">
-        <v>2.153938444378824</v>
+        <v>6.840394896676555</v>
       </c>
       <c r="E3">
-        <v>10.9525058819376</v>
+        <v>9.600847260567116</v>
       </c>
       <c r="F3">
-        <v>27.38153174917012</v>
+        <v>20.74773397242557</v>
       </c>
       <c r="G3">
-        <v>40.90605478556726</v>
+        <v>22.19097394762732</v>
       </c>
       <c r="H3">
-        <v>11.25992765445828</v>
+        <v>1.920546692300149</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.128140216569067</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.954418120448473</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.54165398062064</v>
       </c>
       <c r="L3">
-        <v>5.857945756131953</v>
+        <v>6.385716914292263</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.81857149587772</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>21.62275049050598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.84583123908532</v>
+      </c>
+      <c r="P3">
+        <v>12.81758316285628</v>
+      </c>
+      <c r="Q3">
+        <v>14.55844547426502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.29126382270344</v>
+        <v>4.441914095874382</v>
       </c>
       <c r="D4">
-        <v>2.178976764043717</v>
+        <v>6.694460955216297</v>
       </c>
       <c r="E4">
-        <v>10.62421540858484</v>
+        <v>9.450473450226255</v>
       </c>
       <c r="F4">
-        <v>26.2627098755122</v>
+        <v>20.51615033287072</v>
       </c>
       <c r="G4">
-        <v>39.06558531871718</v>
+        <v>21.8748289081235</v>
       </c>
       <c r="H4">
-        <v>10.94449726617827</v>
+        <v>2.043506090794854</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.031937403399209</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.953085123114796</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.42030085451163</v>
       </c>
       <c r="L4">
-        <v>5.775122766763759</v>
+        <v>6.344012543156148</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.14312535864187</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>20.81512455747081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.3558871700325</v>
+      </c>
+      <c r="P4">
+        <v>12.83150429631226</v>
+      </c>
+      <c r="Q4">
+        <v>14.49123793717492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.12495448297334</v>
+        <v>4.347325646963911</v>
       </c>
       <c r="D5">
-        <v>2.189167923066679</v>
+        <v>6.635772897478414</v>
       </c>
       <c r="E5">
-        <v>10.48978200847065</v>
+        <v>9.388981917659418</v>
       </c>
       <c r="F5">
-        <v>25.79832054831142</v>
+        <v>20.41731921868078</v>
       </c>
       <c r="G5">
-        <v>38.29822910821714</v>
+        <v>21.73672127352676</v>
       </c>
       <c r="H5">
-        <v>10.81555067173928</v>
+        <v>2.095000924478965</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.992142286691016</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.951600000666231</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.36437320232922</v>
       </c>
       <c r="L5">
-        <v>5.742064499057438</v>
+        <v>6.326627454456473</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.85562102063642</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>20.48129775150757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.14970021832439</v>
+      </c>
+      <c r="P5">
+        <v>12.83857486006893</v>
+      </c>
+      <c r="Q5">
+        <v>14.46092876130163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.09723646546876</v>
+        <v>4.31457627051882</v>
       </c>
       <c r="D6">
-        <v>2.19085989483654</v>
+        <v>6.627692604548457</v>
       </c>
       <c r="E6">
-        <v>10.46742527226345</v>
+        <v>9.379346121362721</v>
       </c>
       <c r="F6">
-        <v>25.72071029190899</v>
+        <v>20.3943115897039</v>
       </c>
       <c r="G6">
-        <v>38.16977341679321</v>
+        <v>21.70115612065795</v>
       </c>
       <c r="H6">
-        <v>10.79411968514272</v>
+        <v>2.103917181645617</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.985971909420464</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.949428445522544</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.34670070874482</v>
       </c>
       <c r="L6">
-        <v>5.736617477988172</v>
+        <v>6.323559830438231</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.80404692403579</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>20.4255923786987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.11380365673352</v>
+      </c>
+      <c r="P6">
+        <v>12.84068201015631</v>
+      </c>
+      <c r="Q6">
+        <v>14.45088925789736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.28902792619503</v>
+        <v>4.395620880319422</v>
       </c>
       <c r="D7">
-        <v>2.179114233302035</v>
+        <v>6.698261394554085</v>
       </c>
       <c r="E7">
-        <v>10.62240480151276</v>
+        <v>9.451324930577181</v>
       </c>
       <c r="F7">
-        <v>26.25648067819458</v>
+        <v>20.4967392382119</v>
       </c>
       <c r="G7">
-        <v>39.05530625365204</v>
+        <v>21.83851208039805</v>
       </c>
       <c r="H7">
-        <v>10.9427596677006</v>
+        <v>2.044993553582469</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.0324318231365</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.947704895876491</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.39666104794689</v>
       </c>
       <c r="L7">
-        <v>5.774674106537077</v>
+        <v>6.343334640412094</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.13058559511834</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>20.81064105099318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.34954486367149</v>
+      </c>
+      <c r="P7">
+        <v>12.83407895396552</v>
+      </c>
+      <c r="Q7">
+        <v>14.47698740566674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.11907345434638</v>
+        <v>4.764651342844481</v>
       </c>
       <c r="D8">
-        <v>2.127131212772255</v>
+        <v>6.999680625159408</v>
       </c>
       <c r="E8">
-        <v>11.30012931162215</v>
+        <v>9.760920928662909</v>
       </c>
       <c r="F8">
-        <v>28.54549008319196</v>
+        <v>20.97461273654782</v>
       </c>
       <c r="G8">
-        <v>42.80985387526121</v>
+        <v>22.48737837668445</v>
       </c>
       <c r="H8">
-        <v>11.59468349942799</v>
+        <v>1.79422475869008</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.228919438795423</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.951103198179613</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.64261517138928</v>
       </c>
       <c r="L8">
-        <v>5.948651200242811</v>
+        <v>6.428791274894197</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.49573200306979</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>22.4675238433598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.34513526349784</v>
+      </c>
+      <c r="P8">
+        <v>12.80852347247191</v>
+      </c>
+      <c r="Q8">
+        <v>14.61630522770662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.67811101826136</v>
+        <v>5.443197750463233</v>
       </c>
       <c r="D9">
-        <v>2.02342894180976</v>
+        <v>7.558637816299969</v>
       </c>
       <c r="E9">
-        <v>12.59779638852248</v>
+        <v>10.33912771669506</v>
       </c>
       <c r="F9">
-        <v>32.74620323208567</v>
+        <v>21.96783507466901</v>
       </c>
       <c r="G9">
-        <v>49.67479200215196</v>
+        <v>23.84417623993738</v>
       </c>
       <c r="H9">
-        <v>12.84969864858949</v>
+        <v>1.779450316973054</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.587629587636703</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.989369844586887</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.17493063690483</v>
       </c>
       <c r="L9">
-        <v>6.310601504760522</v>
+        <v>6.589016783416563</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.88188976784515</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>25.54764927553173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.12099382879292</v>
+      </c>
+      <c r="P9">
+        <v>12.77591109671792</v>
+      </c>
+      <c r="Q9">
+        <v>14.95360999561831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.77609121088891</v>
+        <v>5.86492238472688</v>
       </c>
       <c r="D10">
-        <v>1.944856503704817</v>
+        <v>7.876778229471129</v>
       </c>
       <c r="E10">
-        <v>13.52656546949811</v>
+        <v>10.59034358662266</v>
       </c>
       <c r="F10">
-        <v>35.85722390870175</v>
+        <v>22.57042934775189</v>
       </c>
       <c r="G10">
-        <v>54.41318920185713</v>
+        <v>24.69531914914434</v>
       </c>
       <c r="H10">
-        <v>13.75182966592633</v>
+        <v>2.078365242993971</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.833093610610804</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.005994004523213</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.50716028254658</v>
       </c>
       <c r="L10">
-        <v>6.58857436589558</v>
+        <v>6.646819510925141</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>20.42950647050414</v>
       </c>
       <c r="N10">
-        <v>30.48602834203862</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>27.89504581282089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.19270139273259</v>
+      </c>
+      <c r="P10">
+        <v>12.78590532542959</v>
+      </c>
+      <c r="Q10">
+        <v>15.16080992485113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.26480880001519</v>
+        <v>6.104368222587989</v>
       </c>
       <c r="D11">
-        <v>1.908262014324976</v>
+        <v>7.372213755876726</v>
       </c>
       <c r="E11">
-        <v>13.94315565402396</v>
+        <v>9.44467108550818</v>
       </c>
       <c r="F11">
-        <v>37.22351850053884</v>
+        <v>21.70297758366383</v>
       </c>
       <c r="G11">
-        <v>56.49191087603099</v>
+        <v>23.84203879486709</v>
       </c>
       <c r="H11">
-        <v>14.15724985807592</v>
+        <v>2.931915962773953</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.913266178280757</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.805475863266716</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.17342413484933</v>
       </c>
       <c r="L11">
-        <v>6.71759109185341</v>
+        <v>6.279539495787597</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.9492394891387</v>
       </c>
       <c r="N11">
-        <v>31.41016321374475</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>28.97261252421556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.66604179977855</v>
+      </c>
+      <c r="P11">
+        <v>12.96419329186717</v>
+      </c>
+      <c r="Q11">
+        <v>14.72858492510082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.448327527682</v>
+        <v>6.282275480198517</v>
       </c>
       <c r="D12">
-        <v>1.894250583145772</v>
+        <v>6.876765073048499</v>
       </c>
       <c r="E12">
-        <v>14.10004548419606</v>
+        <v>8.569034908715548</v>
       </c>
       <c r="F12">
-        <v>37.73374308522941</v>
+        <v>20.85404689107505</v>
       </c>
       <c r="G12">
-        <v>57.2683727315205</v>
+        <v>22.96991890086473</v>
       </c>
       <c r="H12">
-        <v>14.31003839329753</v>
+        <v>4.18166237076524</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.930384495511883</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.636626913346158</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.84707837613568</v>
       </c>
       <c r="L12">
-        <v>6.766816980318889</v>
+        <v>6.080002301817403</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.08399638676323</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.37489765719586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.9933610461968</v>
+      </c>
+      <c r="P12">
+        <v>13.11754897333034</v>
+      </c>
+      <c r="Q12">
+        <v>14.33067155820047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.40887202321347</v>
+        <v>6.374832868552895</v>
       </c>
       <c r="D13">
-        <v>1.897275581787726</v>
+        <v>6.358388299931253</v>
       </c>
       <c r="E13">
-        <v>14.06629479130718</v>
+        <v>7.892079604945855</v>
       </c>
       <c r="F13">
-        <v>37.62417164436901</v>
+        <v>19.93195900711841</v>
       </c>
       <c r="G13">
-        <v>57.10161764107156</v>
+        <v>21.96491268339237</v>
       </c>
       <c r="H13">
-        <v>14.27716540569054</v>
+        <v>5.502028908162971</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.902016641181932</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.473272857923062</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.46925139081397</v>
       </c>
       <c r="L13">
-        <v>6.75619875786503</v>
+        <v>6.005010222873165</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.92533956737156</v>
       </c>
       <c r="N13">
-        <v>31.67947945617571</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.28851125268358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.14434789200407</v>
+      </c>
+      <c r="P13">
+        <v>13.26088640588039</v>
+      </c>
+      <c r="Q13">
+        <v>13.91110997373085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.27993791709498</v>
+        <v>6.392170825691047</v>
       </c>
       <c r="D14">
-        <v>1.907112563430979</v>
+        <v>5.987033541828907</v>
       </c>
       <c r="E14">
-        <v>13.95608036624273</v>
+        <v>7.565459724703925</v>
       </c>
       <c r="F14">
-        <v>37.26563710219151</v>
+        <v>19.24712548136707</v>
       </c>
       <c r="G14">
-        <v>56.55600317996849</v>
+        <v>21.18642925196352</v>
       </c>
       <c r="H14">
-        <v>14.16983462641124</v>
+        <v>6.45005758637877</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.862210931627796</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.360508542462846</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.17436687046504</v>
       </c>
       <c r="L14">
-        <v>6.72163348909257</v>
+        <v>6.027900849312553</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.6774316752631</v>
       </c>
       <c r="N14">
-        <v>31.43851144188478</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.00582305771039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.45821330704833</v>
+      </c>
+      <c r="P14">
+        <v>13.35728867850974</v>
+      </c>
+      <c r="Q14">
+        <v>13.60411620470499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.20076095260593</v>
+        <v>6.363158575147547</v>
       </c>
       <c r="D15">
-        <v>1.913116959188328</v>
+        <v>5.892423868173482</v>
       </c>
       <c r="E15">
-        <v>13.88845842261561</v>
+        <v>7.508278928158228</v>
       </c>
       <c r="F15">
-        <v>37.0450989348722</v>
+        <v>19.06091378768582</v>
       </c>
       <c r="G15">
-        <v>56.22041587888265</v>
+        <v>20.95858890178754</v>
       </c>
       <c r="H15">
-        <v>14.1039954900611</v>
+        <v>6.673421193116229</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.843186475026999</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.33313255828042</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.08459370620465</v>
       </c>
       <c r="L15">
-        <v>6.70050960050132</v>
+        <v>6.042038632978705</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.55049999163523</v>
       </c>
       <c r="N15">
-        <v>31.28998244549474</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>28.83192397963218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.25119956596814</v>
+      </c>
+      <c r="P15">
+        <v>13.37828747843951</v>
+      </c>
+      <c r="Q15">
+        <v>13.521520743966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.74393509332482</v>
+        <v>6.156719934952867</v>
       </c>
       <c r="D16">
-        <v>1.947228301866504</v>
+        <v>5.846144294449397</v>
       </c>
       <c r="E16">
-        <v>13.49921955074597</v>
+        <v>7.521369593970584</v>
       </c>
       <c r="F16">
-        <v>35.76691835299005</v>
+        <v>18.95770695382368</v>
       </c>
       <c r="G16">
-        <v>54.27582160212803</v>
+        <v>20.73825093815256</v>
       </c>
       <c r="H16">
-        <v>13.72523216710988</v>
+        <v>6.456990018286741</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.745944881005624</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.354956539999856</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.99666823341259</v>
       </c>
       <c r="L16">
-        <v>6.580194396774121</v>
+        <v>6.025741768546499</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.93589469678676</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>27.82380580593459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.91958402684581</v>
+      </c>
+      <c r="P16">
+        <v>13.33519032610028</v>
+      </c>
+      <c r="Q16">
+        <v>13.5025743727322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.46092121650082</v>
+        <v>5.982693129552922</v>
       </c>
       <c r="D17">
-        <v>1.96791519664919</v>
+        <v>6.010526605318028</v>
       </c>
       <c r="E17">
-        <v>13.25890136659387</v>
+        <v>7.678813227624244</v>
       </c>
       <c r="F17">
-        <v>34.96979482894561</v>
+        <v>19.24805343804537</v>
       </c>
       <c r="G17">
-        <v>53.06342183428628</v>
+        <v>20.99406102123159</v>
       </c>
       <c r="H17">
-        <v>13.49157799023526</v>
+        <v>5.706705764938708</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.692318280097374</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.43188409611766</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.08815373450633</v>
       </c>
       <c r="L17">
-        <v>6.507040849120847</v>
+        <v>5.989811682447392</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.59184444400855</v>
       </c>
       <c r="N17">
-        <v>29.88120505119275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.19486456069215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.04325702630397</v>
+      </c>
+      <c r="P17">
+        <v>13.25243136564508</v>
+      </c>
+      <c r="Q17">
+        <v>13.65303319908349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.29712451220777</v>
+        <v>5.854116618508601</v>
       </c>
       <c r="D18">
-        <v>1.979735696092721</v>
+        <v>6.380842907277126</v>
       </c>
       <c r="E18">
-        <v>13.12011934081846</v>
+        <v>8.116251601878401</v>
       </c>
       <c r="F18">
-        <v>34.50646632894848</v>
+        <v>19.92014493223356</v>
       </c>
       <c r="G18">
-        <v>52.35882764310043</v>
+        <v>21.70693140122323</v>
       </c>
       <c r="H18">
-        <v>13.35671867957807</v>
+        <v>4.426610932285145</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.669720790275557</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.567522687278467</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.35905565466689</v>
       </c>
       <c r="L18">
-        <v>6.465205917264953</v>
+        <v>6.001715052034554</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.45733411246327</v>
       </c>
       <c r="N18">
-        <v>29.56404287680427</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>26.82919622028642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.57766163969632</v>
+      </c>
+      <c r="P18">
+        <v>13.12656636883937</v>
+      </c>
+      <c r="Q18">
+        <v>13.97329625043358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.24149202999595</v>
+        <v>5.707480072100498</v>
       </c>
       <c r="D19">
-        <v>1.983725406288473</v>
+        <v>6.904918594124785</v>
       </c>
       <c r="E19">
-        <v>13.07303528074362</v>
+        <v>8.91461931596565</v>
       </c>
       <c r="F19">
-        <v>34.34875356006621</v>
+        <v>20.81821627332929</v>
       </c>
       <c r="G19">
-        <v>52.11900926364265</v>
+        <v>22.66780114595295</v>
       </c>
       <c r="H19">
-        <v>13.31097841682231</v>
+        <v>3.027239948340942</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.680289801366427</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.730941177436032</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.71254996593656</v>
       </c>
       <c r="L19">
-        <v>6.451082796652862</v>
+        <v>6.149580535818935</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.49090191678843</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>26.70470884515774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.38660399796972</v>
+      </c>
+      <c r="P19">
+        <v>12.98614371744525</v>
+      </c>
+      <c r="Q19">
+        <v>14.38140115610111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.49115363815537</v>
+        <v>5.648356611372464</v>
       </c>
       <c r="D20">
-        <v>1.965721335755806</v>
+        <v>7.803194650315366</v>
       </c>
       <c r="E20">
-        <v>13.28454152098953</v>
+        <v>10.52290101993757</v>
       </c>
       <c r="F20">
-        <v>35.05514994340773</v>
+        <v>22.35425834817706</v>
       </c>
       <c r="G20">
-        <v>53.19323240932666</v>
+        <v>24.36862763779729</v>
       </c>
       <c r="H20">
-        <v>13.51649951312885</v>
+        <v>1.997143616311579</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.774196421467797</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.983315916902521</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.35064319823468</v>
       </c>
       <c r="L20">
-        <v>6.514803232943972</v>
+        <v>6.628221121409708</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>20.01348933338224</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.2622206054883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.90418091802805</v>
+      </c>
+      <c r="P20">
+        <v>12.79195270257737</v>
+      </c>
+      <c r="Q20">
+        <v>15.061048805644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.31785085761548</v>
+        <v>5.958195810921964</v>
       </c>
       <c r="D21">
-        <v>1.904227649681136</v>
+        <v>8.156190585031888</v>
       </c>
       <c r="E21">
-        <v>13.98847642910958</v>
+        <v>10.9510278361299</v>
       </c>
       <c r="F21">
-        <v>37.37113978802022</v>
+        <v>23.0310058404448</v>
       </c>
       <c r="G21">
-        <v>56.71655080787112</v>
+        <v>25.25960546182382</v>
       </c>
       <c r="H21">
-        <v>14.2013802712163</v>
+        <v>2.236466842669415</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.962970358507524</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.040465791730874</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.70233279789837</v>
       </c>
       <c r="L21">
-        <v>6.731776061715291</v>
+        <v>6.756338243062246</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>21.1724601545817</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.08901015906276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.86922971453402</v>
+      </c>
+      <c r="P21">
+        <v>12.77510725254145</v>
+      </c>
+      <c r="Q21">
+        <v>15.32831364614634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.84914342333551</v>
+        <v>6.19666430136788</v>
       </c>
       <c r="D22">
-        <v>1.863123518527098</v>
+        <v>8.338673600502515</v>
       </c>
       <c r="E22">
-        <v>14.44351709642495</v>
+        <v>11.14465145342882</v>
       </c>
       <c r="F22">
-        <v>38.84316599288133</v>
+        <v>23.42806825104665</v>
       </c>
       <c r="G22">
-        <v>58.95706060437493</v>
+        <v>25.80838334246782</v>
       </c>
       <c r="H22">
-        <v>14.68421330404487</v>
+        <v>2.384694218352212</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.08002028536472</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.075544080381146</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.93240284249354</v>
       </c>
       <c r="L22">
-        <v>6.875742737983247</v>
+        <v>6.811508875547364</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.89613319430968</v>
       </c>
       <c r="N22">
-        <v>32.49403281050592</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>30.24943251787874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.42191344547471</v>
+      </c>
+      <c r="P22">
+        <v>12.77226880900901</v>
+      </c>
+      <c r="Q22">
+        <v>15.4941321830692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.56639863725978</v>
+        <v>6.110255760005115</v>
       </c>
       <c r="D23">
-        <v>1.885156654599595</v>
+        <v>8.237147950728989</v>
       </c>
       <c r="E23">
-        <v>14.20111004913614</v>
+        <v>11.03984815200019</v>
       </c>
       <c r="F23">
-        <v>38.06124082861938</v>
+        <v>23.2350290787577</v>
       </c>
       <c r="G23">
-        <v>57.76681540859692</v>
+        <v>25.5507611976691</v>
       </c>
       <c r="H23">
-        <v>14.40848930494565</v>
+        <v>2.306656242877597</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.015886452169485</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.062684300110776</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.83430338782012</v>
       </c>
       <c r="L23">
-        <v>6.798705024089767</v>
+        <v>6.782560404088281</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.52057973554494</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>29.6330825340694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.1322413996198</v>
+      </c>
+      <c r="P23">
+        <v>12.77000416945905</v>
+      </c>
+      <c r="Q23">
+        <v>15.42048460930855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.47748894955827</v>
+        <v>5.696937575475624</v>
       </c>
       <c r="D24">
-        <v>1.966713404296452</v>
+        <v>7.851238672146573</v>
       </c>
       <c r="E24">
-        <v>13.27295153664237</v>
+        <v>10.63795830674984</v>
       </c>
       <c r="F24">
-        <v>35.0165766462833</v>
+        <v>22.4759908508593</v>
       </c>
       <c r="G24">
-        <v>53.13456865003465</v>
+        <v>24.52011627779547</v>
       </c>
       <c r="H24">
-        <v>13.50523413654641</v>
+        <v>2.003142937302888</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.770665043931666</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.010338560343168</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.42504790869272</v>
       </c>
       <c r="L24">
-        <v>6.511293167676888</v>
+        <v>6.670488097942993</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>20.01903313028426</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.23178166556916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.98541418974387</v>
+      </c>
+      <c r="P24">
+        <v>12.77287002903562</v>
+      </c>
+      <c r="Q24">
+        <v>15.12728778257251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.26441002226765</v>
+        <v>5.203018195133171</v>
       </c>
       <c r="D25">
-        <v>2.051798577092286</v>
+        <v>7.417965086197478</v>
       </c>
       <c r="E25">
-        <v>12.25077551460987</v>
+        <v>10.1886639018189</v>
       </c>
       <c r="F25">
-        <v>31.64167568045771</v>
+        <v>21.66617729894963</v>
       </c>
       <c r="G25">
-        <v>47.85993038752186</v>
+        <v>23.41716515093675</v>
       </c>
       <c r="H25">
-        <v>12.51337227027926</v>
+        <v>1.660866222634618</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.495395295669707</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.967010353860669</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.99041930469501</v>
       </c>
       <c r="L25">
-        <v>6.210534188826636</v>
+        <v>6.545836046521061</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>18.25579908533114</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>24.73361401382244</v>
+        <v>15.65517534691799</v>
+      </c>
+      <c r="P25">
+        <v>12.78727550633332</v>
+      </c>
+      <c r="Q25">
+        <v>14.83377956502899</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915105422002859</v>
+        <v>3.686653782519765</v>
       </c>
       <c r="D2">
-        <v>7.073668100620615</v>
+        <v>7.194238454084346</v>
       </c>
       <c r="E2">
-        <v>9.840814524629687</v>
+        <v>9.888389941448656</v>
       </c>
       <c r="F2">
-        <v>21.13073738818391</v>
+        <v>20.65616625197454</v>
       </c>
       <c r="G2">
-        <v>22.71217660520516</v>
+        <v>21.19264024527664</v>
       </c>
       <c r="H2">
-        <v>1.727623318160866</v>
+        <v>1.745961177475942</v>
       </c>
       <c r="I2">
-        <v>3.27944150754653</v>
+        <v>3.27538899100091</v>
       </c>
       <c r="J2">
-        <v>8.960986422168004</v>
+        <v>9.270629371609896</v>
       </c>
       <c r="K2">
-        <v>14.74166427815055</v>
+        <v>14.08235975608848</v>
       </c>
       <c r="L2">
-        <v>6.451984270289089</v>
+        <v>12.61729852973565</v>
       </c>
       <c r="M2">
-        <v>16.85625662241935</v>
+        <v>8.402131374019184</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.441978590200834</v>
       </c>
       <c r="O2">
-        <v>14.60750665503098</v>
+        <v>16.64372581625688</v>
       </c>
       <c r="P2">
-        <v>12.79934257484968</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.67596033882429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.51775328061982</v>
+      </c>
+      <c r="R2">
+        <v>12.8714985247891</v>
+      </c>
+      <c r="S2">
+        <v>14.30844979190076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.631123376599906</v>
+        <v>3.521532423065383</v>
       </c>
       <c r="D3">
-        <v>6.840394896676555</v>
+        <v>6.94941689366193</v>
       </c>
       <c r="E3">
-        <v>9.600847260567116</v>
+        <v>9.650039171806334</v>
       </c>
       <c r="F3">
-        <v>20.74773397242557</v>
+        <v>20.33269493036562</v>
       </c>
       <c r="G3">
-        <v>22.19097394762732</v>
+        <v>20.79459966205926</v>
       </c>
       <c r="H3">
-        <v>1.920546692300149</v>
+        <v>1.929333668883012</v>
       </c>
       <c r="I3">
-        <v>3.128140216569067</v>
+        <v>3.144107141697084</v>
       </c>
       <c r="J3">
-        <v>8.954418120448473</v>
+        <v>9.25141916214813</v>
       </c>
       <c r="K3">
-        <v>14.54165398062064</v>
+        <v>13.95250234560481</v>
       </c>
       <c r="L3">
-        <v>6.385716914292263</v>
+        <v>12.67959506173567</v>
       </c>
       <c r="M3">
-        <v>15.81857149587772</v>
+        <v>8.108085606522691</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.381085691457113</v>
       </c>
       <c r="O3">
-        <v>13.84583123908532</v>
+        <v>15.64013055169425</v>
       </c>
       <c r="P3">
-        <v>12.81758316285628</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.55844547426502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.76723648724547</v>
+      </c>
+      <c r="R3">
+        <v>12.8691159739517</v>
+      </c>
+      <c r="S3">
+        <v>14.23403399967718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.441914095874382</v>
+        <v>3.409328408948139</v>
       </c>
       <c r="D4">
-        <v>6.694460955216297</v>
+        <v>6.796460997877875</v>
       </c>
       <c r="E4">
-        <v>9.450473450226255</v>
+        <v>9.501018204072196</v>
       </c>
       <c r="F4">
-        <v>20.51615033287072</v>
+        <v>20.13722757319108</v>
       </c>
       <c r="G4">
-        <v>21.8748289081235</v>
+        <v>20.55670006955013</v>
       </c>
       <c r="H4">
-        <v>2.043506090794854</v>
+        <v>2.046261744881412</v>
       </c>
       <c r="I4">
-        <v>3.031937403399209</v>
+        <v>3.060723979303999</v>
       </c>
       <c r="J4">
-        <v>8.953085123114796</v>
+        <v>9.240562954400572</v>
       </c>
       <c r="K4">
-        <v>14.42030085451163</v>
+        <v>13.87329251304552</v>
       </c>
       <c r="L4">
-        <v>6.344012543156148</v>
+        <v>12.7164975050554</v>
       </c>
       <c r="M4">
-        <v>15.14312535864187</v>
+        <v>7.944913274282923</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.342818355238217</v>
       </c>
       <c r="O4">
-        <v>13.3558871700325</v>
+        <v>14.9869261467771</v>
       </c>
       <c r="P4">
-        <v>12.83150429631226</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.49123793717492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.28428763173399</v>
+      </c>
+      <c r="R4">
+        <v>12.87057900959227</v>
+      </c>
+      <c r="S4">
+        <v>14.19240170129117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.347325646963911</v>
+        <v>3.34756377145966</v>
       </c>
       <c r="D5">
-        <v>6.635772897478414</v>
+        <v>6.734948815922672</v>
       </c>
       <c r="E5">
-        <v>9.388981917659418</v>
+        <v>9.440189723239477</v>
       </c>
       <c r="F5">
-        <v>20.41731921868078</v>
+        <v>20.05310252254371</v>
       </c>
       <c r="G5">
-        <v>21.73672127352676</v>
+        <v>20.45120258817296</v>
       </c>
       <c r="H5">
-        <v>2.095000924478965</v>
+        <v>2.095239563360568</v>
       </c>
       <c r="I5">
-        <v>2.992142286691016</v>
+        <v>3.026544759220145</v>
       </c>
       <c r="J5">
-        <v>8.951600000666231</v>
+        <v>9.234796638901004</v>
       </c>
       <c r="K5">
-        <v>14.36437320232922</v>
+        <v>13.83459846669968</v>
       </c>
       <c r="L5">
-        <v>6.326627454456473</v>
+        <v>12.72574642480835</v>
       </c>
       <c r="M5">
-        <v>14.85562102063642</v>
+        <v>7.878645725275113</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.32687770816263</v>
       </c>
       <c r="O5">
-        <v>13.14970021832439</v>
+        <v>14.70886956664511</v>
       </c>
       <c r="P5">
-        <v>12.83857486006893</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.46092876130163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.08099479124714</v>
+      </c>
+      <c r="R5">
+        <v>12.87264902634654</v>
+      </c>
+      <c r="S5">
+        <v>14.17242610411249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.31457627051882</v>
+        <v>3.320927199752901</v>
       </c>
       <c r="D6">
-        <v>6.627692604548457</v>
+        <v>6.726412723671614</v>
       </c>
       <c r="E6">
-        <v>9.379346121362721</v>
+        <v>9.430690862817926</v>
       </c>
       <c r="F6">
-        <v>20.3943115897039</v>
+        <v>20.03268436025126</v>
       </c>
       <c r="G6">
-        <v>21.70115612065795</v>
+        <v>20.42126943337625</v>
       </c>
       <c r="H6">
-        <v>2.103917181645617</v>
+        <v>2.103715735633591</v>
       </c>
       <c r="I6">
-        <v>2.985971909420464</v>
+        <v>3.021666163271168</v>
       </c>
       <c r="J6">
-        <v>8.949428445522544</v>
+        <v>9.231926533512778</v>
       </c>
       <c r="K6">
-        <v>14.34670070874482</v>
+        <v>13.82016538499614</v>
       </c>
       <c r="L6">
-        <v>6.323559830438231</v>
+        <v>12.72061279524203</v>
       </c>
       <c r="M6">
-        <v>14.80404692403579</v>
+        <v>7.862339694720863</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.324063424206047</v>
       </c>
       <c r="O6">
-        <v>13.11380365673352</v>
+        <v>14.65894423774465</v>
       </c>
       <c r="P6">
-        <v>12.84068201015631</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.45088925789736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.04559493804825</v>
+      </c>
+      <c r="R6">
+        <v>12.87395755641837</v>
+      </c>
+      <c r="S6">
+        <v>14.16426528304447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.395620880319422</v>
+        <v>3.369227136428781</v>
       </c>
       <c r="D7">
-        <v>6.698261394554085</v>
+        <v>6.803067059959169</v>
       </c>
       <c r="E7">
-        <v>9.451324930577181</v>
+        <v>9.502985029644705</v>
       </c>
       <c r="F7">
-        <v>20.4967392382119</v>
+        <v>20.10772094427229</v>
       </c>
       <c r="G7">
-        <v>21.83851208039805</v>
+        <v>20.60712583831586</v>
       </c>
       <c r="H7">
-        <v>2.044993553582469</v>
+        <v>2.048123973026982</v>
       </c>
       <c r="I7">
-        <v>3.0324318231365</v>
+        <v>3.061715476427267</v>
       </c>
       <c r="J7">
-        <v>8.947704895876491</v>
+        <v>9.200260883873613</v>
       </c>
       <c r="K7">
-        <v>14.39666104794689</v>
+        <v>13.8440886217162</v>
       </c>
       <c r="L7">
-        <v>6.343334640412094</v>
+        <v>12.69326382315834</v>
       </c>
       <c r="M7">
-        <v>15.13058559511834</v>
+        <v>7.923327250690305</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.341934253579559</v>
       </c>
       <c r="O7">
-        <v>13.34954486367149</v>
+        <v>14.96945239158906</v>
       </c>
       <c r="P7">
-        <v>12.83407895396552</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.47698740566674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.27586313198025</v>
+      </c>
+      <c r="R7">
+        <v>12.87474006978997</v>
+      </c>
+      <c r="S7">
+        <v>14.17068676049886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.764651342844481</v>
+        <v>3.591381035616923</v>
       </c>
       <c r="D8">
-        <v>6.999680625159408</v>
+        <v>7.125339770123372</v>
       </c>
       <c r="E8">
-        <v>9.760920928662909</v>
+        <v>9.812558073881402</v>
       </c>
       <c r="F8">
-        <v>20.97461273654782</v>
+        <v>20.48636128142519</v>
       </c>
       <c r="G8">
-        <v>22.48737837668445</v>
+        <v>21.29001640460917</v>
       </c>
       <c r="H8">
-        <v>1.79422475869008</v>
+        <v>1.810657390311728</v>
       </c>
       <c r="I8">
-        <v>3.228919438795423</v>
+        <v>3.231306064321328</v>
       </c>
       <c r="J8">
-        <v>8.951103198179613</v>
+        <v>9.142874797071558</v>
       </c>
       <c r="K8">
-        <v>14.64261517138928</v>
+        <v>13.98674138370488</v>
       </c>
       <c r="L8">
-        <v>6.428791274894197</v>
+        <v>12.6000349402662</v>
       </c>
       <c r="M8">
-        <v>16.49573200306979</v>
+        <v>8.257807977646783</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.419870190985688</v>
       </c>
       <c r="O8">
-        <v>14.34513526349784</v>
+        <v>16.27880361015866</v>
       </c>
       <c r="P8">
-        <v>12.80852347247191</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.61630522770662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.25250395178293</v>
+      </c>
+      <c r="R8">
+        <v>12.87915314542898</v>
+      </c>
+      <c r="S8">
+        <v>14.23791855614368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.443197750463233</v>
+        <v>3.996742635060722</v>
       </c>
       <c r="D9">
-        <v>7.558637816299969</v>
+        <v>7.714799584157661</v>
       </c>
       <c r="E9">
-        <v>10.33912771669506</v>
+        <v>10.38938637074604</v>
       </c>
       <c r="F9">
-        <v>21.96783507466901</v>
+        <v>21.32153546683852</v>
       </c>
       <c r="G9">
-        <v>23.84417623993738</v>
+        <v>22.41749223285245</v>
       </c>
       <c r="H9">
-        <v>1.779450316973054</v>
+        <v>1.740729151154908</v>
       </c>
       <c r="I9">
-        <v>3.587629587636703</v>
+        <v>3.541681876362219</v>
       </c>
       <c r="J9">
-        <v>8.989369844586887</v>
+        <v>9.171871111806926</v>
       </c>
       <c r="K9">
-        <v>15.17493063690483</v>
+        <v>14.33344666941856</v>
       </c>
       <c r="L9">
-        <v>6.589016783416563</v>
+        <v>12.4557676190458</v>
       </c>
       <c r="M9">
-        <v>18.88188976784515</v>
+        <v>9.081768136031542</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.5673068780617</v>
       </c>
       <c r="O9">
-        <v>16.12099382879292</v>
+        <v>18.58459576506634</v>
       </c>
       <c r="P9">
-        <v>12.77591109671792</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.95360999561831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.0003761567624</v>
+      </c>
+      <c r="R9">
+        <v>12.90096370151094</v>
+      </c>
+      <c r="S9">
+        <v>14.45598536569437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.86492238472688</v>
+        <v>4.265716070674317</v>
       </c>
       <c r="D10">
-        <v>7.876778229471129</v>
+        <v>8.067211183155488</v>
       </c>
       <c r="E10">
-        <v>10.59034358662266</v>
+        <v>10.64456122978073</v>
       </c>
       <c r="F10">
-        <v>22.57042934775189</v>
+        <v>21.75826727742844</v>
       </c>
       <c r="G10">
-        <v>24.69531914914434</v>
+        <v>23.58018931907218</v>
       </c>
       <c r="H10">
-        <v>2.078365242993971</v>
+        <v>2.022237397984646</v>
       </c>
       <c r="I10">
-        <v>3.833093610610804</v>
+        <v>3.752920928724575</v>
       </c>
       <c r="J10">
-        <v>9.005994004523213</v>
+        <v>8.985741477831787</v>
       </c>
       <c r="K10">
-        <v>15.50716028254658</v>
+        <v>14.49809860242515</v>
       </c>
       <c r="L10">
-        <v>6.646819510925141</v>
+        <v>12.28135571697737</v>
       </c>
       <c r="M10">
-        <v>20.42950647050414</v>
+        <v>9.655798081282379</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.615290951605068</v>
       </c>
       <c r="O10">
-        <v>17.19270139273259</v>
+        <v>20.05752220348319</v>
       </c>
       <c r="P10">
-        <v>12.78590532542959</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.16080992485113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.04333565930945</v>
+      </c>
+      <c r="R10">
+        <v>12.96283455842163</v>
+      </c>
+      <c r="S10">
+        <v>14.53291607622665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.104368222587989</v>
+        <v>4.533792165779678</v>
       </c>
       <c r="D11">
-        <v>7.372213755876726</v>
+        <v>7.583851858272815</v>
       </c>
       <c r="E11">
-        <v>9.44467108550818</v>
+        <v>9.483932310175328</v>
       </c>
       <c r="F11">
-        <v>21.70297758366383</v>
+        <v>20.77952560780989</v>
       </c>
       <c r="G11">
-        <v>23.84203879486709</v>
+        <v>23.71794034001065</v>
       </c>
       <c r="H11">
-        <v>2.931915962773953</v>
+        <v>2.886882421606482</v>
       </c>
       <c r="I11">
-        <v>3.913266178280757</v>
+        <v>3.820621155213514</v>
       </c>
       <c r="J11">
-        <v>8.805475863266716</v>
+        <v>8.446570509993091</v>
       </c>
       <c r="K11">
-        <v>15.17342413484933</v>
+        <v>14.09352586703501</v>
       </c>
       <c r="L11">
-        <v>6.279539495787597</v>
+        <v>11.88435042845494</v>
       </c>
       <c r="M11">
-        <v>20.9492394891387</v>
+        <v>9.50749139355351</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.24205552487923</v>
       </c>
       <c r="O11">
-        <v>16.66604179977855</v>
+        <v>20.52070120818201</v>
       </c>
       <c r="P11">
-        <v>12.96419329186717</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.72858492510082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.49526564043039</v>
+      </c>
+      <c r="R11">
+        <v>13.18757892518797</v>
+      </c>
+      <c r="S11">
+        <v>14.01386077983174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.282275480198517</v>
+        <v>4.75573144374519</v>
       </c>
       <c r="D12">
-        <v>6.876765073048499</v>
+        <v>7.087717033359187</v>
       </c>
       <c r="E12">
-        <v>8.569034908715548</v>
+        <v>8.582349083063015</v>
       </c>
       <c r="F12">
-        <v>20.85404689107505</v>
+        <v>19.90991607940877</v>
       </c>
       <c r="G12">
-        <v>22.96991890086473</v>
+        <v>23.33521413652884</v>
       </c>
       <c r="H12">
-        <v>4.18166237076524</v>
+        <v>4.149676047237155</v>
       </c>
       <c r="I12">
-        <v>3.930384495511883</v>
+        <v>3.833662709504456</v>
       </c>
       <c r="J12">
-        <v>8.636626913346158</v>
+        <v>8.173516734013912</v>
       </c>
       <c r="K12">
-        <v>14.84707837613568</v>
+        <v>13.76619089417274</v>
       </c>
       <c r="L12">
-        <v>6.080002301817403</v>
+        <v>11.6250103404624</v>
       </c>
       <c r="M12">
-        <v>21.08399638676323</v>
+        <v>9.297582826813823</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.040557454604477</v>
       </c>
       <c r="O12">
-        <v>15.9933610461968</v>
+        <v>20.63692906741445</v>
       </c>
       <c r="P12">
-        <v>13.11754897333034</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.33067155820047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.81680271356793</v>
+      </c>
+      <c r="R12">
+        <v>13.36268605960692</v>
+      </c>
+      <c r="S12">
+        <v>13.6002446515236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.374832868552895</v>
+        <v>4.904062148229659</v>
       </c>
       <c r="D13">
-        <v>6.358388299931253</v>
+        <v>6.546120948172393</v>
       </c>
       <c r="E13">
-        <v>7.892079604945855</v>
+        <v>7.870948076005376</v>
       </c>
       <c r="F13">
-        <v>19.93195900711841</v>
+        <v>19.05976582266114</v>
       </c>
       <c r="G13">
-        <v>21.96491268339237</v>
+        <v>22.26111962300945</v>
       </c>
       <c r="H13">
-        <v>5.502028908162971</v>
+        <v>5.479492315131799</v>
       </c>
       <c r="I13">
-        <v>3.902016641181932</v>
+        <v>3.80959974513483</v>
       </c>
       <c r="J13">
-        <v>8.473272857923062</v>
+        <v>8.103702016731688</v>
       </c>
       <c r="K13">
-        <v>14.46925139081397</v>
+        <v>13.45903340062941</v>
       </c>
       <c r="L13">
-        <v>6.005010222873165</v>
+        <v>11.43641493143913</v>
       </c>
       <c r="M13">
-        <v>20.92533956737156</v>
+        <v>9.011329880708347</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.967274259365403</v>
       </c>
       <c r="O13">
-        <v>15.14434789200407</v>
+        <v>20.49775336628127</v>
       </c>
       <c r="P13">
-        <v>13.26088640588039</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.91110997373085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.97785008200708</v>
+      </c>
+      <c r="R13">
+        <v>13.50275561170273</v>
+      </c>
+      <c r="S13">
+        <v>13.23799141316163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.392170825691047</v>
+        <v>4.967662873832541</v>
       </c>
       <c r="D14">
-        <v>5.987033541828907</v>
+        <v>6.14880776635429</v>
       </c>
       <c r="E14">
-        <v>7.565459724703925</v>
+        <v>7.519809333259951</v>
       </c>
       <c r="F14">
-        <v>19.24712548136707</v>
+        <v>18.46530633724275</v>
       </c>
       <c r="G14">
-        <v>21.18642925196352</v>
+        <v>21.19300449394409</v>
       </c>
       <c r="H14">
-        <v>6.45005758637877</v>
+        <v>6.446600090964385</v>
       </c>
       <c r="I14">
-        <v>3.862210931627796</v>
+        <v>3.776878263764615</v>
       </c>
       <c r="J14">
-        <v>8.360508542462846</v>
+        <v>8.131780695192562</v>
       </c>
       <c r="K14">
-        <v>14.17436687046504</v>
+        <v>13.24523003231592</v>
       </c>
       <c r="L14">
-        <v>6.027900849312553</v>
+        <v>11.32909842473591</v>
       </c>
       <c r="M14">
-        <v>20.6774316752631</v>
+        <v>8.769943020925838</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.993086524563306</v>
       </c>
       <c r="O14">
-        <v>14.45821330704833</v>
+        <v>20.28058818644376</v>
       </c>
       <c r="P14">
-        <v>13.35728867850974</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.60411620470499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.30576281210944</v>
+      </c>
+      <c r="R14">
+        <v>13.58511829854883</v>
+      </c>
+      <c r="S14">
+        <v>13.00219236911879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.363158575147547</v>
+        <v>4.953553208862679</v>
       </c>
       <c r="D15">
-        <v>5.892423868173482</v>
+        <v>6.044285062473783</v>
       </c>
       <c r="E15">
-        <v>7.508278928158228</v>
+        <v>7.457761554508734</v>
       </c>
       <c r="F15">
-        <v>19.06091378768582</v>
+        <v>18.31797196949575</v>
       </c>
       <c r="G15">
-        <v>20.95858890178754</v>
+        <v>20.7934133063388</v>
       </c>
       <c r="H15">
-        <v>6.673421193116229</v>
+        <v>6.68476547497871</v>
       </c>
       <c r="I15">
-        <v>3.843186475026999</v>
+        <v>3.761840867726118</v>
       </c>
       <c r="J15">
-        <v>8.33313255828042</v>
+        <v>8.171665875069955</v>
       </c>
       <c r="K15">
-        <v>14.08459370620465</v>
+        <v>13.18912804377588</v>
       </c>
       <c r="L15">
-        <v>6.042038632978705</v>
+        <v>11.31102328444658</v>
       </c>
       <c r="M15">
-        <v>20.55049999163523</v>
+        <v>8.688365233167382</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.008595538995596</v>
       </c>
       <c r="O15">
-        <v>14.25119956596814</v>
+        <v>20.16869800171844</v>
       </c>
       <c r="P15">
-        <v>13.37828747843951</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.521520743966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.10519835948928</v>
+      </c>
+      <c r="R15">
+        <v>13.59764347491193</v>
+      </c>
+      <c r="S15">
+        <v>12.95019579450289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.156719934952867</v>
+        <v>4.77730065172896</v>
       </c>
       <c r="D16">
-        <v>5.846144294449397</v>
+        <v>5.969112972316814</v>
       </c>
       <c r="E16">
-        <v>7.521369593970584</v>
+        <v>7.479492056891475</v>
       </c>
       <c r="F16">
-        <v>18.95770695382368</v>
+        <v>18.35436785318393</v>
       </c>
       <c r="G16">
-        <v>20.73825093815256</v>
+        <v>19.75498023797856</v>
       </c>
       <c r="H16">
-        <v>6.456990018286741</v>
+        <v>6.467619303837736</v>
       </c>
       <c r="I16">
-        <v>3.745944881005624</v>
+        <v>3.682001999615076</v>
       </c>
       <c r="J16">
-        <v>8.354956539999856</v>
+        <v>8.481450463515843</v>
       </c>
       <c r="K16">
-        <v>13.99666823341259</v>
+        <v>13.21544370773914</v>
       </c>
       <c r="L16">
-        <v>6.025741768546499</v>
+        <v>11.43091816742653</v>
       </c>
       <c r="M16">
-        <v>19.93589469678676</v>
+        <v>8.53125680998561</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.997878359430744</v>
       </c>
       <c r="O16">
-        <v>13.91958402684581</v>
+        <v>19.61850015716623</v>
       </c>
       <c r="P16">
-        <v>13.33519032610028</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.5025743727322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.79910679577069</v>
+      </c>
+      <c r="R16">
+        <v>13.51164865461272</v>
+      </c>
+      <c r="S16">
+        <v>13.04054592880679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.982693129552922</v>
+        <v>4.606024087921696</v>
       </c>
       <c r="D17">
-        <v>6.010526605318028</v>
+        <v>6.127726157027325</v>
       </c>
       <c r="E17">
-        <v>7.678813227624244</v>
+        <v>7.652712314057232</v>
       </c>
       <c r="F17">
-        <v>19.24805343804537</v>
+        <v>18.69058549011747</v>
       </c>
       <c r="G17">
-        <v>20.99406102123159</v>
+        <v>19.65894580490193</v>
       </c>
       <c r="H17">
-        <v>5.706705764938708</v>
+        <v>5.717999300884696</v>
       </c>
       <c r="I17">
-        <v>3.692318280097374</v>
+        <v>3.637569174303133</v>
       </c>
       <c r="J17">
-        <v>8.43188409611766</v>
+        <v>8.680499172614905</v>
       </c>
       <c r="K17">
-        <v>14.08815373450633</v>
+        <v>13.34207262947514</v>
       </c>
       <c r="L17">
-        <v>5.989811682447392</v>
+        <v>11.57888576581413</v>
       </c>
       <c r="M17">
-        <v>19.59184444400855</v>
+        <v>8.533091368500346</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.96448782634659</v>
       </c>
       <c r="O17">
-        <v>14.04325702630397</v>
+        <v>19.30119198948286</v>
       </c>
       <c r="P17">
-        <v>13.25243136564508</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.65303319908349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.93229678423883</v>
+      </c>
+      <c r="R17">
+        <v>13.40808096697525</v>
+      </c>
+      <c r="S17">
+        <v>13.22679659838913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.854116618508601</v>
+        <v>4.448364044437724</v>
       </c>
       <c r="D18">
-        <v>6.380842907277126</v>
+        <v>6.505237964649647</v>
       </c>
       <c r="E18">
-        <v>8.116251601878401</v>
+        <v>8.111790305838653</v>
       </c>
       <c r="F18">
-        <v>19.92014493223356</v>
+        <v>19.35509363145423</v>
       </c>
       <c r="G18">
-        <v>21.70693140122323</v>
+        <v>20.19764110421905</v>
       </c>
       <c r="H18">
-        <v>4.426610932285145</v>
+        <v>4.440660919953955</v>
       </c>
       <c r="I18">
-        <v>3.669720790275557</v>
+        <v>3.617438963387348</v>
       </c>
       <c r="J18">
-        <v>8.567522687278467</v>
+        <v>8.856910628680307</v>
       </c>
       <c r="K18">
-        <v>14.35905565466689</v>
+        <v>13.59796475958883</v>
       </c>
       <c r="L18">
-        <v>6.001715052034554</v>
+        <v>11.7895443947206</v>
       </c>
       <c r="M18">
-        <v>19.45733411246327</v>
+        <v>8.692517843128256</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.977106972105465</v>
       </c>
       <c r="O18">
-        <v>14.57766163969632</v>
+        <v>19.17198430632246</v>
       </c>
       <c r="P18">
-        <v>13.12656636883937</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.97329625043358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.4671822545061</v>
+      </c>
+      <c r="R18">
+        <v>13.27236447597938</v>
+      </c>
+      <c r="S18">
+        <v>13.54103547289241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.707480072100498</v>
+        <v>4.252721013453908</v>
       </c>
       <c r="D19">
-        <v>6.904918594124785</v>
+        <v>7.043542598786459</v>
       </c>
       <c r="E19">
-        <v>8.91461931596565</v>
+        <v>8.933423889943889</v>
       </c>
       <c r="F19">
-        <v>20.81821627332929</v>
+        <v>20.21371980926078</v>
       </c>
       <c r="G19">
-        <v>22.66780114595295</v>
+        <v>21.0679063673545</v>
       </c>
       <c r="H19">
-        <v>3.027239948340942</v>
+        <v>3.002907319909232</v>
       </c>
       <c r="I19">
-        <v>3.680289801366427</v>
+        <v>3.627242423126722</v>
       </c>
       <c r="J19">
-        <v>8.730941177436032</v>
+        <v>9.016813389834727</v>
       </c>
       <c r="K19">
-        <v>14.71254996593656</v>
+        <v>13.90612183409593</v>
       </c>
       <c r="L19">
-        <v>6.149580535818935</v>
+        <v>12.01355451543101</v>
       </c>
       <c r="M19">
-        <v>19.49090191678843</v>
+        <v>8.936106194826767</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.124651206806949</v>
       </c>
       <c r="O19">
-        <v>15.38660399796972</v>
+        <v>19.1971521652068</v>
       </c>
       <c r="P19">
-        <v>12.98614371744525</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.38140115610111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.27102280788773</v>
+      </c>
+      <c r="R19">
+        <v>13.12899674885092</v>
+      </c>
+      <c r="S19">
+        <v>13.91833529614391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.648356611372464</v>
+        <v>4.086522566808558</v>
       </c>
       <c r="D20">
-        <v>7.803194650315366</v>
+        <v>7.975891448862106</v>
       </c>
       <c r="E20">
-        <v>10.52290101993757</v>
+        <v>10.57246305984679</v>
       </c>
       <c r="F20">
-        <v>22.35425834817706</v>
+        <v>21.62251019814195</v>
       </c>
       <c r="G20">
-        <v>24.36862763779729</v>
+        <v>22.8901573663547</v>
       </c>
       <c r="H20">
-        <v>1.997143616311579</v>
+        <v>1.946947039764027</v>
       </c>
       <c r="I20">
-        <v>3.774196421467797</v>
+        <v>3.707447362896892</v>
       </c>
       <c r="J20">
-        <v>8.983315916902521</v>
+        <v>9.135294081693718</v>
       </c>
       <c r="K20">
-        <v>15.35064319823468</v>
+        <v>14.41288969234659</v>
       </c>
       <c r="L20">
-        <v>6.628221121409708</v>
+        <v>12.29830637515466</v>
       </c>
       <c r="M20">
-        <v>20.01348933338224</v>
+        <v>9.46768713831622</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.60001510864124</v>
       </c>
       <c r="O20">
-        <v>16.90418091802805</v>
+        <v>19.67566143991791</v>
       </c>
       <c r="P20">
-        <v>12.79195270257737</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.061048805644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.7686829822422</v>
+      </c>
+      <c r="R20">
+        <v>12.94886186296068</v>
+      </c>
+      <c r="S20">
+        <v>14.49744090167444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.958195810921964</v>
+        <v>4.329033251867829</v>
       </c>
       <c r="D21">
-        <v>8.156190585031888</v>
+        <v>8.404023668519599</v>
       </c>
       <c r="E21">
-        <v>10.9510278361299</v>
+        <v>11.02777589978135</v>
       </c>
       <c r="F21">
-        <v>23.0310058404448</v>
+        <v>21.97746609947508</v>
       </c>
       <c r="G21">
-        <v>25.25960546182382</v>
+        <v>25.49255543863212</v>
       </c>
       <c r="H21">
-        <v>2.236466842669415</v>
+        <v>2.166028225302369</v>
       </c>
       <c r="I21">
-        <v>3.962970358507524</v>
+        <v>3.86277485431003</v>
       </c>
       <c r="J21">
-        <v>9.040465791730874</v>
+        <v>8.461775265251148</v>
       </c>
       <c r="K21">
-        <v>15.70233279789837</v>
+        <v>14.50240952966811</v>
       </c>
       <c r="L21">
-        <v>6.756338243062246</v>
+        <v>12.14189917775146</v>
       </c>
       <c r="M21">
-        <v>21.1724601545817</v>
+        <v>9.883149538132789</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.717498755426822</v>
       </c>
       <c r="O21">
-        <v>17.86922971453402</v>
+        <v>20.70265313232641</v>
       </c>
       <c r="P21">
-        <v>12.77510725254145</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.32831364614634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.67851570227425</v>
+      </c>
+      <c r="R21">
+        <v>13.00763287487903</v>
+      </c>
+      <c r="S21">
+        <v>14.50849239144008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.19666430136788</v>
+        <v>4.530225934422197</v>
       </c>
       <c r="D22">
-        <v>8.338673600502515</v>
+        <v>8.637376756471376</v>
       </c>
       <c r="E22">
-        <v>11.14465145342882</v>
+        <v>11.24024230178148</v>
       </c>
       <c r="F22">
-        <v>23.42806825104665</v>
+        <v>22.15438134854854</v>
       </c>
       <c r="G22">
-        <v>25.80838334246782</v>
+        <v>27.27104264023681</v>
       </c>
       <c r="H22">
-        <v>2.384694218352212</v>
+        <v>2.301487476077155</v>
       </c>
       <c r="I22">
-        <v>4.08002028536472</v>
+        <v>3.957487022698644</v>
       </c>
       <c r="J22">
-        <v>9.075544080381146</v>
+        <v>8.042760042559488</v>
       </c>
       <c r="K22">
-        <v>15.93240284249354</v>
+        <v>14.55393729105135</v>
       </c>
       <c r="L22">
-        <v>6.811508875547364</v>
+        <v>12.03603278303279</v>
       </c>
       <c r="M22">
-        <v>21.89613319430968</v>
+        <v>10.15087387021511</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.765964850024581</v>
       </c>
       <c r="O22">
-        <v>18.42191344547471</v>
+        <v>21.33945837850321</v>
       </c>
       <c r="P22">
-        <v>12.77226880900901</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.4941321830692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.1943223656444</v>
+      </c>
+      <c r="R22">
+        <v>13.05861909831875</v>
+      </c>
+      <c r="S22">
+        <v>14.49601517461166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.110255760005115</v>
+        <v>4.452313937492306</v>
       </c>
       <c r="D23">
-        <v>8.237147950728989</v>
+        <v>8.502215443184115</v>
       </c>
       <c r="E23">
-        <v>11.03984815200019</v>
+        <v>11.12232128337727</v>
       </c>
       <c r="F23">
-        <v>23.2350290787577</v>
+        <v>22.10397623247942</v>
       </c>
       <c r="G23">
-        <v>25.5507611976691</v>
+        <v>26.1493644019351</v>
       </c>
       <c r="H23">
-        <v>2.306656242877597</v>
+        <v>2.230923611441586</v>
       </c>
       <c r="I23">
-        <v>4.015886452169485</v>
+        <v>3.90473241021896</v>
       </c>
       <c r="J23">
-        <v>9.062684300110776</v>
+        <v>8.33154541306914</v>
       </c>
       <c r="K23">
-        <v>15.83430338782012</v>
+        <v>14.56650507830572</v>
       </c>
       <c r="L23">
-        <v>6.782560404088281</v>
+        <v>12.11870358681863</v>
       </c>
       <c r="M23">
-        <v>21.52057973554494</v>
+        <v>10.04230196063767</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.740925139840679</v>
       </c>
       <c r="O23">
-        <v>18.1322413996198</v>
+        <v>21.01995377221745</v>
       </c>
       <c r="P23">
-        <v>12.77000416945905</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.42048460930855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.92864017637196</v>
+      </c>
+      <c r="R23">
+        <v>13.02221108988</v>
+      </c>
+      <c r="S23">
+        <v>14.53745135315937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.696937575475624</v>
+        <v>4.126035426795507</v>
       </c>
       <c r="D24">
-        <v>7.851238672146573</v>
+        <v>8.024624326499785</v>
       </c>
       <c r="E24">
-        <v>10.63795830674984</v>
+        <v>10.68901999932794</v>
       </c>
       <c r="F24">
-        <v>22.4759908508593</v>
+        <v>21.74162210553693</v>
       </c>
       <c r="G24">
-        <v>24.52011627779547</v>
+        <v>23.02157296006105</v>
       </c>
       <c r="H24">
-        <v>2.003142937302888</v>
+        <v>1.952691717235425</v>
       </c>
       <c r="I24">
-        <v>3.770665043931666</v>
+        <v>3.70194764303087</v>
       </c>
       <c r="J24">
-        <v>9.010338560343168</v>
+        <v>9.165687882625111</v>
       </c>
       <c r="K24">
-        <v>15.42504790869272</v>
+        <v>14.48213079341347</v>
       </c>
       <c r="L24">
-        <v>6.670488097942993</v>
+        <v>12.34941307487768</v>
       </c>
       <c r="M24">
-        <v>20.01903313028426</v>
+        <v>9.521153402336353</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.64235204638851</v>
       </c>
       <c r="O24">
-        <v>16.98541418974387</v>
+        <v>19.6810040091003</v>
       </c>
       <c r="P24">
-        <v>12.77287002903562</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.12728778257251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.84969096942977</v>
+      </c>
+      <c r="R24">
+        <v>12.92856547943012</v>
+      </c>
+      <c r="S24">
+        <v>14.56110676344952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.203018195133171</v>
+        <v>3.826846474699554</v>
       </c>
       <c r="D25">
-        <v>7.417965086197478</v>
+        <v>7.562299624413413</v>
       </c>
       <c r="E25">
-        <v>10.1886639018189</v>
+        <v>10.23766386291681</v>
       </c>
       <c r="F25">
-        <v>21.66617729894963</v>
+        <v>21.07800315490444</v>
       </c>
       <c r="G25">
-        <v>23.41716515093675</v>
+        <v>21.93433619265597</v>
       </c>
       <c r="H25">
-        <v>1.660866222634618</v>
+        <v>1.628805723908886</v>
       </c>
       <c r="I25">
-        <v>3.495395295669707</v>
+        <v>3.464397611480968</v>
       </c>
       <c r="J25">
-        <v>8.967010353860669</v>
+        <v>9.202434829096859</v>
       </c>
       <c r="K25">
-        <v>14.99041930469501</v>
+        <v>14.21127496226679</v>
       </c>
       <c r="L25">
-        <v>6.545836046521061</v>
+        <v>12.47572556898453</v>
       </c>
       <c r="M25">
-        <v>18.25579908533114</v>
+        <v>8.825536767425461</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.527830656763883</v>
       </c>
       <c r="O25">
-        <v>15.65517534691799</v>
+        <v>17.98573547623806</v>
       </c>
       <c r="P25">
-        <v>12.78727550633332</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.83377956502899</v>
+        <v>15.54472328822165</v>
+      </c>
+      <c r="R25">
+        <v>12.89514089342643</v>
+      </c>
+      <c r="S25">
+        <v>14.38132242333195</v>
       </c>
     </row>
   </sheetData>
